--- a/EC/Train Runs and Enforcements 2016-05-07.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-07.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Documents\Analysis\2016-04-12 RTDC Report since 03-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Documents\GitHub\eaglep3-reporting\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -1814,10 +1814,10 @@
     <t>TMC entered a failed state, ran trip in ATC</t>
   </si>
   <si>
-    <t>Insufficient GPS signal, ATC for the last 0.5 mi of trip</t>
-  </si>
-  <si>
     <t>TMC entered a failed state, rest of the trip in ATC</t>
+  </si>
+  <si>
+    <t>GPS signal indicated impossible location, ATC for the last 0.5 mi of trip</t>
   </si>
 </sst>
 </file>
@@ -2307,186 +2307,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2837,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showGridLines="0" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R141" sqref="R141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2860,7 +2685,7 @@
     <col min="15" max="15" width="9.140625" style="4"/>
     <col min="16" max="16" width="6" style="4" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="69.7109375" customWidth="1"/>
     <col min="19" max="19" width="4.28515625" customWidth="1"/>
     <col min="20" max="20" width="8.42578125" style="55" customWidth="1"/>
     <col min="21" max="22" width="10.140625" style="55" customWidth="1"/>
@@ -3065,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="61" t="str">
-        <f>IF(ISEVEN(B3),(B3-1)&amp;"/"&amp;B3,B3&amp;"/"&amp;(B3+1))</f>
+        <f t="shared" ref="K3:K34" si="0">IF(ISEVEN(B3),(B3-1)&amp;"/"&amp;B3,B3&amp;"/"&amp;(B3+1))</f>
         <v>4031/4032</v>
       </c>
       <c r="L3" s="61" t="str">
@@ -3073,11 +2898,11 @@
         <v>LEVIN</v>
       </c>
       <c r="M3" s="12">
-        <f>I3-F3</f>
+        <f t="shared" ref="M3:M34" si="1">I3-F3</f>
         <v>3.1608796292857733E-2</v>
       </c>
       <c r="N3" s="13">
-        <f>$M3*24*60</f>
+        <f t="shared" ref="N3:N12" si="2">$M3*24*60</f>
         <v>45.516666661715135</v>
       </c>
       <c r="O3" s="13"/>
@@ -3085,24 +2910,24 @@
       <c r="Q3" s="62"/>
       <c r="R3" s="52"/>
       <c r="T3" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E3-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I3+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B3&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T3:T34" si="3">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E3-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I3+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B3&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 03:04:47-0600',mode:absolute,to:'2016-05-07 03:53:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U3" s="75" t="str">
-        <f>IF(Y3&lt;23,"Y","N")</f>
+        <f t="shared" ref="U3:U34" si="4">IF(Y3&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V3" s="75"/>
       <c r="W3" s="75">
-        <f>RIGHT(D3,LEN(D3)-4)/10000</f>
+        <f t="shared" ref="W3:W34" si="5">RIGHT(D3,LEN(D3)-4)/10000</f>
         <v>7.0400000000000004E-2</v>
       </c>
       <c r="X3" s="75">
-        <f>RIGHT(H3,LEN(H3)-4)/10000</f>
+        <f t="shared" ref="X3:X34" si="6">RIGHT(H3,LEN(H3)-4)/10000</f>
         <v>23.331499999999998</v>
       </c>
       <c r="Y3" s="75">
-        <f>ABS(X3-W3)</f>
+        <f t="shared" ref="Y3:Y34" si="7">ABS(X3-W3)</f>
         <v>23.261099999999999</v>
       </c>
       <c r="Z3" s="76">
@@ -3146,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="61" t="str">
-        <f>IF(ISEVEN(B4),(B4-1)&amp;"/"&amp;B4,B4&amp;"/"&amp;(B4+1))</f>
+        <f t="shared" si="0"/>
         <v>4023/4024</v>
       </c>
       <c r="L4" s="61" t="str">
@@ -3154,11 +2979,11 @@
         <v>LEVIN</v>
       </c>
       <c r="M4" s="12">
-        <f>I4-F4</f>
+        <f t="shared" si="1"/>
         <v>3.457175925723277E-2</v>
       </c>
       <c r="N4" s="13">
-        <f>$M4*24*60</f>
+        <f t="shared" si="2"/>
         <v>49.783333330415189</v>
       </c>
       <c r="O4" s="13"/>
@@ -3166,27 +2991,27 @@
       <c r="Q4" s="62"/>
       <c r="R4" s="62"/>
       <c r="T4" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E4-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I4+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B4&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 03:59:08-0600',mode:absolute,to:'2016-05-07 04:52:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U4" s="75" t="str">
-        <f>IF(Y4&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V4" s="75">
-        <f>VALUE(LEFT(A4,3))-VALUE(LEFT(A3,3))</f>
+        <f t="shared" ref="V4:V35" si="8">VALUE(LEFT(A4,3))-VALUE(LEFT(A3,3))</f>
         <v>1</v>
       </c>
       <c r="W4" s="75">
-        <f>RIGHT(D4,LEN(D4)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.2681</v>
       </c>
       <c r="X4" s="75">
-        <f>RIGHT(H4,LEN(H4)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.34E-2</v>
       </c>
       <c r="Y4" s="75">
-        <f>ABS(X4-W4)</f>
+        <f t="shared" si="7"/>
         <v>23.2547</v>
       </c>
       <c r="Z4" s="76" t="e">
@@ -3230,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="61" t="str">
-        <f>IF(ISEVEN(B5),(B5-1)&amp;"/"&amp;B5,B5&amp;"/"&amp;(B5+1))</f>
+        <f t="shared" si="0"/>
         <v>4015/4016</v>
       </c>
       <c r="L5" s="61" t="str">
@@ -3238,11 +3063,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M5" s="12">
-        <f>I5-F5</f>
+        <f t="shared" si="1"/>
         <v>3.011574073752854E-2</v>
       </c>
       <c r="N5" s="13">
-        <f>$M5*24*60</f>
+        <f t="shared" si="2"/>
         <v>43.366666662041098</v>
       </c>
       <c r="O5" s="13"/>
@@ -3250,27 +3075,27 @@
       <c r="Q5" s="62"/>
       <c r="R5" s="62"/>
       <c r="T5" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E5-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I5+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B5&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 03:38:45-0600',mode:absolute,to:'2016-05-07 04:25:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U5" s="75" t="str">
-        <f>IF(Y5&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V5" s="75">
-        <f>VALUE(LEFT(A5,3))-VALUE(LEFT(A4,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W5" s="75">
-        <f>RIGHT(D5,LEN(D5)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>7.2599999999999998E-2</v>
       </c>
       <c r="X5" s="75">
-        <f>RIGHT(H5,LEN(H5)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.331900000000001</v>
       </c>
       <c r="Y5" s="75">
-        <f>ABS(X5-W5)</f>
+        <f t="shared" si="7"/>
         <v>23.2593</v>
       </c>
       <c r="Z5" s="76" t="e">
@@ -3314,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="61" t="str">
-        <f>IF(ISEVEN(B6),(B6-1)&amp;"/"&amp;B6,B6&amp;"/"&amp;(B6+1))</f>
+        <f t="shared" si="0"/>
         <v>4039/4040</v>
       </c>
       <c r="L6" s="61" t="str">
@@ -3322,11 +3147,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M6" s="12">
-        <f>I6-F6</f>
+        <f t="shared" si="1"/>
         <v>2.7974537035333924E-2</v>
       </c>
       <c r="N6" s="13">
-        <f>$M6*24*60</f>
+        <f t="shared" si="2"/>
         <v>40.283333330880851</v>
       </c>
       <c r="O6" s="13"/>
@@ -3334,27 +3159,27 @@
       <c r="Q6" s="62"/>
       <c r="R6" s="62"/>
       <c r="T6" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E6-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I6+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B6&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 04:35:22-0600',mode:absolute,to:'2016-05-07 05:21:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U6" s="75" t="str">
-        <f>IF(Y6&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V6" s="75">
-        <f>VALUE(LEFT(A6,3))-VALUE(LEFT(A5,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W6" s="75">
-        <f>RIGHT(D6,LEN(D6)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.267499999999998</v>
       </c>
       <c r="X6" s="75">
-        <f>RIGHT(H6,LEN(H6)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y6" s="75">
-        <f>ABS(X6-W6)</f>
+        <f t="shared" si="7"/>
         <v>23.2517</v>
       </c>
       <c r="Z6" s="76">
@@ -3398,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="61" t="str">
-        <f>IF(ISEVEN(B7),(B7-1)&amp;"/"&amp;B7,B7&amp;"/"&amp;(B7+1))</f>
+        <f t="shared" si="0"/>
         <v>4029/4030</v>
       </c>
       <c r="L7" s="61" t="str">
@@ -3406,11 +3231,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M7" s="12">
-        <f>I7-F7</f>
+        <f t="shared" si="1"/>
         <v>2.7974537035333924E-2</v>
       </c>
       <c r="N7" s="13">
-        <f>$M7*24*60</f>
+        <f t="shared" si="2"/>
         <v>40.283333330880851</v>
       </c>
       <c r="O7" s="13"/>
@@ -3418,27 +3243,27 @@
       <c r="Q7" s="62"/>
       <c r="R7" s="62"/>
       <c r="T7" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E7-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I7+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B7&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 04:08:40-0600',mode:absolute,to:'2016-05-07 04:53:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U7" s="75" t="str">
-        <f>IF(Y7&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V7" s="75">
-        <f>VALUE(LEFT(A7,3))-VALUE(LEFT(A6,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W7" s="75">
-        <f>RIGHT(D7,LEN(D7)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>7.85E-2</v>
       </c>
       <c r="X7" s="75">
-        <f>RIGHT(H7,LEN(H7)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.331</v>
       </c>
       <c r="Y7" s="75">
-        <f>ABS(X7-W7)</f>
+        <f t="shared" si="7"/>
         <v>23.252500000000001</v>
       </c>
       <c r="Z7" s="76" t="e">
@@ -3482,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="61" t="str">
-        <f>IF(ISEVEN(B8),(B8-1)&amp;"/"&amp;B8,B8&amp;"/"&amp;(B8+1))</f>
+        <f t="shared" si="0"/>
         <v>4025/4026</v>
       </c>
       <c r="L8" s="61" t="str">
@@ -3490,11 +3315,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M8" s="12">
-        <f>I8-F8</f>
+        <f t="shared" si="1"/>
         <v>3.1365740745968651E-2</v>
       </c>
       <c r="N8" s="13">
-        <f>$M8*24*60</f>
+        <f t="shared" si="2"/>
         <v>45.166666674194857</v>
       </c>
       <c r="O8" s="13"/>
@@ -3502,27 +3327,27 @@
       <c r="Q8" s="62"/>
       <c r="R8" s="62"/>
       <c r="T8" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E8-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I8+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B8&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 05:01:40-0600',mode:absolute,to:'2016-05-07 05:50:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U8" s="75" t="str">
-        <f>IF(Y8&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V8" s="75">
-        <f>VALUE(LEFT(A8,3))-VALUE(LEFT(A7,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W8" s="75">
-        <f>RIGHT(D8,LEN(D8)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.266999999999999</v>
       </c>
       <c r="X8" s="75">
-        <f>RIGHT(H8,LEN(H8)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>0.19339999999999999</v>
       </c>
       <c r="Y8" s="75">
-        <f>ABS(X8-W8)</f>
+        <f t="shared" si="7"/>
         <v>23.073599999999999</v>
       </c>
       <c r="Z8" s="76" t="e">
@@ -3566,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="61" t="str">
-        <f>IF(ISEVEN(B9),(B9-1)&amp;"/"&amp;B9,B9&amp;"/"&amp;(B9+1))</f>
+        <f t="shared" si="0"/>
         <v>4011/4012</v>
       </c>
       <c r="L9" s="61" t="str">
@@ -3574,11 +3399,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M9" s="12">
-        <f>I9-F9</f>
+        <f t="shared" si="1"/>
         <v>2.8206018519995268E-2</v>
       </c>
       <c r="N9" s="13">
-        <f>$M9*24*60</f>
+        <f t="shared" si="2"/>
         <v>40.616666668793187</v>
       </c>
       <c r="O9" s="13"/>
@@ -3586,27 +3411,27 @@
       <c r="Q9" s="62"/>
       <c r="R9" s="62"/>
       <c r="T9" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E9-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I9+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B9&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 04:23:21-0600',mode:absolute,to:'2016-05-07 05:08:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U9" s="75" t="str">
-        <f>IF(Y9&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V9" s="75">
-        <f>VALUE(LEFT(A9,3))-VALUE(LEFT(A8,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W9" s="75">
-        <f>RIGHT(D9,LEN(D9)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X9" s="75">
-        <f>RIGHT(H9,LEN(H9)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.330100000000002</v>
       </c>
       <c r="Y9" s="75">
-        <f>ABS(X9-W9)</f>
+        <f t="shared" si="7"/>
         <v>23.283700000000003</v>
       </c>
       <c r="Z9" s="76" t="e">
@@ -3650,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="61" t="str">
-        <f>IF(ISEVEN(B10),(B10-1)&amp;"/"&amp;B10,B10&amp;"/"&amp;(B10+1))</f>
+        <f t="shared" si="0"/>
         <v>4011/4012</v>
       </c>
       <c r="L10" s="61" t="str">
@@ -3658,11 +3483,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M10" s="12">
-        <f>I10-F10</f>
+        <f t="shared" si="1"/>
         <v>3.2407407408754807E-2</v>
       </c>
       <c r="N10" s="13">
-        <f>$M10*24*60</f>
+        <f t="shared" si="2"/>
         <v>46.666666668606922</v>
       </c>
       <c r="O10" s="13"/>
@@ -3670,27 +3495,27 @@
       <c r="Q10" s="62"/>
       <c r="R10" s="62"/>
       <c r="T10" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E10-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I10+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B10&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 05:19:26-0600',mode:absolute,to:'2016-05-07 06:09:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U10" s="75" t="str">
-        <f>IF(Y10&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V10" s="75">
-        <f>VALUE(LEFT(A10,3))-VALUE(LEFT(A9,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W10" s="75">
-        <f>RIGHT(D10,LEN(D10)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.3</v>
       </c>
       <c r="X10" s="75">
-        <f>RIGHT(H10,LEN(H10)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y10" s="75">
-        <f>ABS(X10-W10)</f>
+        <f t="shared" si="7"/>
         <v>23.284400000000002</v>
       </c>
       <c r="Z10" s="76" t="e">
@@ -3734,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="61" t="str">
-        <f>IF(ISEVEN(B11),(B11-1)&amp;"/"&amp;B11,B11&amp;"/"&amp;(B11+1))</f>
+        <f t="shared" si="0"/>
         <v>4007/4008</v>
       </c>
       <c r="L11" s="61" t="str">
@@ -3742,11 +3567,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M11" s="12">
-        <f>I11-F11</f>
+        <f t="shared" si="1"/>
         <v>2.920138889021473E-2</v>
       </c>
       <c r="N11" s="13">
-        <f>$M11*24*60</f>
+        <f t="shared" si="2"/>
         <v>42.050000001909211</v>
       </c>
       <c r="O11" s="13"/>
@@ -3754,27 +3579,27 @@
       <c r="Q11" s="62"/>
       <c r="R11" s="62"/>
       <c r="T11" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E11-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I11+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B11&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 04:36:20-0600',mode:absolute,to:'2016-05-07 05:22:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U11" s="75" t="str">
-        <f>IF(Y11&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V11" s="75">
-        <f>VALUE(LEFT(A11,3))-VALUE(LEFT(A10,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W11" s="75">
-        <f>RIGHT(D11,LEN(D11)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.2900000000000001E-2</v>
       </c>
       <c r="X11" s="75">
-        <f>RIGHT(H11,LEN(H11)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.331199999999999</v>
       </c>
       <c r="Y11" s="75">
-        <f>ABS(X11-W11)</f>
+        <f t="shared" si="7"/>
         <v>23.2883</v>
       </c>
       <c r="Z11" s="76">
@@ -3818,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="61" t="str">
-        <f>IF(ISEVEN(B12),(B12-1)&amp;"/"&amp;B12,B12&amp;"/"&amp;(B12+1))</f>
+        <f t="shared" si="0"/>
         <v>4007/4008</v>
       </c>
       <c r="L12" s="61" t="str">
@@ -3826,11 +3651,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M12" s="12">
-        <f>I12-F12</f>
+        <f t="shared" si="1"/>
         <v>2.6747685180453118E-2</v>
       </c>
       <c r="N12" s="13">
-        <f>$M12*24*60</f>
+        <f t="shared" si="2"/>
         <v>38.51666665985249</v>
       </c>
       <c r="O12" s="13"/>
@@ -3838,27 +3663,27 @@
       <c r="Q12" s="62"/>
       <c r="R12" s="62"/>
       <c r="T12" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E12-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I12+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B12&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 05:36:33-0600',mode:absolute,to:'2016-05-07 06:18:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U12" s="75" t="str">
-        <f>IF(Y12&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V12" s="75">
-        <f>VALUE(LEFT(A12,3))-VALUE(LEFT(A11,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W12" s="75">
-        <f>RIGHT(D12,LEN(D12)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.299099999999999</v>
       </c>
       <c r="X12" s="75">
-        <f>RIGHT(H12,LEN(H12)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y12" s="75">
-        <f>ABS(X12-W12)</f>
+        <f t="shared" si="7"/>
         <v>23.284599999999998</v>
       </c>
       <c r="Z12" s="76">
@@ -3902,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="61" t="str">
-        <f>IF(ISEVEN(B13),(B13-1)&amp;"/"&amp;B13,B13&amp;"/"&amp;(B13+1))</f>
+        <f t="shared" si="0"/>
         <v>4031/4032</v>
       </c>
       <c r="L13" s="61" t="str">
@@ -3910,7 +3735,7 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M13" s="12">
-        <f>I13-F13</f>
+        <f t="shared" si="1"/>
         <v>7.2800925918272696E-3</v>
       </c>
       <c r="N13" s="13"/>
@@ -3926,27 +3751,27 @@
         <v>582</v>
       </c>
       <c r="T13" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E13-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I13+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B13&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 04:57:33-0600',mode:absolute,to:'2016-05-07 05:11:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U13" s="75" t="str">
-        <f>IF(Y13&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="V13" s="75">
-        <f>VALUE(LEFT(A13,3))-VALUE(LEFT(A12,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W13" s="75">
-        <f>RIGHT(D13,LEN(D13)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="X13" s="75">
-        <f>RIGHT(H13,LEN(H13)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>3.7038000000000002</v>
       </c>
       <c r="Y13" s="75">
-        <f>ABS(X13-W13)</f>
+        <f t="shared" si="7"/>
         <v>3.6273000000000004</v>
       </c>
       <c r="Z13" s="76">
@@ -3990,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="61" t="str">
-        <f>IF(ISEVEN(B14),(B14-1)&amp;"/"&amp;B14,B14&amp;"/"&amp;(B14+1))</f>
+        <f t="shared" si="0"/>
         <v>4031/4032</v>
       </c>
       <c r="L14" s="61" t="str">
@@ -3998,7 +3823,7 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M14" s="12">
-        <f>I14-F14</f>
+        <f t="shared" si="1"/>
         <v>1.6354166662495118E-2</v>
       </c>
       <c r="N14" s="13"/>
@@ -4007,27 +3832,27 @@
       <c r="Q14" s="62"/>
       <c r="R14" s="62"/>
       <c r="T14" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E14-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I14+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B14&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 05:16:10-0600',mode:absolute,to:'2016-05-07 05:42:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U14" s="75" t="str">
-        <f>IF(Y14&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="V14" s="75">
-        <f>VALUE(LEFT(A14,3))-VALUE(LEFT(A13,3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W14" s="75">
-        <f>RIGHT(D14,LEN(D14)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>6.4687999999999999</v>
       </c>
       <c r="X14" s="75">
-        <f>RIGHT(H14,LEN(H14)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.327400000000001</v>
       </c>
       <c r="Y14" s="75">
-        <f>ABS(X14-W14)</f>
+        <f t="shared" si="7"/>
         <v>16.858600000000003</v>
       </c>
       <c r="Z14" s="76">
@@ -4071,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="61" t="str">
-        <f>IF(ISEVEN(B15),(B15-1)&amp;"/"&amp;B15,B15&amp;"/"&amp;(B15+1))</f>
+        <f t="shared" si="0"/>
         <v>4031/4032</v>
       </c>
       <c r="L15" s="61" t="str">
@@ -4079,11 +3904,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M15" s="12">
-        <f>I15-F15</f>
+        <f t="shared" si="1"/>
         <v>3.0937499999708962E-2</v>
       </c>
       <c r="N15" s="13">
-        <f>$M15*24*60</f>
+        <f t="shared" ref="N15:N28" si="9">$M15*24*60</f>
         <v>44.549999999580905</v>
       </c>
       <c r="O15" s="13"/>
@@ -4093,27 +3918,27 @@
         <v>579</v>
       </c>
       <c r="T15" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E15-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I15+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B15&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 06:34:20-0600',mode:absolute,to:'2016-05-07 07:21:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U15" s="75" t="str">
-        <f>IF(Y15&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V15" s="75">
-        <f>VALUE(LEFT(A15,3))-VALUE(LEFT(A14,3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W15" s="75">
-        <f>RIGHT(D15,LEN(D15)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X15" s="75">
-        <f>RIGHT(H15,LEN(H15)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.3308</v>
       </c>
       <c r="Y15" s="75">
-        <f>ABS(X15-W15)</f>
+        <f t="shared" si="7"/>
         <v>23.284800000000001</v>
       </c>
       <c r="Z15" s="76">
@@ -4157,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="61" t="str">
-        <f>IF(ISEVEN(B16),(B16-1)&amp;"/"&amp;B16,B16&amp;"/"&amp;(B16+1))</f>
+        <f t="shared" si="0"/>
         <v>4031/4032</v>
       </c>
       <c r="L16" s="61" t="str">
@@ -4165,11 +3990,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M16" s="12">
-        <f>I16-F16</f>
+        <f t="shared" si="1"/>
         <v>3.0266203706560191E-2</v>
       </c>
       <c r="N16" s="13">
-        <f>$M16*24*60</f>
+        <f t="shared" si="9"/>
         <v>43.583333337446675</v>
       </c>
       <c r="O16" s="13"/>
@@ -4179,27 +4004,27 @@
         <v>579</v>
       </c>
       <c r="T16" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E16-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I16+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B16&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 08:19:37-0600',mode:absolute,to:'2016-05-07 09:06:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U16" s="75" t="str">
-        <f>IF(Y16&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V16" s="75">
-        <f>VALUE(LEFT(A16,3))-VALUE(LEFT(A15,3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W16" s="75">
-        <f>RIGHT(D16,LEN(D16)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="X16" s="75">
-        <f>RIGHT(H16,LEN(H16)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.329899999999999</v>
       </c>
       <c r="Y16" s="75">
-        <f>ABS(X16-W16)</f>
+        <f t="shared" si="7"/>
         <v>23.2822</v>
       </c>
       <c r="Z16" s="76">
@@ -4243,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="61" t="str">
-        <f>IF(ISEVEN(B17),(B17-1)&amp;"/"&amp;B17,B17&amp;"/"&amp;(B17+1))</f>
+        <f t="shared" si="0"/>
         <v>4031/4032</v>
       </c>
       <c r="L17" s="61" t="str">
@@ -4251,11 +4076,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M17" s="12">
-        <f>I17-F17</f>
+        <f t="shared" si="1"/>
         <v>2.7222222226555459E-2</v>
       </c>
       <c r="N17" s="13">
-        <f>$M17*24*60</f>
+        <f t="shared" si="9"/>
         <v>39.200000006239861</v>
       </c>
       <c r="O17" s="13"/>
@@ -4263,27 +4088,27 @@
       <c r="Q17" s="62"/>
       <c r="R17" s="62"/>
       <c r="T17" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E17-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I17+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B17&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 05:50:58-0600',mode:absolute,to:'2016-05-07 06:34:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U17" s="75" t="str">
-        <f>IF(Y17&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V17" s="75">
-        <f>VALUE(LEFT(A17,3))-VALUE(LEFT(A16,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W17" s="75">
-        <f>RIGHT(D17,LEN(D17)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.296500000000002</v>
       </c>
       <c r="X17" s="75">
-        <f>RIGHT(H17,LEN(H17)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.43E-2</v>
       </c>
       <c r="Y17" s="75">
-        <f>ABS(X17-W17)</f>
+        <f t="shared" si="7"/>
         <v>23.282200000000003</v>
       </c>
       <c r="Z17" s="76" t="e">
@@ -4327,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="61" t="str">
-        <f>IF(ISEVEN(B18),(B18-1)&amp;"/"&amp;B18,B18&amp;"/"&amp;(B18+1))</f>
+        <f t="shared" si="0"/>
         <v>4023/4024</v>
       </c>
       <c r="L18" s="61" t="str">
@@ -4335,11 +4160,11 @@
         <v>LEVIN</v>
       </c>
       <c r="M18" s="12">
-        <f>I18-F18</f>
+        <f t="shared" si="1"/>
         <v>2.8576388889632653E-2</v>
       </c>
       <c r="N18" s="13">
-        <f>$M18*24*60</f>
+        <f t="shared" si="9"/>
         <v>41.150000001071021</v>
       </c>
       <c r="O18" s="13"/>
@@ -4347,27 +4172,27 @@
       <c r="Q18" s="62"/>
       <c r="R18" s="62"/>
       <c r="T18" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E18-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I18+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B18&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 05:08:26-0600',mode:absolute,to:'2016-05-07 05:54:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U18" s="75" t="str">
-        <f>IF(Y18&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V18" s="75">
-        <f>VALUE(LEFT(A18,3))-VALUE(LEFT(A17,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W18" s="75">
-        <f>RIGHT(D18,LEN(D18)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X18" s="75">
-        <f>RIGHT(H18,LEN(H18)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.329799999999999</v>
       </c>
       <c r="Y18" s="75">
-        <f>ABS(X18-W18)</f>
+        <f t="shared" si="7"/>
         <v>23.283199999999997</v>
       </c>
       <c r="Z18" s="76" t="e">
@@ -4411,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="61" t="str">
-        <f>IF(ISEVEN(B19),(B19-1)&amp;"/"&amp;B19,B19&amp;"/"&amp;(B19+1))</f>
+        <f t="shared" si="0"/>
         <v>4023/4024</v>
       </c>
       <c r="L19" s="61" t="str">
@@ -4419,11 +4244,11 @@
         <v>LEVIN</v>
       </c>
       <c r="M19" s="12">
-        <f>I19-F19</f>
+        <f t="shared" si="1"/>
         <v>3.1712962962046731E-2</v>
       </c>
       <c r="N19" s="13">
-        <f>$M19*24*60</f>
+        <f t="shared" si="9"/>
         <v>45.666666665347293</v>
       </c>
       <c r="O19" s="13"/>
@@ -4431,27 +4256,27 @@
       <c r="Q19" s="62"/>
       <c r="R19" s="62"/>
       <c r="T19" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E19-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I19+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B19&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 06:00:09-0600',mode:absolute,to:'2016-05-07 06:48:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U19" s="75" t="str">
-        <f>IF(Y19&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V19" s="75">
-        <f>VALUE(LEFT(A19,3))-VALUE(LEFT(A18,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W19" s="75">
-        <f>RIGHT(D19,LEN(D19)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X19" s="75">
-        <f>RIGHT(H19,LEN(H19)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y19" s="75">
-        <f>ABS(X19-W19)</f>
+        <f t="shared" si="7"/>
         <v>23.2819</v>
       </c>
       <c r="Z19" s="76">
@@ -4495,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="61" t="str">
-        <f>IF(ISEVEN(B20),(B20-1)&amp;"/"&amp;B20,B20&amp;"/"&amp;(B20+1))</f>
+        <f t="shared" si="0"/>
         <v>4015/4016</v>
       </c>
       <c r="L20" s="61" t="str">
@@ -4503,11 +4328,11 @@
         <v>STARKS</v>
       </c>
       <c r="M20" s="12">
-        <f>I20-F20</f>
+        <f t="shared" si="1"/>
         <v>2.5520833332848269E-2</v>
       </c>
       <c r="N20" s="13">
-        <f>$M20*24*60</f>
+        <f t="shared" si="9"/>
         <v>36.749999999301508</v>
       </c>
       <c r="O20" s="13"/>
@@ -4515,27 +4340,27 @@
       <c r="Q20" s="62"/>
       <c r="R20" s="62"/>
       <c r="T20" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E20-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I20+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B20&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 05:26:20-0600',mode:absolute,to:'2016-05-07 06:08:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U20" s="75" t="str">
-        <f>IF(Y20&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V20" s="75">
-        <f>VALUE(LEFT(A20,3))-VALUE(LEFT(A19,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W20" s="75">
-        <f>RIGHT(D20,LEN(D20)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>7.7899999999999997E-2</v>
       </c>
       <c r="X20" s="75">
-        <f>RIGHT(H20,LEN(H20)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.335699999999999</v>
       </c>
       <c r="Y20" s="75">
-        <f>ABS(X20-W20)</f>
+        <f t="shared" si="7"/>
         <v>23.2578</v>
       </c>
       <c r="Z20" s="76" t="e">
@@ -4579,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="61" t="str">
-        <f>IF(ISEVEN(B21),(B21-1)&amp;"/"&amp;B21,B21&amp;"/"&amp;(B21+1))</f>
+        <f t="shared" si="0"/>
         <v>4015/4016</v>
       </c>
       <c r="L21" s="61" t="str">
@@ -4587,11 +4412,11 @@
         <v>STARKS</v>
       </c>
       <c r="M21" s="12">
-        <f>I21-F21</f>
+        <f t="shared" si="1"/>
         <v>2.679398148029577E-2</v>
       </c>
       <c r="N21" s="13">
-        <f>$M21*24*60</f>
+        <f t="shared" si="9"/>
         <v>38.583333331625909</v>
       </c>
       <c r="O21" s="13"/>
@@ -4599,27 +4424,27 @@
       <c r="Q21" s="62"/>
       <c r="R21" s="62"/>
       <c r="T21" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E21-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I21+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B21&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 06:23:29-0600',mode:absolute,to:'2016-05-07 07:05:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U21" s="75" t="str">
-        <f>IF(Y21&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V21" s="75">
-        <f>VALUE(LEFT(A21,3))-VALUE(LEFT(A20,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W21" s="75">
-        <f>RIGHT(D21,LEN(D21)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.302600000000002</v>
       </c>
       <c r="X21" s="75">
-        <f>RIGHT(H21,LEN(H21)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y21" s="75">
-        <f>ABS(X21-W21)</f>
+        <f t="shared" si="7"/>
         <v>23.2881</v>
       </c>
       <c r="Z21" s="76">
@@ -4663,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="61" t="str">
-        <f>IF(ISEVEN(B22),(B22-1)&amp;"/"&amp;B22,B22&amp;"/"&amp;(B22+1))</f>
+        <f t="shared" si="0"/>
         <v>4039/4040</v>
       </c>
       <c r="L22" s="61" t="str">
@@ -4671,11 +4496,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M22" s="12">
-        <f>I22-F22</f>
+        <f t="shared" si="1"/>
         <v>2.9490740736946464E-2</v>
       </c>
       <c r="N22" s="13">
-        <f>$M22*24*60</f>
+        <f t="shared" si="9"/>
         <v>42.466666661202908</v>
       </c>
       <c r="O22" s="13"/>
@@ -4683,27 +4508,27 @@
       <c r="Q22" s="62"/>
       <c r="R22" s="62"/>
       <c r="T22" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E22-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I22+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B22&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 05:35:02-0600',mode:absolute,to:'2016-05-07 06:23:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U22" s="75" t="str">
-        <f>IF(Y22&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V22" s="75">
-        <f>VALUE(LEFT(A22,3))-VALUE(LEFT(A21,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W22" s="75">
-        <f>RIGHT(D22,LEN(D22)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.2200000000000001E-2</v>
       </c>
       <c r="X22" s="75">
-        <f>RIGHT(H22,LEN(H22)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.3353</v>
       </c>
       <c r="Y22" s="75">
-        <f>ABS(X22-W22)</f>
+        <f t="shared" si="7"/>
         <v>23.293099999999999</v>
       </c>
       <c r="Z22" s="76" t="e">
@@ -4747,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="61" t="str">
-        <f>IF(ISEVEN(B23),(B23-1)&amp;"/"&amp;B23,B23&amp;"/"&amp;(B23+1))</f>
+        <f t="shared" si="0"/>
         <v>4039/4040</v>
       </c>
       <c r="L23" s="61" t="str">
@@ -4755,11 +4580,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M23" s="12">
-        <f>I23-F23</f>
+        <f t="shared" si="1"/>
         <v>3.0567129630071577E-2</v>
       </c>
       <c r="N23" s="13">
-        <f>$M23*24*60</f>
+        <f t="shared" si="9"/>
         <v>44.01666666730307</v>
       </c>
       <c r="O23" s="13"/>
@@ -4767,27 +4592,27 @@
       <c r="Q23" s="62"/>
       <c r="R23" s="62"/>
       <c r="T23" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E23-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I23+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B23&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 06:30:50-0600',mode:absolute,to:'2016-05-07 07:19:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U23" s="75" t="str">
-        <f>IF(Y23&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V23" s="75">
-        <f>VALUE(LEFT(A23,3))-VALUE(LEFT(A22,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W23" s="75">
-        <f>RIGHT(D23,LEN(D23)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.3004</v>
       </c>
       <c r="X23" s="75">
-        <f>RIGHT(H23,LEN(H23)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="Y23" s="75">
-        <f>ABS(X23-W23)</f>
+        <f t="shared" si="7"/>
         <v>23.286799999999999</v>
       </c>
       <c r="Z23" s="76" t="e">
@@ -4831,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="61" t="str">
-        <f>IF(ISEVEN(B24),(B24-1)&amp;"/"&amp;B24,B24&amp;"/"&amp;(B24+1))</f>
+        <f t="shared" si="0"/>
         <v>4029/4030</v>
       </c>
       <c r="L24" s="61" t="str">
@@ -4839,11 +4664,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M24" s="12">
-        <f>I24-F24</f>
+        <f t="shared" si="1"/>
         <v>2.5011574078234844E-2</v>
       </c>
       <c r="N24" s="13">
-        <f>$M24*24*60</f>
+        <f t="shared" si="9"/>
         <v>36.016666672658175</v>
       </c>
       <c r="O24" s="13"/>
@@ -4851,27 +4676,27 @@
       <c r="Q24" s="62"/>
       <c r="R24" s="62"/>
       <c r="T24" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E24-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I24+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B24&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 05:56:57-0600',mode:absolute,to:'2016-05-07 06:37:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U24" s="75" t="str">
-        <f>IF(Y24&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V24" s="75">
-        <f>VALUE(LEFT(A24,3))-VALUE(LEFT(A23,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W24" s="75">
-        <f>RIGHT(D24,LEN(D24)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>0.14960000000000001</v>
       </c>
       <c r="X24" s="75">
-        <f>RIGHT(H24,LEN(H24)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.331600000000002</v>
       </c>
       <c r="Y24" s="75">
-        <f>ABS(X24-W24)</f>
+        <f t="shared" si="7"/>
         <v>23.182000000000002</v>
       </c>
       <c r="Z24" s="76" t="e">
@@ -4915,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="61" t="str">
-        <f>IF(ISEVEN(B25),(B25-1)&amp;"/"&amp;B25,B25&amp;"/"&amp;(B25+1))</f>
+        <f t="shared" si="0"/>
         <v>4029/4030</v>
       </c>
       <c r="L25" s="61" t="str">
@@ -4923,11 +4748,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M25" s="12">
-        <f>I25-F25</f>
+        <f t="shared" si="1"/>
         <v>2.8472222227719612E-2</v>
       </c>
       <c r="N25" s="13">
-        <f>$M25*24*60</f>
+        <f t="shared" si="9"/>
         <v>41.000000007916242</v>
       </c>
       <c r="O25" s="13"/>
@@ -4935,27 +4760,27 @@
       <c r="Q25" s="62"/>
       <c r="R25" s="62"/>
       <c r="T25" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E25-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I25+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B25&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 06:49:46-0600',mode:absolute,to:'2016-05-07 07:34:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U25" s="75" t="str">
-        <f>IF(Y25&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V25" s="75">
-        <f>VALUE(LEFT(A25,3))-VALUE(LEFT(A24,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W25" s="75">
-        <f>RIGHT(D25,LEN(D25)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.3005</v>
       </c>
       <c r="X25" s="75">
-        <f>RIGHT(H25,LEN(H25)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y25" s="75">
-        <f>ABS(X25-W25)</f>
+        <f t="shared" si="7"/>
         <v>23.284199999999998</v>
       </c>
       <c r="Z25" s="76" t="e">
@@ -4999,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="61" t="str">
-        <f>IF(ISEVEN(B26),(B26-1)&amp;"/"&amp;B26,B26&amp;"/"&amp;(B26+1))</f>
+        <f t="shared" si="0"/>
         <v>4011/4012</v>
       </c>
       <c r="L26" s="61" t="str">
@@ -5007,11 +4832,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M26" s="12">
-        <f>I26-F26</f>
+        <f t="shared" si="1"/>
         <v>2.7002314818673767E-2</v>
       </c>
       <c r="N26" s="13">
-        <f>$M26*24*60</f>
+        <f t="shared" si="9"/>
         <v>38.883333338890225</v>
       </c>
       <c r="O26" s="13"/>
@@ -5019,27 +4844,27 @@
       <c r="Q26" s="62"/>
       <c r="R26" s="62"/>
       <c r="T26" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E26-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I26+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B26&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 06:09:27-0600',mode:absolute,to:'2016-05-07 06:52:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U26" s="75" t="str">
-        <f>IF(Y26&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V26" s="75">
-        <f>VALUE(LEFT(A26,3))-VALUE(LEFT(A25,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W26" s="75">
-        <f>RIGHT(D26,LEN(D26)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X26" s="75">
-        <f>RIGHT(H26,LEN(H26)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.331399999999999</v>
       </c>
       <c r="Y26" s="75">
-        <f>ABS(X26-W26)</f>
+        <f t="shared" si="7"/>
         <v>23.285399999999999</v>
       </c>
       <c r="Z26" s="76" t="e">
@@ -5083,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="61" t="str">
-        <f>IF(ISEVEN(B27),(B27-1)&amp;"/"&amp;B27,B27&amp;"/"&amp;(B27+1))</f>
+        <f t="shared" si="0"/>
         <v>4011/4012</v>
       </c>
       <c r="L27" s="61" t="str">
@@ -5091,11 +4916,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M27" s="12">
-        <f>I27-F27</f>
+        <f t="shared" si="1"/>
         <v>2.6296296295186039E-2</v>
       </c>
       <c r="N27" s="13">
-        <f>$M27*24*60</f>
+        <f t="shared" si="9"/>
         <v>37.866666665067896</v>
       </c>
       <c r="O27" s="13"/>
@@ -5103,27 +4928,27 @@
       <c r="Q27" s="62"/>
       <c r="R27" s="62"/>
       <c r="T27" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E27-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I27+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B27&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 07:07:55-0600',mode:absolute,to:'2016-05-07 07:48:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U27" s="75" t="str">
-        <f>IF(Y27&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V27" s="75">
-        <f>VALUE(LEFT(A27,3))-VALUE(LEFT(A26,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W27" s="75">
-        <f>RIGHT(D27,LEN(D27)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.2989</v>
       </c>
       <c r="X27" s="75">
-        <f>RIGHT(H27,LEN(H27)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y27" s="75">
-        <f>ABS(X27-W27)</f>
+        <f t="shared" si="7"/>
         <v>23.2835</v>
       </c>
       <c r="Z27" s="76" t="e">
@@ -5167,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="61" t="str">
-        <f>IF(ISEVEN(B28),(B28-1)&amp;"/"&amp;B28,B28&amp;"/"&amp;(B28+1))</f>
+        <f t="shared" si="0"/>
         <v>4007/4008</v>
       </c>
       <c r="L28" s="61" t="str">
@@ -5175,11 +5000,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M28" s="12">
-        <f>I28-F28</f>
+        <f t="shared" si="1"/>
         <v>2.4363425924093463E-2</v>
       </c>
       <c r="N28" s="13">
-        <f>$M28*24*60</f>
+        <f t="shared" si="9"/>
         <v>35.083333330694586</v>
       </c>
       <c r="O28" s="13"/>
@@ -5187,27 +5012,27 @@
       <c r="Q28" s="62"/>
       <c r="R28" s="62"/>
       <c r="T28" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E28-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I28+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B28&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 06:24:51-0600',mode:absolute,to:'2016-05-07 07:06:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U28" s="75" t="str">
-        <f>IF(Y28&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V28" s="75">
-        <f>VALUE(LEFT(A28,3))-VALUE(LEFT(A27,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W28" s="75">
-        <f>RIGHT(D28,LEN(D28)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X28" s="75">
-        <f>RIGHT(H28,LEN(H28)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.327400000000001</v>
       </c>
       <c r="Y28" s="75">
-        <f>ABS(X28-W28)</f>
+        <f t="shared" si="7"/>
         <v>23.281000000000002</v>
       </c>
       <c r="Z28" s="76">
@@ -5251,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="61" t="str">
-        <f>IF(ISEVEN(B29),(B29-1)&amp;"/"&amp;B29,B29&amp;"/"&amp;(B29+1))</f>
+        <f t="shared" si="0"/>
         <v>4007/4008</v>
       </c>
       <c r="L29" s="61" t="str">
@@ -5259,7 +5084,7 @@
         <v>MALAVE</v>
       </c>
       <c r="M29" s="12">
-        <f>I29-F29</f>
+        <f t="shared" si="1"/>
         <v>1.5185185184236616E-2</v>
       </c>
       <c r="N29" s="13"/>
@@ -5275,27 +5100,27 @@
         <v>583</v>
       </c>
       <c r="T29" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E29-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I29+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B29&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 07:23:25-0600',mode:absolute,to:'2016-05-07 07:50:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U29" s="75" t="str">
-        <f>IF(Y29&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="V29" s="75">
-        <f>VALUE(LEFT(A29,3))-VALUE(LEFT(A28,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W29" s="75">
-        <f>RIGHT(D29,LEN(D29)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.107600000000001</v>
       </c>
       <c r="X29" s="75">
-        <f>RIGHT(H29,LEN(H29)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>6.4172000000000002</v>
       </c>
       <c r="Y29" s="75">
-        <f>ABS(X29-W29)</f>
+        <f t="shared" si="7"/>
         <v>16.6904</v>
       </c>
       <c r="Z29" s="76">
@@ -5339,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="61" t="str">
-        <f>IF(ISEVEN(B30),(B30-1)&amp;"/"&amp;B30,B30&amp;"/"&amp;(B30+1))</f>
+        <f t="shared" si="0"/>
         <v>4031/4032</v>
       </c>
       <c r="L30" s="61" t="str">
@@ -5347,11 +5172,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M30" s="12">
-        <f>I30-F30</f>
+        <f t="shared" si="1"/>
         <v>2.6851851856918074E-2</v>
       </c>
       <c r="N30" s="13">
-        <f>$M30*24*60</f>
+        <f t="shared" ref="N30:N41" si="10">$M30*24*60</f>
         <v>38.666666673962027</v>
       </c>
       <c r="O30" s="13"/>
@@ -5359,27 +5184,27 @@
       <c r="Q30" s="62"/>
       <c r="R30" s="62"/>
       <c r="T30" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E30-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I30+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B30&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 07:35:43-0600',mode:absolute,to:'2016-05-07 08:18:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U30" s="75" t="str">
-        <f>IF(Y30&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V30" s="75">
-        <f>VALUE(LEFT(A30,3))-VALUE(LEFT(A29,3))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="W30" s="75">
-        <f>RIGHT(D30,LEN(D30)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.299600000000002</v>
       </c>
       <c r="X30" s="75">
-        <f>RIGHT(H30,LEN(H30)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y30" s="75">
-        <f>ABS(X30-W30)</f>
+        <f t="shared" si="7"/>
         <v>23.284000000000002</v>
       </c>
       <c r="Z30" s="76" t="e">
@@ -5423,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="61" t="str">
-        <f>IF(ISEVEN(B31),(B31-1)&amp;"/"&amp;B31,B31&amp;"/"&amp;(B31+1))</f>
+        <f t="shared" si="0"/>
         <v>4023/4024</v>
       </c>
       <c r="L31" s="61" t="str">
@@ -5431,11 +5256,11 @@
         <v>LEVIN</v>
       </c>
       <c r="M31" s="12">
-        <f>I31-F31</f>
+        <f t="shared" si="1"/>
         <v>2.8368055551254656E-2</v>
       </c>
       <c r="N31" s="13">
-        <f>$M31*24*60</f>
+        <f t="shared" si="10"/>
         <v>40.849999993806705</v>
       </c>
       <c r="O31" s="13"/>
@@ -5443,27 +5268,27 @@
       <c r="Q31" s="62"/>
       <c r="R31" s="62"/>
       <c r="T31" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E31-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I31+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B31&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 06:52:04-0600',mode:absolute,to:'2016-05-07 07:36:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U31" s="75" t="str">
-        <f>IF(Y31&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V31" s="75">
-        <f>VALUE(LEFT(A31,3))-VALUE(LEFT(A30,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W31" s="75">
-        <f>RIGHT(D31,LEN(D31)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="X31" s="75">
-        <f>RIGHT(H31,LEN(H31)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.329899999999999</v>
       </c>
       <c r="Y31" s="75">
-        <f>ABS(X31-W31)</f>
+        <f t="shared" si="7"/>
         <v>23.285899999999998</v>
       </c>
       <c r="Z31" s="76" t="e">
@@ -5507,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="61" t="str">
-        <f>IF(ISEVEN(B32),(B32-1)&amp;"/"&amp;B32,B32&amp;"/"&amp;(B32+1))</f>
+        <f t="shared" si="0"/>
         <v>4023/4024</v>
       </c>
       <c r="L32" s="61" t="str">
@@ -5515,11 +5340,11 @@
         <v>LEVIN</v>
       </c>
       <c r="M32" s="12">
-        <f>I32-F32</f>
+        <f t="shared" si="1"/>
         <v>3.1377314815472346E-2</v>
       </c>
       <c r="N32" s="13">
-        <f>$M32*24*60</f>
+        <f t="shared" si="10"/>
         <v>45.183333334280178</v>
       </c>
       <c r="O32" s="13"/>
@@ -5527,27 +5352,27 @@
       <c r="Q32" s="62"/>
       <c r="R32" s="62"/>
       <c r="T32" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E32-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I32+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B32&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 07:44:36-0600',mode:absolute,to:'2016-05-07 08:33:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U32" s="75" t="str">
-        <f>IF(Y32&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V32" s="75">
-        <f>VALUE(LEFT(A32,3))-VALUE(LEFT(A31,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W32" s="75">
-        <f>RIGHT(D32,LEN(D32)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.297799999999999</v>
       </c>
       <c r="X32" s="75">
-        <f>RIGHT(H32,LEN(H32)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y32" s="75">
-        <f>ABS(X32-W32)</f>
+        <f t="shared" si="7"/>
         <v>23.282799999999998</v>
       </c>
       <c r="Z32" s="76" t="e">
@@ -5591,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="61" t="str">
-        <f>IF(ISEVEN(B33),(B33-1)&amp;"/"&amp;B33,B33&amp;"/"&amp;(B33+1))</f>
+        <f t="shared" si="0"/>
         <v>4015/4016</v>
       </c>
       <c r="L33" s="61" t="str">
@@ -5599,11 +5424,11 @@
         <v>STARKS</v>
       </c>
       <c r="M33" s="12">
-        <f>I33-F33</f>
+        <f t="shared" si="1"/>
         <v>3.2719907409045845E-2</v>
       </c>
       <c r="N33" s="13">
-        <f>$M33*24*60</f>
+        <f t="shared" si="10"/>
         <v>47.116666669026017</v>
       </c>
       <c r="O33" s="13"/>
@@ -5611,27 +5436,27 @@
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="T33" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E33-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I33+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B33&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 07:07:53-0600',mode:absolute,to:'2016-05-07 07:58:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U33" s="75" t="str">
-        <f>IF(Y33&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V33" s="75">
-        <f>VALUE(LEFT(A33,3))-VALUE(LEFT(A32,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W33" s="75">
-        <f>RIGHT(D33,LEN(D33)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X33" s="75">
-        <f>RIGHT(H33,LEN(H33)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.3368</v>
       </c>
       <c r="Y33" s="75">
-        <f>ABS(X33-W33)</f>
+        <f t="shared" si="7"/>
         <v>23.291699999999999</v>
       </c>
       <c r="Z33" s="76">
@@ -5675,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="61" t="str">
-        <f>IF(ISEVEN(B34),(B34-1)&amp;"/"&amp;B34,B34&amp;"/"&amp;(B34+1))</f>
+        <f t="shared" si="0"/>
         <v>4015/4016</v>
       </c>
       <c r="L34" s="61" t="str">
@@ -5683,11 +5508,11 @@
         <v>STARKS</v>
       </c>
       <c r="M34" s="12">
-        <f>I34-F34</f>
+        <f t="shared" si="1"/>
         <v>2.7442129627161194E-2</v>
       </c>
       <c r="N34" s="13">
-        <f>$M34*24*60</f>
+        <f t="shared" si="10"/>
         <v>39.516666663112119</v>
       </c>
       <c r="O34" s="13"/>
@@ -5695,27 +5520,27 @@
       <c r="Q34" s="62"/>
       <c r="R34" s="62"/>
       <c r="T34" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E34-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I34+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B34&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 08:06:55-0600',mode:absolute,to:'2016-05-07 08:49:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U34" s="75" t="str">
-        <f>IF(Y34&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V34" s="75">
-        <f>VALUE(LEFT(A34,3))-VALUE(LEFT(A33,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W34" s="75">
-        <f>RIGHT(D34,LEN(D34)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.302499999999998</v>
       </c>
       <c r="X34" s="75">
-        <f>RIGHT(H34,LEN(H34)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y34" s="75">
-        <f>ABS(X34-W34)</f>
+        <f t="shared" si="7"/>
         <v>23.288399999999999</v>
       </c>
       <c r="Z34" s="76" t="e">
@@ -5759,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="61" t="str">
-        <f>IF(ISEVEN(B35),(B35-1)&amp;"/"&amp;B35,B35&amp;"/"&amp;(B35+1))</f>
+        <f t="shared" ref="K35:K66" si="11">IF(ISEVEN(B35),(B35-1)&amp;"/"&amp;B35,B35&amp;"/"&amp;(B35+1))</f>
         <v>4039/4040</v>
       </c>
       <c r="L35" s="61" t="str">
@@ -5767,11 +5592,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M35" s="12">
-        <f>I35-F35</f>
+        <f t="shared" ref="M35:M66" si="12">I35-F35</f>
         <v>2.6724537041445728E-2</v>
       </c>
       <c r="N35" s="13">
-        <f>$M35*24*60</f>
+        <f t="shared" si="10"/>
         <v>38.483333339681849</v>
       </c>
       <c r="O35" s="13"/>
@@ -5779,27 +5604,27 @@
       <c r="Q35" s="62"/>
       <c r="R35" s="62"/>
       <c r="T35" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E35-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I35+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B35&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T35:T66" si="13">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E35-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I35+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B35&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 07:25:09-0600',mode:absolute,to:'2016-05-07 08:07:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U35" s="75" t="str">
-        <f>IF(Y35&lt;23,"Y","N")</f>
+        <f t="shared" ref="U35:U66" si="14">IF(Y35&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V35" s="75">
-        <f>VALUE(LEFT(A35,3))-VALUE(LEFT(A34,3))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W35" s="75">
-        <f>RIGHT(D35,LEN(D35)-4)/10000</f>
+        <f t="shared" ref="W35:W66" si="15">RIGHT(D35,LEN(D35)-4)/10000</f>
         <v>4.3700000000000003E-2</v>
       </c>
       <c r="X35" s="75">
-        <f>RIGHT(H35,LEN(H35)-4)/10000</f>
+        <f t="shared" ref="X35:X66" si="16">RIGHT(H35,LEN(H35)-4)/10000</f>
         <v>23.3291</v>
       </c>
       <c r="Y35" s="75">
-        <f>ABS(X35-W35)</f>
+        <f t="shared" ref="Y35:Y66" si="17">ABS(X35-W35)</f>
         <v>23.285399999999999</v>
       </c>
       <c r="Z35" s="76" t="e">
@@ -5843,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="61" t="str">
-        <f>IF(ISEVEN(B36),(B36-1)&amp;"/"&amp;B36,B36&amp;"/"&amp;(B36+1))</f>
+        <f t="shared" si="11"/>
         <v>4039/4040</v>
       </c>
       <c r="L36" s="61" t="str">
@@ -5851,11 +5676,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M36" s="12">
-        <f>I36-F36</f>
+        <f t="shared" si="12"/>
         <v>2.7175925926712807E-2</v>
       </c>
       <c r="N36" s="13">
-        <f>$M36*24*60</f>
+        <f t="shared" si="10"/>
         <v>39.133333334466442</v>
       </c>
       <c r="O36" s="13"/>
@@ -5863,27 +5688,27 @@
       <c r="Q36" s="62"/>
       <c r="R36" s="62"/>
       <c r="T36" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E36-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I36+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B36&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 08:22:05-0600',mode:absolute,to:'2016-05-07 09:04:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U36" s="75" t="str">
-        <f>IF(Y36&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V36" s="75">
-        <f>VALUE(LEFT(A36,3))-VALUE(LEFT(A35,3))</f>
+        <f t="shared" ref="V36:V67" si="18">VALUE(LEFT(A36,3))-VALUE(LEFT(A35,3))</f>
         <v>1</v>
       </c>
       <c r="W36" s="75">
-        <f>RIGHT(D36,LEN(D36)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.297499999999999</v>
       </c>
       <c r="X36" s="75">
-        <f>RIGHT(H36,LEN(H36)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y36" s="75">
-        <f>ABS(X36-W36)</f>
+        <f t="shared" si="17"/>
         <v>23.282299999999999</v>
       </c>
       <c r="Z36" s="76" t="e">
@@ -5927,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="61" t="str">
-        <f>IF(ISEVEN(B37),(B37-1)&amp;"/"&amp;B37,B37&amp;"/"&amp;(B37+1))</f>
+        <f t="shared" si="11"/>
         <v>4029/4030</v>
       </c>
       <c r="L37" s="61" t="str">
@@ -5935,11 +5760,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M37" s="12">
-        <f>I37-F37</f>
+        <f t="shared" si="12"/>
         <v>2.8483796297223307E-2</v>
       </c>
       <c r="N37" s="13">
-        <f>$M37*24*60</f>
+        <f t="shared" si="10"/>
         <v>41.016666668001562</v>
       </c>
       <c r="O37" s="13"/>
@@ -5947,27 +5772,27 @@
       <c r="Q37" s="62"/>
       <c r="R37" s="62"/>
       <c r="T37" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E37-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I37+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B37&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 07:36:36-0600',mode:absolute,to:'2016-05-07 08:22:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U37" s="75" t="str">
-        <f>IF(Y37&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V37" s="75">
-        <f>VALUE(LEFT(A37,3))-VALUE(LEFT(A36,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W37" s="75">
-        <f>RIGHT(D37,LEN(D37)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X37" s="75">
-        <f>RIGHT(H37,LEN(H37)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>23.331199999999999</v>
       </c>
       <c r="Y37" s="75">
-        <f>ABS(X37-W37)</f>
+        <f t="shared" si="17"/>
         <v>23.284800000000001</v>
       </c>
       <c r="Z37" s="76" t="e">
@@ -6011,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="61" t="str">
-        <f>IF(ISEVEN(B38),(B38-1)&amp;"/"&amp;B38,B38&amp;"/"&amp;(B38+1))</f>
+        <f t="shared" si="11"/>
         <v>4029/4030</v>
       </c>
       <c r="L38" s="61" t="str">
@@ -6019,11 +5844,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M38" s="12">
-        <f>I38-F38</f>
+        <f t="shared" si="12"/>
         <v>2.718750000349246E-2</v>
       </c>
       <c r="N38" s="13">
-        <f>$M38*24*60</f>
+        <f t="shared" si="10"/>
         <v>39.150000005029142</v>
       </c>
       <c r="O38" s="13"/>
@@ -6031,27 +5856,27 @@
       <c r="Q38" s="62"/>
       <c r="R38" s="62"/>
       <c r="T38" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E38-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I38+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B38&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 08:36:46-0600',mode:absolute,to:'2016-05-07 09:19:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U38" s="75" t="str">
-        <f>IF(Y38&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V38" s="75">
-        <f>VALUE(LEFT(A38,3))-VALUE(LEFT(A37,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W38" s="75">
-        <f>RIGHT(D38,LEN(D38)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.3</v>
       </c>
       <c r="X38" s="75">
-        <f>RIGHT(H38,LEN(H38)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.61E-2</v>
       </c>
       <c r="Y38" s="75">
-        <f>ABS(X38-W38)</f>
+        <f t="shared" si="17"/>
         <v>23.283899999999999</v>
       </c>
       <c r="Z38" s="76" t="e">
@@ -6095,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="61" t="str">
-        <f>IF(ISEVEN(B39),(B39-1)&amp;"/"&amp;B39,B39&amp;"/"&amp;(B39+1))</f>
+        <f t="shared" si="11"/>
         <v>4011/4012</v>
       </c>
       <c r="L39" s="61" t="str">
@@ -6103,11 +5928,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M39" s="12">
-        <f>I39-F39</f>
+        <f t="shared" si="12"/>
         <v>2.7025462964957114E-2</v>
       </c>
       <c r="N39" s="13">
-        <f>$M39*24*60</f>
+        <f t="shared" si="10"/>
         <v>38.916666669538245</v>
       </c>
       <c r="O39" s="13"/>
@@ -6115,27 +5940,27 @@
       <c r="Q39" s="62"/>
       <c r="R39" s="62"/>
       <c r="T39" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E39-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I39+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B39&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 07:54:24-0600',mode:absolute,to:'2016-05-07 08:36:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U39" s="75" t="str">
-        <f>IF(Y39&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V39" s="75">
-        <f>VALUE(LEFT(A39,3))-VALUE(LEFT(A38,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W39" s="75">
-        <f>RIGHT(D39,LEN(D39)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="X39" s="75">
-        <f>RIGHT(H39,LEN(H39)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>23.3307</v>
       </c>
       <c r="Y39" s="75">
-        <f>ABS(X39-W39)</f>
+        <f t="shared" si="17"/>
         <v>23.2834</v>
       </c>
       <c r="Z39" s="76" t="e">
@@ -6179,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="61" t="str">
-        <f>IF(ISEVEN(B40),(B40-1)&amp;"/"&amp;B40,B40&amp;"/"&amp;(B40+1))</f>
+        <f t="shared" si="11"/>
         <v>4011/4012</v>
       </c>
       <c r="L40" s="61" t="str">
@@ -6187,11 +6012,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M40" s="12">
-        <f>I40-F40</f>
+        <f t="shared" si="12"/>
         <v>2.9074074074742384E-2</v>
       </c>
       <c r="N40" s="13">
-        <f>$M40*24*60</f>
+        <f t="shared" si="10"/>
         <v>41.866666667629033</v>
       </c>
       <c r="O40" s="13"/>
@@ -6199,27 +6024,27 @@
       <c r="Q40" s="62"/>
       <c r="R40" s="62"/>
       <c r="T40" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E40-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I40+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B40&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 08:48:08-0600',mode:absolute,to:'2016-05-07 09:33:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U40" s="75" t="str">
-        <f>IF(Y40&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V40" s="75">
-        <f>VALUE(LEFT(A40,3))-VALUE(LEFT(A39,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W40" s="75">
-        <f>RIGHT(D40,LEN(D40)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.297799999999999</v>
       </c>
       <c r="X40" s="75">
-        <f>RIGHT(H40,LEN(H40)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="Y40" s="75">
-        <f>ABS(X40-W40)</f>
+        <f t="shared" si="17"/>
         <v>23.284199999999998</v>
       </c>
       <c r="Z40" s="76">
@@ -6263,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="61" t="str">
-        <f>IF(ISEVEN(B41),(B41-1)&amp;"/"&amp;B41,B41&amp;"/"&amp;(B41+1))</f>
+        <f t="shared" si="11"/>
         <v>4007/4008</v>
       </c>
       <c r="L41" s="61" t="str">
@@ -6271,11 +6096,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M41" s="12">
-        <f>I41-F41</f>
+        <f t="shared" si="12"/>
         <v>2.5046296294021886E-2</v>
       </c>
       <c r="N41" s="13">
-        <f>$M41*24*60</f>
+        <f t="shared" si="10"/>
         <v>36.066666663391516</v>
       </c>
       <c r="O41" s="13"/>
@@ -6283,27 +6108,27 @@
       <c r="Q41" s="62"/>
       <c r="R41" s="62"/>
       <c r="T41" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E41-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I41+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B41&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 08:12:36-0600',mode:absolute,to:'2016-05-07 08:51:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U41" s="75" t="str">
-        <f>IF(Y41&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V41" s="75">
-        <f>VALUE(LEFT(A41,3))-VALUE(LEFT(A40,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W41" s="75">
-        <f>RIGHT(D41,LEN(D41)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="X41" s="75">
-        <f>RIGHT(H41,LEN(H41)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>23.332899999999999</v>
       </c>
       <c r="Y41" s="75">
-        <f>ABS(X41-W41)</f>
+        <f t="shared" si="17"/>
         <v>23.285599999999999</v>
       </c>
       <c r="Z41" s="76" t="e">
@@ -6347,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="61" t="str">
-        <f>IF(ISEVEN(B42),(B42-1)&amp;"/"&amp;B42,B42&amp;"/"&amp;(B42+1))</f>
+        <f t="shared" si="11"/>
         <v>4007/4008</v>
       </c>
       <c r="L42" s="61" t="str">
@@ -6355,7 +6180,7 @@
         <v>MALAVE</v>
       </c>
       <c r="M42" s="12">
-        <f>I42-F42</f>
+        <f t="shared" si="12"/>
         <v>1.8356481479713693E-2</v>
       </c>
       <c r="N42" s="13"/>
@@ -6371,27 +6196,27 @@
         <v>584</v>
       </c>
       <c r="T42" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E42-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I42+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B42&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 09:06:00-0600',mode:absolute,to:'2016-05-07 09:50:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U42" s="75" t="str">
-        <f>IF(Y42&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>Y</v>
       </c>
       <c r="V42" s="75">
-        <f>VALUE(LEFT(A42,3))-VALUE(LEFT(A41,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W42" s="75">
-        <f>RIGHT(D42,LEN(D42)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>15.4002</v>
       </c>
       <c r="X42" s="75">
-        <f>RIGHT(H42,LEN(H42)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.49E-2</v>
       </c>
       <c r="Y42" s="75">
-        <f>ABS(X42-W42)</f>
+        <f t="shared" si="17"/>
         <v>15.385299999999999</v>
       </c>
       <c r="Z42" s="76">
@@ -6435,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="61" t="str">
-        <f>IF(ISEVEN(B43),(B43-1)&amp;"/"&amp;B43,B43&amp;"/"&amp;(B43+1))</f>
+        <f t="shared" si="11"/>
         <v>4031/4032</v>
       </c>
       <c r="L43" s="61" t="str">
@@ -6443,11 +6268,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M43" s="12">
-        <f>I43-F43</f>
+        <f t="shared" si="12"/>
         <v>2.9594907406135462E-2</v>
       </c>
       <c r="N43" s="13">
-        <f>$M43*24*60</f>
+        <f t="shared" ref="N43:N84" si="19">$M43*24*60</f>
         <v>42.616666664835066</v>
       </c>
       <c r="O43" s="13"/>
@@ -6455,27 +6280,27 @@
       <c r="Q43" s="62"/>
       <c r="R43" s="62"/>
       <c r="T43" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E43-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I43+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B43&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 09:16:46-0600',mode:absolute,to:'2016-05-07 10:03:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U43" s="75" t="str">
-        <f>IF(Y43&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V43" s="75">
-        <f>VALUE(LEFT(A43,3))-VALUE(LEFT(A42,3))</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="W43" s="75">
-        <f>RIGHT(D43,LEN(D43)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.2986</v>
       </c>
       <c r="X43" s="75">
-        <f>RIGHT(H43,LEN(H43)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y43" s="75">
-        <f>ABS(X43-W43)</f>
+        <f t="shared" si="17"/>
         <v>23.283200000000001</v>
       </c>
       <c r="Z43" s="76" t="e">
@@ -6519,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="61" t="str">
-        <f>IF(ISEVEN(B44),(B44-1)&amp;"/"&amp;B44,B44&amp;"/"&amp;(B44+1))</f>
+        <f t="shared" si="11"/>
         <v>4023/4024</v>
       </c>
       <c r="L44" s="61" t="str">
@@ -6527,11 +6352,11 @@
         <v>LEVIN</v>
       </c>
       <c r="M44" s="12">
-        <f>I44-F44</f>
+        <f t="shared" si="12"/>
         <v>3.0069444444961846E-2</v>
       </c>
       <c r="N44" s="13">
-        <f>$M44*24*60</f>
+        <f t="shared" si="19"/>
         <v>43.300000000745058</v>
       </c>
       <c r="O44" s="13"/>
@@ -6539,27 +6364,27 @@
       <c r="Q44" s="62"/>
       <c r="R44" s="62"/>
       <c r="T44" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E44-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I44+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B44&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 08:35:32-0600',mode:absolute,to:'2016-05-07 09:22:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U44" s="75" t="str">
-        <f>IF(Y44&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V44" s="75">
-        <f>VALUE(LEFT(A44,3))-VALUE(LEFT(A43,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W44" s="75">
-        <f>RIGHT(D44,LEN(D44)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X44" s="75">
-        <f>RIGHT(H44,LEN(H44)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>23.331499999999998</v>
       </c>
       <c r="Y44" s="75">
-        <f>ABS(X44-W44)</f>
+        <f t="shared" si="17"/>
         <v>23.285299999999999</v>
       </c>
       <c r="Z44" s="76" t="e">
@@ -6603,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="61" t="str">
-        <f>IF(ISEVEN(B45),(B45-1)&amp;"/"&amp;B45,B45&amp;"/"&amp;(B45+1))</f>
+        <f t="shared" si="11"/>
         <v>4023/4024</v>
       </c>
       <c r="L45" s="61" t="str">
@@ -6611,11 +6436,11 @@
         <v>LEVIN</v>
       </c>
       <c r="M45" s="12">
-        <f>I45-F45</f>
+        <f t="shared" si="12"/>
         <v>3.2037037039117422E-2</v>
       </c>
       <c r="N45" s="13">
-        <f>$M45*24*60</f>
+        <f t="shared" si="19"/>
         <v>46.133333336329088</v>
       </c>
       <c r="O45" s="13"/>
@@ -6623,27 +6448,27 @@
       <c r="Q45" s="62"/>
       <c r="R45" s="62"/>
       <c r="T45" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E45-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I45+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B45&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 09:31:21-0600',mode:absolute,to:'2016-05-07 10:21:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U45" s="75" t="str">
-        <f>IF(Y45&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V45" s="75">
-        <f>VALUE(LEFT(A45,3))-VALUE(LEFT(A44,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W45" s="75">
-        <f>RIGHT(D45,LEN(D45)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.300599999999999</v>
       </c>
       <c r="X45" s="75">
-        <f>RIGHT(H45,LEN(H45)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y45" s="75">
-        <f>ABS(X45-W45)</f>
+        <f t="shared" si="17"/>
         <v>23.284299999999998</v>
       </c>
       <c r="Z45" s="76" t="e">
@@ -6687,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="61" t="str">
-        <f>IF(ISEVEN(B46),(B46-1)&amp;"/"&amp;B46,B46&amp;"/"&amp;(B46+1))</f>
+        <f t="shared" si="11"/>
         <v>4015/4016</v>
       </c>
       <c r="L46" s="61" t="str">
@@ -6695,11 +6520,11 @@
         <v>STARKS</v>
       </c>
       <c r="M46" s="12">
-        <f>I46-F46</f>
+        <f t="shared" si="12"/>
         <v>3.0057870375458151E-2</v>
       </c>
       <c r="N46" s="13">
-        <f>$M46*24*60</f>
+        <f t="shared" si="19"/>
         <v>43.283333340659738</v>
       </c>
       <c r="O46" s="13"/>
@@ -6707,27 +6532,27 @@
       <c r="Q46" s="62"/>
       <c r="R46" s="62"/>
       <c r="T46" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E46-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I46+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B46&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 08:51:08-0600',mode:absolute,to:'2016-05-07 09:37:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U46" s="75" t="str">
-        <f>IF(Y46&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V46" s="75">
-        <f>VALUE(LEFT(A46,3))-VALUE(LEFT(A45,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W46" s="75">
-        <f>RIGHT(D46,LEN(D46)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.53E-2</v>
       </c>
       <c r="X46" s="75">
-        <f>RIGHT(H46,LEN(H46)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>23.336200000000002</v>
       </c>
       <c r="Y46" s="75">
-        <f>ABS(X46-W46)</f>
+        <f t="shared" si="17"/>
         <v>23.290900000000001</v>
       </c>
       <c r="Z46" s="76" t="e">
@@ -6771,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="61" t="str">
-        <f>IF(ISEVEN(B47),(B47-1)&amp;"/"&amp;B47,B47&amp;"/"&amp;(B47+1))</f>
+        <f t="shared" si="11"/>
         <v>4015/4016</v>
       </c>
       <c r="L47" s="61" t="str">
@@ -6779,11 +6604,11 @@
         <v>STARKS</v>
       </c>
       <c r="M47" s="12">
-        <f>I47-F47</f>
+        <f t="shared" si="12"/>
         <v>2.8437499997380655E-2</v>
       </c>
       <c r="N47" s="13">
-        <f>$M47*24*60</f>
+        <f t="shared" si="19"/>
         <v>40.949999996228144</v>
       </c>
       <c r="O47" s="13"/>
@@ -6791,27 +6616,27 @@
       <c r="Q47" s="62"/>
       <c r="R47" s="62"/>
       <c r="T47" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E47-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I47+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B47&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 09:52:29-0600',mode:absolute,to:'2016-05-07 10:36:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U47" s="75" t="str">
-        <f>IF(Y47&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V47" s="75">
-        <f>VALUE(LEFT(A47,3))-VALUE(LEFT(A46,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W47" s="75">
-        <f>RIGHT(D47,LEN(D47)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.3034</v>
       </c>
       <c r="X47" s="75">
-        <f>RIGHT(H47,LEN(H47)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y47" s="75">
-        <f>ABS(X47-W47)</f>
+        <f t="shared" si="17"/>
         <v>23.287800000000001</v>
       </c>
       <c r="Z47" s="76" t="e">
@@ -6855,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="61" t="str">
-        <f>IF(ISEVEN(B48),(B48-1)&amp;"/"&amp;B48,B48&amp;"/"&amp;(B48+1))</f>
+        <f t="shared" si="11"/>
         <v>4039/4040</v>
       </c>
       <c r="L48" s="61" t="str">
@@ -6863,11 +6688,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M48" s="12">
-        <f>I48-F48</f>
+        <f t="shared" si="12"/>
         <v>2.9166666667151731E-2</v>
       </c>
       <c r="N48" s="13">
-        <f>$M48*24*60</f>
+        <f t="shared" si="19"/>
         <v>42.000000000698492</v>
       </c>
       <c r="O48" s="13"/>
@@ -6875,27 +6700,27 @@
       <c r="Q48" s="62"/>
       <c r="R48" s="62"/>
       <c r="T48" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E48-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I48+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B48&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 09:07:17-0600',mode:absolute,to:'2016-05-07 09:52:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U48" s="75" t="str">
-        <f>IF(Y48&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V48" s="75">
-        <f>VALUE(LEFT(A48,3))-VALUE(LEFT(A47,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W48" s="75">
-        <f>RIGHT(D48,LEN(D48)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X48" s="75">
-        <f>RIGHT(H48,LEN(H48)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>23.331900000000001</v>
       </c>
       <c r="Y48" s="75">
-        <f>ABS(X48-W48)</f>
+        <f t="shared" si="17"/>
         <v>23.287000000000003</v>
       </c>
       <c r="Z48" s="76" t="e">
@@ -6939,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="61" t="str">
-        <f>IF(ISEVEN(B49),(B49-1)&amp;"/"&amp;B49,B49&amp;"/"&amp;(B49+1))</f>
+        <f t="shared" si="11"/>
         <v>4039/4040</v>
       </c>
       <c r="L49" s="61" t="str">
@@ -6947,11 +6772,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M49" s="12">
-        <f>I49-F49</f>
+        <f t="shared" si="12"/>
         <v>2.792824074276723E-2</v>
       </c>
       <c r="N49" s="13">
-        <f>$M49*24*60</f>
+        <f t="shared" si="19"/>
         <v>40.216666669584811</v>
       </c>
       <c r="O49" s="13"/>
@@ -6959,27 +6784,27 @@
       <c r="Q49" s="62"/>
       <c r="R49" s="62"/>
       <c r="T49" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E49-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I49+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B49&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 10:05:41-0600',mode:absolute,to:'2016-05-07 10:49:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U49" s="75" t="str">
-        <f>IF(Y49&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V49" s="75">
-        <f>VALUE(LEFT(A49,3))-VALUE(LEFT(A48,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W49" s="75">
-        <f>RIGHT(D49,LEN(D49)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.3004</v>
       </c>
       <c r="X49" s="75">
-        <f>RIGHT(H49,LEN(H49)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y49" s="75">
-        <f>ABS(X49-W49)</f>
+        <f t="shared" si="17"/>
         <v>23.285</v>
       </c>
       <c r="Z49" s="76" t="e">
@@ -7023,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="61" t="str">
-        <f>IF(ISEVEN(B50),(B50-1)&amp;"/"&amp;B50,B50&amp;"/"&amp;(B50+1))</f>
+        <f t="shared" si="11"/>
         <v>4029/4030</v>
       </c>
       <c r="L50" s="61" t="str">
@@ -7031,11 +6856,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M50" s="12">
-        <f>I50-F50</f>
+        <f t="shared" si="12"/>
         <v>2.940972222131677E-2</v>
       </c>
       <c r="N50" s="13">
-        <f>$M50*24*60</f>
+        <f t="shared" si="19"/>
         <v>42.349999998696148</v>
       </c>
       <c r="O50" s="13"/>
@@ -7043,27 +6868,27 @@
       <c r="Q50" s="62"/>
       <c r="R50" s="62"/>
       <c r="T50" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E50-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I50+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B50&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 09:21:35-0600',mode:absolute,to:'2016-05-07 10:07:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U50" s="75" t="str">
-        <f>IF(Y50&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V50" s="75">
-        <f>VALUE(LEFT(A50,3))-VALUE(LEFT(A49,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W50" s="75">
-        <f>RIGHT(D50,LEN(D50)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="X50" s="75">
-        <f>RIGHT(H50,LEN(H50)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>23.335699999999999</v>
       </c>
       <c r="Y50" s="75">
-        <f>ABS(X50-W50)</f>
+        <f t="shared" si="17"/>
         <v>23.291899999999998</v>
       </c>
       <c r="Z50" s="76" t="e">
@@ -7107,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="61" t="str">
-        <f>IF(ISEVEN(B51),(B51-1)&amp;"/"&amp;B51,B51&amp;"/"&amp;(B51+1))</f>
+        <f t="shared" si="11"/>
         <v>4029/4030</v>
       </c>
       <c r="L51" s="61" t="str">
@@ -7115,11 +6940,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M51" s="12">
-        <f>I51-F51</f>
+        <f t="shared" si="12"/>
         <v>2.7523148150066845E-2</v>
       </c>
       <c r="N51" s="13">
-        <f>$M51*24*60</f>
+        <f t="shared" si="19"/>
         <v>39.633333336096257</v>
       </c>
       <c r="O51" s="13"/>
@@ -7127,27 +6952,27 @@
       <c r="Q51" s="62"/>
       <c r="R51" s="62"/>
       <c r="T51" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E51-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I51+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B51&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 10:21:30-0600',mode:absolute,to:'2016-05-07 11:04:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U51" s="75" t="str">
-        <f>IF(Y51&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V51" s="75">
-        <f>VALUE(LEFT(A51,3))-VALUE(LEFT(A50,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W51" s="75">
-        <f>RIGHT(D51,LEN(D51)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.298999999999999</v>
       </c>
       <c r="X51" s="75">
-        <f>RIGHT(H51,LEN(H51)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y51" s="75">
-        <f>ABS(X51-W51)</f>
+        <f t="shared" si="17"/>
         <v>23.2836</v>
       </c>
       <c r="Z51" s="76" t="e">
@@ -7191,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="61" t="str">
-        <f>IF(ISEVEN(B52),(B52-1)&amp;"/"&amp;B52,B52&amp;"/"&amp;(B52+1))</f>
+        <f t="shared" si="11"/>
         <v>4011/4012</v>
       </c>
       <c r="L52" s="61" t="str">
@@ -7199,11 +7024,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M52" s="12">
-        <f>I52-F52</f>
+        <f t="shared" si="12"/>
         <v>2.7384259257814847E-2</v>
       </c>
       <c r="N52" s="13">
-        <f>$M52*24*60</f>
+        <f t="shared" si="19"/>
         <v>39.43333333125338</v>
       </c>
       <c r="O52" s="13"/>
@@ -7211,27 +7036,27 @@
       <c r="Q52" s="62"/>
       <c r="R52" s="62"/>
       <c r="T52" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E52-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I52+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B52&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 09:40:20-0600',mode:absolute,to:'2016-05-07 10:23:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U52" s="75" t="str">
-        <f>IF(Y52&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V52" s="75">
-        <f>VALUE(LEFT(A52,3))-VALUE(LEFT(A51,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W52" s="75">
-        <f>RIGHT(D52,LEN(D52)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X52" s="75">
-        <f>RIGHT(H52,LEN(H52)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>23.330200000000001</v>
       </c>
       <c r="Y52" s="75">
-        <f>ABS(X52-W52)</f>
+        <f t="shared" si="17"/>
         <v>23.2836</v>
       </c>
       <c r="Z52" s="76" t="e">
@@ -7275,7 +7100,7 @@
         <v>2</v>
       </c>
       <c r="K53" s="61" t="str">
-        <f>IF(ISEVEN(B53),(B53-1)&amp;"/"&amp;B53,B53&amp;"/"&amp;(B53+1))</f>
+        <f t="shared" si="11"/>
         <v>4011/4012</v>
       </c>
       <c r="L53" s="61" t="str">
@@ -7283,11 +7108,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M53" s="12">
-        <f>I53-F53</f>
+        <f t="shared" si="12"/>
         <v>2.9733796291111503E-2</v>
       </c>
       <c r="N53" s="13">
-        <f>$M53*24*60</f>
+        <f t="shared" si="19"/>
         <v>42.816666659200564</v>
       </c>
       <c r="O53" s="13"/>
@@ -7295,27 +7120,27 @@
       <c r="Q53" s="62"/>
       <c r="R53" s="62"/>
       <c r="T53" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E53-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I53+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B53&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 10:33:48-0600',mode:absolute,to:'2016-05-07 11:20:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U53" s="75" t="str">
-        <f>IF(Y53&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V53" s="75">
-        <f>VALUE(LEFT(A53,3))-VALUE(LEFT(A52,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W53" s="75">
-        <f>RIGHT(D53,LEN(D53)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.298100000000002</v>
       </c>
       <c r="X53" s="75">
-        <f>RIGHT(H53,LEN(H53)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="Y53" s="75">
-        <f>ABS(X53-W53)</f>
+        <f t="shared" si="17"/>
         <v>23.281600000000001</v>
       </c>
       <c r="Z53" s="76">
@@ -7359,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="61" t="str">
-        <f>IF(ISEVEN(B54),(B54-1)&amp;"/"&amp;B54,B54&amp;"/"&amp;(B54+1))</f>
+        <f t="shared" si="11"/>
         <v>4007/4008</v>
       </c>
       <c r="L54" s="61" t="str">
@@ -7367,11 +7192,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M54" s="12">
-        <f>I54-F54</f>
+        <f t="shared" si="12"/>
         <v>2.5046296294021886E-2</v>
       </c>
       <c r="N54" s="13">
-        <f>$M54*24*60</f>
+        <f t="shared" si="19"/>
         <v>36.066666663391516</v>
       </c>
       <c r="O54" s="13"/>
@@ -7379,27 +7204,27 @@
       <c r="Q54" s="62"/>
       <c r="R54" s="62"/>
       <c r="T54" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E54-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I54+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B54&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 09:57:12-0600',mode:absolute,to:'2016-05-07 10:36:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U54" s="75" t="str">
-        <f>IF(Y54&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V54" s="75">
-        <f>VALUE(LEFT(A54,3))-VALUE(LEFT(A53,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W54" s="75">
-        <f>RIGHT(D54,LEN(D54)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X54" s="75">
-        <f>RIGHT(H54,LEN(H54)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>23.328900000000001</v>
       </c>
       <c r="Y54" s="75">
-        <f>ABS(X54-W54)</f>
+        <f t="shared" si="17"/>
         <v>23.282500000000002</v>
       </c>
       <c r="Z54" s="76" t="e">
@@ -7443,7 +7268,7 @@
         <v>2</v>
       </c>
       <c r="K55" s="61" t="str">
-        <f>IF(ISEVEN(B55),(B55-1)&amp;"/"&amp;B55,B55&amp;"/"&amp;(B55+1))</f>
+        <f t="shared" si="11"/>
         <v>4007/4008</v>
       </c>
       <c r="L55" s="61" t="str">
@@ -7451,11 +7276,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M55" s="12">
-        <f>I55-F55</f>
+        <f t="shared" si="12"/>
         <v>2.7106481487862766E-2</v>
       </c>
       <c r="N55" s="13">
-        <f>$M55*24*60</f>
+        <f t="shared" si="19"/>
         <v>39.033333342522383</v>
       </c>
       <c r="O55" s="13"/>
@@ -7463,27 +7288,27 @@
       <c r="Q55" s="62"/>
       <c r="R55" s="62"/>
       <c r="T55" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E55-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I55+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B55&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 10:51:32-0600',mode:absolute,to:'2016-05-07 11:34:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U55" s="75" t="str">
-        <f>IF(Y55&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V55" s="75">
-        <f>VALUE(LEFT(A55,3))-VALUE(LEFT(A54,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W55" s="75">
-        <f>RIGHT(D55,LEN(D55)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.2973</v>
       </c>
       <c r="X55" s="75">
-        <f>RIGHT(H55,LEN(H55)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y55" s="75">
-        <f>ABS(X55-W55)</f>
+        <f t="shared" si="17"/>
         <v>23.2821</v>
       </c>
       <c r="Z55" s="76">
@@ -7527,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="61" t="str">
-        <f>IF(ISEVEN(B56),(B56-1)&amp;"/"&amp;B56,B56&amp;"/"&amp;(B56+1))</f>
+        <f t="shared" si="11"/>
         <v>4031/4032</v>
       </c>
       <c r="L56" s="61" t="str">
@@ -7535,11 +7360,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M56" s="12">
-        <f>I56-F56</f>
+        <f t="shared" si="12"/>
         <v>2.9930555559985805E-2</v>
       </c>
       <c r="N56" s="13">
-        <f>$M56*24*60</f>
+        <f t="shared" si="19"/>
         <v>43.10000000637956</v>
       </c>
       <c r="O56" s="13"/>
@@ -7547,27 +7372,27 @@
       <c r="Q56" s="62"/>
       <c r="R56" s="62"/>
       <c r="T56" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E56-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I56+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B56&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 10:05:25-0600',mode:absolute,to:'2016-05-07 10:52:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U56" s="75" t="str">
-        <f>IF(Y56&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V56" s="75">
-        <f>VALUE(LEFT(A56,3))-VALUE(LEFT(A55,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W56" s="75">
-        <f>RIGHT(D56,LEN(D56)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X56" s="75">
-        <f>RIGHT(H56,LEN(H56)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>23.3306</v>
       </c>
       <c r="Y56" s="75">
-        <f>ABS(X56-W56)</f>
+        <f t="shared" si="17"/>
         <v>23.2849</v>
       </c>
       <c r="Z56" s="76" t="e">
@@ -7611,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="61" t="str">
-        <f>IF(ISEVEN(B57),(B57-1)&amp;"/"&amp;B57,B57&amp;"/"&amp;(B57+1))</f>
+        <f t="shared" si="11"/>
         <v>4031/4032</v>
       </c>
       <c r="L57" s="61" t="str">
@@ -7619,11 +7444,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M57" s="12">
-        <f>I57-F57</f>
+        <f t="shared" si="12"/>
         <v>3.2372685185691807E-2</v>
       </c>
       <c r="N57" s="13">
-        <f>$M57*24*60</f>
+        <f t="shared" si="19"/>
         <v>46.616666667396203</v>
       </c>
       <c r="O57" s="13"/>
@@ -7631,27 +7456,27 @@
       <c r="Q57" s="62"/>
       <c r="R57" s="62"/>
       <c r="T57" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E57-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I57+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B57&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 10:58:29-0600',mode:absolute,to:'2016-05-07 11:48:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U57" s="75" t="str">
-        <f>IF(Y57&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V57" s="75">
-        <f>VALUE(LEFT(A57,3))-VALUE(LEFT(A56,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W57" s="75">
-        <f>RIGHT(D57,LEN(D57)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.299299999999999</v>
       </c>
       <c r="X57" s="75">
-        <f>RIGHT(H57,LEN(H57)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y57" s="75">
-        <f>ABS(X57-W57)</f>
+        <f t="shared" si="17"/>
         <v>23.284299999999998</v>
       </c>
       <c r="Z57" s="76" t="e">
@@ -7695,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="61" t="str">
-        <f>IF(ISEVEN(B58),(B58-1)&amp;"/"&amp;B58,B58&amp;"/"&amp;(B58+1))</f>
+        <f t="shared" si="11"/>
         <v>4023/4024</v>
       </c>
       <c r="L58" s="61" t="str">
@@ -7703,11 +7528,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M58" s="12">
-        <f>I58-F58</f>
+        <f t="shared" si="12"/>
         <v>2.8333333335467614E-2</v>
       </c>
       <c r="N58" s="13">
-        <f>$M58*24*60</f>
+        <f t="shared" si="19"/>
         <v>40.800000003073364</v>
       </c>
       <c r="O58" s="13"/>
@@ -7715,27 +7540,27 @@
       <c r="Q58" s="62"/>
       <c r="R58" s="62"/>
       <c r="T58" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E58-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I58+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B58&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 10:21:24-0600',mode:absolute,to:'2016-05-07 11:06:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U58" s="75" t="str">
-        <f>IF(Y58&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V58" s="75">
-        <f>VALUE(LEFT(A58,3))-VALUE(LEFT(A57,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W58" s="75">
-        <f>RIGHT(D58,LEN(D58)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="X58" s="75">
-        <f>RIGHT(H58,LEN(H58)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>23.3309</v>
       </c>
       <c r="Y58" s="75">
-        <f>ABS(X58-W58)</f>
+        <f t="shared" si="17"/>
         <v>23.284199999999998</v>
       </c>
       <c r="Z58" s="76" t="e">
@@ -7779,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="61" t="str">
-        <f>IF(ISEVEN(B59),(B59-1)&amp;"/"&amp;B59,B59&amp;"/"&amp;(B59+1))</f>
+        <f t="shared" si="11"/>
         <v>4023/4024</v>
       </c>
       <c r="L59" s="61" t="str">
@@ -7787,11 +7612,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M59" s="12">
-        <f>I59-F59</f>
+        <f t="shared" si="12"/>
         <v>2.9479166667442769E-2</v>
       </c>
       <c r="N59" s="13">
-        <f>$M59*24*60</f>
+        <f t="shared" si="19"/>
         <v>42.450000001117587</v>
       </c>
       <c r="O59" s="13"/>
@@ -7799,27 +7624,27 @@
       <c r="Q59" s="62"/>
       <c r="R59" s="62"/>
       <c r="T59" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E59-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I59+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B59&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 11:18:43-0600',mode:absolute,to:'2016-05-07 12:04:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U59" s="75" t="str">
-        <f>IF(Y59&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V59" s="75">
-        <f>VALUE(LEFT(A59,3))-VALUE(LEFT(A58,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W59" s="75">
-        <f>RIGHT(D59,LEN(D59)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.298400000000001</v>
       </c>
       <c r="X59" s="75">
-        <f>RIGHT(H59,LEN(H59)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.38E-2</v>
       </c>
       <c r="Y59" s="75">
-        <f>ABS(X59-W59)</f>
+        <f t="shared" si="17"/>
         <v>23.284600000000001</v>
       </c>
       <c r="Z59" s="76" t="e">
@@ -7863,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="61" t="str">
-        <f>IF(ISEVEN(B60),(B60-1)&amp;"/"&amp;B60,B60&amp;"/"&amp;(B60+1))</f>
+        <f t="shared" si="11"/>
         <v>4015/4016</v>
       </c>
       <c r="L60" s="61" t="str">
@@ -7871,11 +7696,11 @@
         <v>BRANNON</v>
       </c>
       <c r="M60" s="12">
-        <f>I60-F60</f>
+        <f t="shared" si="12"/>
         <v>2.7835648143081926E-2</v>
       </c>
       <c r="N60" s="13">
-        <f>$M60*24*60</f>
+        <f t="shared" si="19"/>
         <v>40.083333326037973</v>
       </c>
       <c r="O60" s="13"/>
@@ -7883,27 +7708,27 @@
       <c r="Q60" s="62"/>
       <c r="R60" s="62"/>
       <c r="T60" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E60-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I60+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B60&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 10:38:23-0600',mode:absolute,to:'2016-05-07 11:21:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U60" s="75" t="str">
-        <f>IF(Y60&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V60" s="75">
-        <f>VALUE(LEFT(A60,3))-VALUE(LEFT(A59,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W60" s="75">
-        <f>RIGHT(D60,LEN(D60)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X60" s="75">
-        <f>RIGHT(H60,LEN(H60)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>23.3308</v>
       </c>
       <c r="Y60" s="75">
-        <f>ABS(X60-W60)</f>
+        <f t="shared" si="17"/>
         <v>23.285699999999999</v>
       </c>
       <c r="Z60" s="76" t="e">
@@ -7947,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="K61" s="61" t="str">
-        <f>IF(ISEVEN(B61),(B61-1)&amp;"/"&amp;B61,B61&amp;"/"&amp;(B61+1))</f>
+        <f t="shared" si="11"/>
         <v>4015/4016</v>
       </c>
       <c r="L61" s="61" t="str">
@@ -7955,11 +7780,11 @@
         <v>BRANNON</v>
       </c>
       <c r="M61" s="12">
-        <f>I61-F61</f>
+        <f t="shared" si="12"/>
         <v>3.0370370375749189E-2</v>
       </c>
       <c r="N61" s="13">
-        <f>$M61*24*60</f>
+        <f t="shared" si="19"/>
         <v>43.733333341078833</v>
       </c>
       <c r="O61" s="13"/>
@@ -7967,27 +7792,27 @@
       <c r="Q61" s="62"/>
       <c r="R61" s="62"/>
       <c r="T61" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E61-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I61+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B61&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 11:34:21-0600',mode:absolute,to:'2016-05-07 12:21:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U61" s="75" t="str">
-        <f>IF(Y61&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V61" s="75">
-        <f>VALUE(LEFT(A61,3))-VALUE(LEFT(A60,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W61" s="75">
-        <f>RIGHT(D61,LEN(D61)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.298500000000001</v>
       </c>
       <c r="X61" s="75">
-        <f>RIGHT(H61,LEN(H61)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.9099999999999999E-2</v>
       </c>
       <c r="Y61" s="75">
-        <f>ABS(X61-W61)</f>
+        <f t="shared" si="17"/>
         <v>23.279399999999999</v>
       </c>
       <c r="Z61" s="76">
@@ -8031,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="61" t="str">
-        <f>IF(ISEVEN(B62),(B62-1)&amp;"/"&amp;B62,B62&amp;"/"&amp;(B62+1))</f>
+        <f t="shared" si="11"/>
         <v>4039/4040</v>
       </c>
       <c r="L62" s="61" t="str">
@@ -8039,11 +7864,11 @@
         <v>STARKS</v>
       </c>
       <c r="M62" s="12">
-        <f>I62-F62</f>
+        <f t="shared" si="12"/>
         <v>2.7812500004074536E-2</v>
       </c>
       <c r="N62" s="13">
-        <f>$M62*24*60</f>
+        <f t="shared" si="19"/>
         <v>40.050000005867332</v>
       </c>
       <c r="O62" s="13"/>
@@ -8051,27 +7876,27 @@
       <c r="Q62" s="62"/>
       <c r="R62" s="62"/>
       <c r="T62" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E62-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I62+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B62&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 10:55:00-0600',mode:absolute,to:'2016-05-07 11:38:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U62" s="75" t="str">
-        <f>IF(Y62&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V62" s="75">
-        <f>VALUE(LEFT(A62,3))-VALUE(LEFT(A61,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W62" s="75">
-        <f>RIGHT(D62,LEN(D62)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="X62" s="75">
-        <f>RIGHT(H62,LEN(H62)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>23.333400000000001</v>
       </c>
       <c r="Y62" s="75">
-        <f>ABS(X62-W62)</f>
+        <f t="shared" si="17"/>
         <v>23.286300000000001</v>
       </c>
       <c r="Z62" s="76" t="e">
@@ -8115,7 +7940,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="61" t="str">
-        <f>IF(ISEVEN(B63),(B63-1)&amp;"/"&amp;B63,B63&amp;"/"&amp;(B63+1))</f>
+        <f t="shared" si="11"/>
         <v>4039/4040</v>
       </c>
       <c r="L63" s="61" t="str">
@@ -8123,11 +7948,11 @@
         <v>STARKS</v>
       </c>
       <c r="M63" s="12">
-        <f>I63-F63</f>
+        <f t="shared" si="12"/>
         <v>2.7314814811688848E-2</v>
       </c>
       <c r="N63" s="13">
-        <f>$M63*24*60</f>
+        <f t="shared" si="19"/>
         <v>39.333333328831941</v>
       </c>
       <c r="O63" s="13"/>
@@ -8135,27 +7960,27 @@
       <c r="Q63" s="62"/>
       <c r="R63" s="62"/>
       <c r="T63" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E63-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I63+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B63&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 11:51:48-0600',mode:absolute,to:'2016-05-07 12:35:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U63" s="75" t="str">
-        <f>IF(Y63&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V63" s="75">
-        <f>VALUE(LEFT(A63,3))-VALUE(LEFT(A62,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W63" s="75">
-        <f>RIGHT(D63,LEN(D63)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.300899999999999</v>
       </c>
       <c r="X63" s="75">
-        <f>RIGHT(H63,LEN(H63)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y63" s="75">
-        <f>ABS(X63-W63)</f>
+        <f t="shared" si="17"/>
         <v>23.284599999999998</v>
       </c>
       <c r="Z63" s="76">
@@ -8199,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="61" t="str">
-        <f>IF(ISEVEN(B64),(B64-1)&amp;"/"&amp;B64,B64&amp;"/"&amp;(B64+1))</f>
+        <f t="shared" si="11"/>
         <v>4029/4030</v>
       </c>
       <c r="L64" s="61" t="str">
@@ -8207,11 +8032,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M64" s="12">
-        <f>I64-F64</f>
+        <f t="shared" si="12"/>
         <v>2.9398148144537117E-2</v>
       </c>
       <c r="N64" s="13">
-        <f>$M64*24*60</f>
+        <f t="shared" si="19"/>
         <v>42.333333328133449</v>
       </c>
       <c r="O64" s="13"/>
@@ -8219,27 +8044,27 @@
       <c r="Q64" s="62"/>
       <c r="R64" s="62"/>
       <c r="T64" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E64-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I64+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B64&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 11:10:14-0600',mode:absolute,to:'2016-05-07 11:55:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U64" s="75" t="str">
-        <f>IF(Y64&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V64" s="75">
-        <f>VALUE(LEFT(A64,3))-VALUE(LEFT(A63,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W64" s="75">
-        <f>RIGHT(D64,LEN(D64)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="X64" s="75">
-        <f>RIGHT(H64,LEN(H64)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>23.331700000000001</v>
       </c>
       <c r="Y64" s="75">
-        <f>ABS(X64-W64)</f>
+        <f t="shared" si="17"/>
         <v>23.284200000000002</v>
       </c>
       <c r="Z64" s="76" t="e">
@@ -8283,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="61" t="str">
-        <f>IF(ISEVEN(B65),(B65-1)&amp;"/"&amp;B65,B65&amp;"/"&amp;(B65+1))</f>
+        <f t="shared" si="11"/>
         <v>4029/4030</v>
       </c>
       <c r="L65" s="61" t="str">
@@ -8291,11 +8116,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M65" s="12">
-        <f>I65-F65</f>
+        <f t="shared" si="12"/>
         <v>3.0092592591245193E-2</v>
       </c>
       <c r="N65" s="13">
-        <f>$M65*24*60</f>
+        <f t="shared" si="19"/>
         <v>43.333333331393078</v>
       </c>
       <c r="O65" s="13"/>
@@ -8303,27 +8128,27 @@
       <c r="Q65" s="62"/>
       <c r="R65" s="62"/>
       <c r="T65" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E65-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I65+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B65&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 12:04:00-0600',mode:absolute,to:'2016-05-07 12:51:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U65" s="75" t="str">
-        <f>IF(Y65&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V65" s="75">
-        <f>VALUE(LEFT(A65,3))-VALUE(LEFT(A64,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W65" s="75">
-        <f>RIGHT(D65,LEN(D65)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.3004</v>
       </c>
       <c r="X65" s="75">
-        <f>RIGHT(H65,LEN(H65)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y65" s="75">
-        <f>ABS(X65-W65)</f>
+        <f t="shared" si="17"/>
         <v>23.284600000000001</v>
       </c>
       <c r="Z65" s="76" t="e">
@@ -8367,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="61" t="str">
-        <f>IF(ISEVEN(B66),(B66-1)&amp;"/"&amp;B66,B66&amp;"/"&amp;(B66+1))</f>
+        <f t="shared" si="11"/>
         <v>4011/4012</v>
       </c>
       <c r="L66" s="61" t="str">
@@ -8375,11 +8200,11 @@
         <v>BONDS</v>
       </c>
       <c r="M66" s="12">
-        <f>I66-F66</f>
+        <f t="shared" si="12"/>
         <v>2.9317129628907423E-2</v>
       </c>
       <c r="N66" s="13">
-        <f>$M66*24*60</f>
+        <f t="shared" si="19"/>
         <v>42.21666666562669</v>
       </c>
       <c r="O66" s="13"/>
@@ -8387,27 +8212,27 @@
       <c r="Q66" s="62"/>
       <c r="R66" s="62"/>
       <c r="T66" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E66-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I66+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B66&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 11:21:08-0600',mode:absolute,to:'2016-05-07 12:07:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U66" s="75" t="str">
-        <f>IF(Y66&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V66" s="75">
-        <f>VALUE(LEFT(A66,3))-VALUE(LEFT(A65,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W66" s="75">
-        <f>RIGHT(D66,LEN(D66)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="X66" s="75">
-        <f>RIGHT(H66,LEN(H66)-4)/10000</f>
+        <f t="shared" si="16"/>
         <v>23.331399999999999</v>
       </c>
       <c r="Y66" s="75">
-        <f>ABS(X66-W66)</f>
+        <f t="shared" si="17"/>
         <v>23.284499999999998</v>
       </c>
       <c r="Z66" s="76" t="e">
@@ -8451,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="61" t="str">
-        <f>IF(ISEVEN(B67),(B67-1)&amp;"/"&amp;B67,B67&amp;"/"&amp;(B67+1))</f>
+        <f t="shared" ref="K67:K98" si="20">IF(ISEVEN(B67),(B67-1)&amp;"/"&amp;B67,B67&amp;"/"&amp;(B67+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L67" s="61" t="str">
@@ -8459,11 +8284,11 @@
         <v>BONDS</v>
       </c>
       <c r="M67" s="12">
-        <f>I67-F67</f>
+        <f t="shared" ref="M67:M98" si="21">I67-F67</f>
         <v>3.1122685184527654E-2</v>
       </c>
       <c r="N67" s="13">
-        <f>$M67*24*60</f>
+        <f t="shared" si="19"/>
         <v>44.816666665719822</v>
       </c>
       <c r="O67" s="13"/>
@@ -8471,27 +8296,27 @@
       <c r="Q67" s="62"/>
       <c r="R67" s="62"/>
       <c r="T67" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E67-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I67+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B67&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T67:T98" si="22">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E67-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I67+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B67&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 12:10:59-0600',mode:absolute,to:'2016-05-07 13:04:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U67" s="75" t="str">
-        <f>IF(Y67&lt;23,"Y","N")</f>
+        <f t="shared" ref="U67:U98" si="23">IF(Y67&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V67" s="75">
-        <f>VALUE(LEFT(A67,3))-VALUE(LEFT(A66,3))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W67" s="75">
-        <f>RIGHT(D67,LEN(D67)-4)/10000</f>
+        <f t="shared" ref="W67:W98" si="24">RIGHT(D67,LEN(D67)-4)/10000</f>
         <v>23.299399999999999</v>
       </c>
       <c r="X67" s="75">
-        <f>RIGHT(H67,LEN(H67)-4)/10000</f>
+        <f t="shared" ref="X67:X98" si="25">RIGHT(H67,LEN(H67)-4)/10000</f>
         <v>1.41E-2</v>
       </c>
       <c r="Y67" s="75">
-        <f>ABS(X67-W67)</f>
+        <f t="shared" ref="Y67:Y98" si="26">ABS(X67-W67)</f>
         <v>23.285299999999999</v>
       </c>
       <c r="Z67" s="76">
@@ -8535,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="61" t="str">
-        <f>IF(ISEVEN(B68),(B68-1)&amp;"/"&amp;B68,B68&amp;"/"&amp;(B68+1))</f>
+        <f t="shared" si="20"/>
         <v>4007/4008</v>
       </c>
       <c r="L68" s="61" t="str">
@@ -8543,11 +8368,11 @@
         <v>NELSON</v>
       </c>
       <c r="M68" s="12">
-        <f>I68-F68</f>
+        <f t="shared" si="21"/>
         <v>2.7974537035333924E-2</v>
       </c>
       <c r="N68" s="13">
-        <f>$M68*24*60</f>
+        <f t="shared" si="19"/>
         <v>40.283333330880851</v>
       </c>
       <c r="O68" s="13"/>
@@ -8555,27 +8380,27 @@
       <c r="Q68" s="62"/>
       <c r="R68" s="62"/>
       <c r="T68" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E68-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I68+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B68&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 11:39:16-0600',mode:absolute,to:'2016-05-07 12:24:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U68" s="75" t="str">
-        <f>IF(Y68&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V68" s="75">
-        <f>VALUE(LEFT(A68,3))-VALUE(LEFT(A67,3))</f>
+        <f t="shared" ref="V68:V99" si="27">VALUE(LEFT(A68,3))-VALUE(LEFT(A67,3))</f>
         <v>1</v>
       </c>
       <c r="W68" s="75">
-        <f>RIGHT(D68,LEN(D68)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X68" s="75">
-        <f>RIGHT(H68,LEN(H68)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.329699999999999</v>
       </c>
       <c r="Y68" s="75">
-        <f>ABS(X68-W68)</f>
+        <f t="shared" si="26"/>
         <v>23.283099999999997</v>
       </c>
       <c r="Z68" s="76" t="e">
@@ -8619,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="61" t="str">
-        <f>IF(ISEVEN(B69),(B69-1)&amp;"/"&amp;B69,B69&amp;"/"&amp;(B69+1))</f>
+        <f t="shared" si="20"/>
         <v>4007/4008</v>
       </c>
       <c r="L69" s="61" t="str">
@@ -8627,11 +8452,11 @@
         <v>NELSON</v>
       </c>
       <c r="M69" s="12">
-        <f>I69-F69</f>
+        <f t="shared" si="21"/>
         <v>3.4780092595610768E-2</v>
       </c>
       <c r="N69" s="13">
-        <f>$M69*24*60</f>
+        <f t="shared" si="19"/>
         <v>50.083333337679505</v>
       </c>
       <c r="O69" s="13"/>
@@ -8639,27 +8464,27 @@
       <c r="Q69" s="62"/>
       <c r="R69" s="62"/>
       <c r="T69" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E69-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I69+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B69&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 12:28:41-0600',mode:absolute,to:'2016-05-07 13:22:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U69" s="75" t="str">
-        <f>IF(Y69&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V69" s="75">
-        <f>VALUE(LEFT(A69,3))-VALUE(LEFT(A68,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W69" s="75">
-        <f>RIGHT(D69,LEN(D69)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.299600000000002</v>
       </c>
       <c r="X69" s="75">
-        <f>RIGHT(H69,LEN(H69)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y69" s="75">
-        <f>ABS(X69-W69)</f>
+        <f t="shared" si="26"/>
         <v>23.2849</v>
       </c>
       <c r="Z69" s="76" t="e">
@@ -8703,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="61" t="str">
-        <f>IF(ISEVEN(B70),(B70-1)&amp;"/"&amp;B70,B70&amp;"/"&amp;(B70+1))</f>
+        <f t="shared" si="20"/>
         <v>4031/4032</v>
       </c>
       <c r="L70" s="61" t="str">
@@ -8711,11 +8536,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M70" s="12">
-        <f>I70-F70</f>
+        <f t="shared" si="21"/>
         <v>3.050925926072523E-2</v>
       </c>
       <c r="N70" s="13">
-        <f>$M70*24*60</f>
+        <f t="shared" si="19"/>
         <v>43.933333335444331</v>
       </c>
       <c r="O70" s="13"/>
@@ -8723,27 +8548,27 @@
       <c r="Q70" s="62"/>
       <c r="R70" s="62"/>
       <c r="T70" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E70-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I70+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B70&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 11:49:37-0600',mode:absolute,to:'2016-05-07 12:36:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U70" s="75" t="str">
-        <f>IF(Y70&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V70" s="75">
-        <f>VALUE(LEFT(A70,3))-VALUE(LEFT(A69,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W70" s="75">
-        <f>RIGHT(D70,LEN(D70)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.3099999999999999E-2</v>
       </c>
       <c r="X70" s="75">
-        <f>RIGHT(H70,LEN(H70)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.3309</v>
       </c>
       <c r="Y70" s="75">
-        <f>ABS(X70-W70)</f>
+        <f t="shared" si="26"/>
         <v>23.287800000000001</v>
       </c>
       <c r="Z70" s="76" t="e">
@@ -8787,7 +8612,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="61" t="str">
-        <f>IF(ISEVEN(B71),(B71-1)&amp;"/"&amp;B71,B71&amp;"/"&amp;(B71+1))</f>
+        <f t="shared" si="20"/>
         <v>4031/4032</v>
       </c>
       <c r="L71" s="61" t="str">
@@ -8795,11 +8620,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M71" s="12">
-        <f>I71-F71</f>
+        <f t="shared" si="21"/>
         <v>3.2453703708597459E-2</v>
       </c>
       <c r="N71" s="13">
-        <f>$M71*24*60</f>
+        <f t="shared" si="19"/>
         <v>46.733333340380341</v>
       </c>
       <c r="O71" s="13"/>
@@ -8807,27 +8632,27 @@
       <c r="Q71" s="62"/>
       <c r="R71" s="62"/>
       <c r="T71" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E71-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I71+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B71&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 12:43:23-0600',mode:absolute,to:'2016-05-07 13:34:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U71" s="75" t="str">
-        <f>IF(Y71&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V71" s="75">
-        <f>VALUE(LEFT(A71,3))-VALUE(LEFT(A70,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W71" s="75">
-        <f>RIGHT(D71,LEN(D71)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X71" s="75">
-        <f>RIGHT(H71,LEN(H71)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="Y71" s="75">
-        <f>ABS(X71-W71)</f>
+        <f t="shared" si="26"/>
         <v>23.2807</v>
       </c>
       <c r="Z71" s="76" t="e">
@@ -8871,7 +8696,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="61" t="str">
-        <f>IF(ISEVEN(B72),(B72-1)&amp;"/"&amp;B72,B72&amp;"/"&amp;(B72+1))</f>
+        <f t="shared" si="20"/>
         <v>4023/4024</v>
       </c>
       <c r="L72" s="61" t="str">
@@ -8879,11 +8704,11 @@
         <v>STEWART</v>
       </c>
       <c r="M72" s="12">
-        <f>I72-F72</f>
+        <f t="shared" si="21"/>
         <v>2.8090277781302575E-2</v>
       </c>
       <c r="N72" s="13">
-        <f>$M72*24*60</f>
+        <f t="shared" si="19"/>
         <v>40.450000005075708</v>
       </c>
       <c r="O72" s="13"/>
@@ -8891,27 +8716,27 @@
       <c r="Q72" s="62"/>
       <c r="R72" s="62"/>
       <c r="T72" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E72-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I72+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B72&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 12:09:12-0600',mode:absolute,to:'2016-05-07 12:53:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U72" s="75" t="str">
-        <f>IF(Y72&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V72" s="75">
-        <f>VALUE(LEFT(A72,3))-VALUE(LEFT(A71,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W72" s="75">
-        <f>RIGHT(D72,LEN(D72)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="X72" s="75">
-        <f>RIGHT(H72,LEN(H72)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.331700000000001</v>
       </c>
       <c r="Y72" s="75">
-        <f>ABS(X72-W72)</f>
+        <f t="shared" si="26"/>
         <v>23.287100000000002</v>
       </c>
       <c r="Z72" s="76">
@@ -8955,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="61" t="str">
-        <f>IF(ISEVEN(B73),(B73-1)&amp;"/"&amp;B73,B73&amp;"/"&amp;(B73+1))</f>
+        <f t="shared" si="20"/>
         <v>4023/4024</v>
       </c>
       <c r="L73" s="61" t="str">
@@ -8963,11 +8788,11 @@
         <v>STEWART</v>
       </c>
       <c r="M73" s="12">
-        <f>I73-F73</f>
+        <f t="shared" si="21"/>
         <v>3.6284722220443655E-2</v>
       </c>
       <c r="N73" s="13">
-        <f>$M73*24*60</f>
+        <f t="shared" si="19"/>
         <v>52.249999997438863</v>
       </c>
       <c r="O73" s="13"/>
@@ -8975,27 +8800,27 @@
       <c r="Q73" s="62"/>
       <c r="R73" s="62"/>
       <c r="T73" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E73-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I73+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B73&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 12:56:07-0600',mode:absolute,to:'2016-05-07 13:52:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U73" s="75" t="str">
-        <f>IF(Y73&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V73" s="75">
-        <f>VALUE(LEFT(A73,3))-VALUE(LEFT(A72,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W73" s="75">
-        <f>RIGHT(D73,LEN(D73)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.299600000000002</v>
       </c>
       <c r="X73" s="75">
-        <f>RIGHT(H73,LEN(H73)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>1.29E-2</v>
       </c>
       <c r="Y73" s="75">
-        <f>ABS(X73-W73)</f>
+        <f t="shared" si="26"/>
         <v>23.286700000000003</v>
       </c>
       <c r="Z73" s="76" t="e">
@@ -9039,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="61" t="str">
-        <f>IF(ISEVEN(B74),(B74-1)&amp;"/"&amp;B74,B74&amp;"/"&amp;(B74+1))</f>
+        <f t="shared" si="20"/>
         <v>4015/4016</v>
       </c>
       <c r="L74" s="61" t="str">
@@ -9047,11 +8872,11 @@
         <v>BRANNON</v>
       </c>
       <c r="M74" s="12">
-        <f>I74-F74</f>
+        <f t="shared" si="21"/>
         <v>2.8518518513010349E-2</v>
       </c>
       <c r="N74" s="13">
-        <f>$M74*24*60</f>
+        <f t="shared" si="19"/>
         <v>41.066666658734903</v>
       </c>
       <c r="O74" s="13"/>
@@ -9059,27 +8884,27 @@
       <c r="Q74" s="62"/>
       <c r="R74" s="62"/>
       <c r="T74" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E74-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I74+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B74&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 12:21:19-0600',mode:absolute,to:'2016-05-07 13:06:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U74" s="75" t="str">
-        <f>IF(Y74&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V74" s="75">
-        <f>VALUE(LEFT(A74,3))-VALUE(LEFT(A73,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W74" s="75">
-        <f>RIGHT(D74,LEN(D74)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="X74" s="75">
-        <f>RIGHT(H74,LEN(H74)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.330300000000001</v>
       </c>
       <c r="Y74" s="75">
-        <f>ABS(X74-W74)</f>
+        <f t="shared" si="26"/>
         <v>23.279400000000003</v>
       </c>
       <c r="Z74" s="76" t="e">
@@ -9123,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="61" t="str">
-        <f>IF(ISEVEN(B75),(B75-1)&amp;"/"&amp;B75,B75&amp;"/"&amp;(B75+1))</f>
+        <f t="shared" si="20"/>
         <v>4015/4016</v>
       </c>
       <c r="L75" s="61" t="str">
@@ -9131,11 +8956,11 @@
         <v>BRANNON</v>
       </c>
       <c r="M75" s="12">
-        <f>I75-F75</f>
+        <f t="shared" si="21"/>
         <v>3.1296296292566694E-2</v>
       </c>
       <c r="N75" s="13">
-        <f>$M75*24*60</f>
+        <f t="shared" si="19"/>
         <v>45.06666666129604</v>
       </c>
       <c r="O75" s="13"/>
@@ -9143,27 +8968,27 @@
       <c r="Q75" s="62"/>
       <c r="R75" s="62"/>
       <c r="T75" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E75-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I75+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B75&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 13:15:26-0600',mode:absolute,to:'2016-05-07 14:03:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U75" s="75" t="str">
-        <f>IF(Y75&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V75" s="75">
-        <f>VALUE(LEFT(A75,3))-VALUE(LEFT(A74,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W75" s="75">
-        <f>RIGHT(D75,LEN(D75)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.299199999999999</v>
       </c>
       <c r="X75" s="75">
-        <f>RIGHT(H75,LEN(H75)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>0.1817</v>
       </c>
       <c r="Y75" s="75">
-        <f>ABS(X75-W75)</f>
+        <f t="shared" si="26"/>
         <v>23.1175</v>
       </c>
       <c r="Z75" s="76" t="e">
@@ -9207,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="61" t="str">
-        <f>IF(ISEVEN(B76),(B76-1)&amp;"/"&amp;B76,B76&amp;"/"&amp;(B76+1))</f>
+        <f t="shared" si="20"/>
         <v>4039/4040</v>
       </c>
       <c r="L76" s="61" t="str">
@@ -9215,11 +9040,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M76" s="12">
-        <f>I76-F76</f>
+        <f t="shared" si="21"/>
         <v>2.7476851857500151E-2</v>
       </c>
       <c r="N76" s="13">
-        <f>$M76*24*60</f>
+        <f t="shared" si="19"/>
         <v>39.566666674800217</v>
       </c>
       <c r="O76" s="13"/>
@@ -9227,27 +9052,27 @@
       <c r="Q76" s="62"/>
       <c r="R76" s="62"/>
       <c r="T76" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E76-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I76+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B76&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 12:40:54-0600',mode:absolute,to:'2016-05-07 13:24:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U76" s="75" t="str">
-        <f>IF(Y76&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V76" s="75">
-        <f>VALUE(LEFT(A76,3))-VALUE(LEFT(A75,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W76" s="75">
-        <f>RIGHT(D76,LEN(D76)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.53E-2</v>
       </c>
       <c r="X76" s="75">
-        <f>RIGHT(H76,LEN(H76)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.3308</v>
       </c>
       <c r="Y76" s="75">
-        <f>ABS(X76-W76)</f>
+        <f t="shared" si="26"/>
         <v>23.285499999999999</v>
       </c>
       <c r="Z76" s="76" t="e">
@@ -9291,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="61" t="str">
-        <f>IF(ISEVEN(B77),(B77-1)&amp;"/"&amp;B77,B77&amp;"/"&amp;(B77+1))</f>
+        <f t="shared" si="20"/>
         <v>4039/4040</v>
       </c>
       <c r="L77" s="61" t="str">
@@ -9299,11 +9124,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M77" s="12">
-        <f>I77-F77</f>
+        <f t="shared" si="21"/>
         <v>3.0219907406717539E-2</v>
       </c>
       <c r="N77" s="13">
-        <f>$M77*24*60</f>
+        <f t="shared" si="19"/>
         <v>43.516666665673256</v>
       </c>
       <c r="O77" s="13"/>
@@ -9311,27 +9136,27 @@
       <c r="Q77" s="62"/>
       <c r="R77" s="62"/>
       <c r="T77" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E77-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I77+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B77&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 13:33:14-0600',mode:absolute,to:'2016-05-07 14:20:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U77" s="75" t="str">
-        <f>IF(Y77&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V77" s="75">
-        <f>VALUE(LEFT(A77,3))-VALUE(LEFT(A76,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W77" s="75">
-        <f>RIGHT(D77,LEN(D77)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.299600000000002</v>
       </c>
       <c r="X77" s="75">
-        <f>RIGHT(H77,LEN(H77)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y77" s="75">
-        <f>ABS(X77-W77)</f>
+        <f t="shared" si="26"/>
         <v>23.284400000000002</v>
       </c>
       <c r="Z77" s="76" t="e">
@@ -9375,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="61" t="str">
-        <f>IF(ISEVEN(B78),(B78-1)&amp;"/"&amp;B78,B78&amp;"/"&amp;(B78+1))</f>
+        <f t="shared" si="20"/>
         <v>4029/4030</v>
       </c>
       <c r="L78" s="61" t="str">
@@ -9383,11 +9208,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M78" s="12">
-        <f>I78-F78</f>
+        <f t="shared" si="21"/>
         <v>2.4479166662786156E-2</v>
       </c>
       <c r="N78" s="13">
-        <f>$M78*24*60</f>
+        <f t="shared" si="19"/>
         <v>35.249999994412065</v>
       </c>
       <c r="O78" s="13"/>
@@ -9395,27 +9220,27 @@
       <c r="Q78" s="62"/>
       <c r="R78" s="62"/>
       <c r="T78" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E78-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I78+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B78&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 12:59:26-0600',mode:absolute,to:'2016-05-07 13:39:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U78" s="75" t="str">
-        <f>IF(Y78&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V78" s="75">
-        <f>VALUE(LEFT(A78,3))-VALUE(LEFT(A77,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W78" s="75">
-        <f>RIGHT(D78,LEN(D78)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.58E-2</v>
       </c>
       <c r="X78" s="75">
-        <f>RIGHT(H78,LEN(H78)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.329499999999999</v>
       </c>
       <c r="Y78" s="75">
-        <f>ABS(X78-W78)</f>
+        <f t="shared" si="26"/>
         <v>23.2837</v>
       </c>
       <c r="Z78" s="76" t="e">
@@ -9459,7 +9284,7 @@
         <v>1</v>
       </c>
       <c r="K79" s="61" t="str">
-        <f>IF(ISEVEN(B79),(B79-1)&amp;"/"&amp;B79,B79&amp;"/"&amp;(B79+1))</f>
+        <f t="shared" si="20"/>
         <v>4029/4030</v>
       </c>
       <c r="L79" s="61" t="str">
@@ -9467,11 +9292,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M79" s="12">
-        <f>I79-F79</f>
+        <f t="shared" si="21"/>
         <v>2.8657407412538305E-2</v>
       </c>
       <c r="N79" s="13">
-        <f>$M79*24*60</f>
+        <f t="shared" si="19"/>
         <v>41.266666674055159</v>
       </c>
       <c r="O79" s="13"/>
@@ -9479,27 +9304,27 @@
       <c r="Q79" s="62"/>
       <c r="R79" s="62"/>
       <c r="T79" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E79-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I79+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B79&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 13:49:31-0600',mode:absolute,to:'2016-05-07 14:34:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U79" s="75" t="str">
-        <f>IF(Y79&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V79" s="75">
-        <f>VALUE(LEFT(A79,3))-VALUE(LEFT(A78,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W79" s="75">
-        <f>RIGHT(D79,LEN(D79)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.299800000000001</v>
       </c>
       <c r="X79" s="75">
-        <f>RIGHT(H79,LEN(H79)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y79" s="75">
-        <f>ABS(X79-W79)</f>
+        <f t="shared" si="26"/>
         <v>23.2851</v>
       </c>
       <c r="Z79" s="76" t="e">
@@ -9543,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="61" t="str">
-        <f>IF(ISEVEN(B80),(B80-1)&amp;"/"&amp;B80,B80&amp;"/"&amp;(B80+1))</f>
+        <f t="shared" si="20"/>
         <v>4011/4012</v>
       </c>
       <c r="L80" s="61" t="str">
@@ -9551,11 +9376,11 @@
         <v>BONDS</v>
       </c>
       <c r="M80" s="12">
-        <f>I80-F80</f>
+        <f t="shared" si="21"/>
         <v>3.2592592593573499E-2</v>
       </c>
       <c r="N80" s="13">
-        <f>$M80*24*60</f>
+        <f t="shared" si="19"/>
         <v>46.933333334745839</v>
       </c>
       <c r="O80" s="13"/>
@@ -9563,27 +9388,27 @@
       <c r="Q80" s="62"/>
       <c r="R80" s="62"/>
       <c r="T80" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E80-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I80+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B80&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 13:04:18-0600',mode:absolute,to:'2016-05-07 13:54:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U80" s="75" t="str">
-        <f>IF(Y80&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V80" s="75">
-        <f>VALUE(LEFT(A80,3))-VALUE(LEFT(A79,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W80" s="75">
-        <f>RIGHT(D80,LEN(D80)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.3700000000000003E-2</v>
       </c>
       <c r="X80" s="75">
-        <f>RIGHT(H80,LEN(H80)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.3338</v>
       </c>
       <c r="Y80" s="75">
-        <f>ABS(X80-W80)</f>
+        <f t="shared" si="26"/>
         <v>23.290099999999999</v>
       </c>
       <c r="Z80" s="76" t="e">
@@ -9627,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="61" t="str">
-        <f>IF(ISEVEN(B81),(B81-1)&amp;"/"&amp;B81,B81&amp;"/"&amp;(B81+1))</f>
+        <f t="shared" si="20"/>
         <v>4011/4012</v>
       </c>
       <c r="L81" s="61" t="str">
@@ -9635,11 +9460,11 @@
         <v>BONDS</v>
       </c>
       <c r="M81" s="12">
-        <f>I81-F81</f>
+        <f t="shared" si="21"/>
         <v>3.1921296293148771E-2</v>
       </c>
       <c r="N81" s="13">
-        <f>$M81*24*60</f>
+        <f t="shared" si="19"/>
         <v>45.96666666213423</v>
       </c>
       <c r="O81" s="13"/>
@@ -9647,27 +9472,27 @@
       <c r="Q81" s="62"/>
       <c r="R81" s="62"/>
       <c r="T81" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E81-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I81+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B81&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 13:59:34-0600',mode:absolute,to:'2016-05-07 14:48:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U81" s="75" t="str">
-        <f>IF(Y81&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V81" s="75">
-        <f>VALUE(LEFT(A81,3))-VALUE(LEFT(A80,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W81" s="75">
-        <f>RIGHT(D81,LEN(D81)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.3019</v>
       </c>
       <c r="X81" s="75">
-        <f>RIGHT(H81,LEN(H81)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="Y81" s="75">
-        <f>ABS(X81-W81)</f>
+        <f t="shared" si="26"/>
         <v>23.288</v>
       </c>
       <c r="Z81" s="76" t="e">
@@ -9711,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="61" t="str">
-        <f>IF(ISEVEN(B82),(B82-1)&amp;"/"&amp;B82,B82&amp;"/"&amp;(B82+1))</f>
+        <f t="shared" si="20"/>
         <v>4007/4008</v>
       </c>
       <c r="L82" s="61" t="str">
@@ -9719,11 +9544,11 @@
         <v>NELSON</v>
       </c>
       <c r="M82" s="12">
-        <f>I82-F82</f>
+        <f t="shared" si="21"/>
         <v>2.8831018520577345E-2</v>
       </c>
       <c r="N82" s="13">
-        <f>$M82*24*60</f>
+        <f t="shared" si="19"/>
         <v>41.516666669631377</v>
       </c>
       <c r="O82" s="13"/>
@@ -9731,27 +9556,27 @@
       <c r="Q82" s="62"/>
       <c r="R82" s="62"/>
       <c r="T82" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E82-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I82+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B82&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 13:22:29-0600',mode:absolute,to:'2016-05-07 14:08:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U82" s="75" t="str">
-        <f>IF(Y82&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V82" s="75">
-        <f>VALUE(LEFT(A82,3))-VALUE(LEFT(A81,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W82" s="75">
-        <f>RIGHT(D82,LEN(D82)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X82" s="75">
-        <f>RIGHT(H82,LEN(H82)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.3307</v>
       </c>
       <c r="Y82" s="75">
-        <f>ABS(X82-W82)</f>
+        <f t="shared" si="26"/>
         <v>23.286000000000001</v>
       </c>
       <c r="Z82" s="76" t="e">
@@ -9795,7 +9620,7 @@
         <v>1</v>
       </c>
       <c r="K83" s="61" t="str">
-        <f>IF(ISEVEN(B83),(B83-1)&amp;"/"&amp;B83,B83&amp;"/"&amp;(B83+1))</f>
+        <f t="shared" si="20"/>
         <v>4007/4008</v>
       </c>
       <c r="L83" s="61" t="str">
@@ -9803,11 +9628,11 @@
         <v>NELSON</v>
       </c>
       <c r="M83" s="12">
-        <f>I83-F83</f>
+        <f t="shared" si="21"/>
         <v>3.2002314816054422E-2</v>
       </c>
       <c r="N83" s="13">
-        <f>$M83*24*60</f>
+        <f t="shared" si="19"/>
         <v>46.083333335118368</v>
       </c>
       <c r="O83" s="13"/>
@@ -9815,27 +9640,27 @@
       <c r="Q83" s="62"/>
       <c r="R83" s="62"/>
       <c r="T83" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E83-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I83+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B83&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 14:15:58-0600',mode:absolute,to:'2016-05-07 15:06:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U83" s="75" t="str">
-        <f>IF(Y83&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V83" s="75">
-        <f>VALUE(LEFT(A83,3))-VALUE(LEFT(A82,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W83" s="75">
-        <f>RIGHT(D83,LEN(D83)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.3001</v>
       </c>
       <c r="X83" s="75">
-        <f>RIGHT(H83,LEN(H83)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y83" s="75">
-        <f>ABS(X83-W83)</f>
+        <f t="shared" si="26"/>
         <v>23.285599999999999</v>
       </c>
       <c r="Z83" s="76" t="e">
@@ -9879,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="61" t="str">
-        <f>IF(ISEVEN(B84),(B84-1)&amp;"/"&amp;B84,B84&amp;"/"&amp;(B84+1))</f>
+        <f t="shared" si="20"/>
         <v>4031/4032</v>
       </c>
       <c r="L84" s="61" t="str">
@@ -9887,11 +9712,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M84" s="12">
-        <f>I84-F84</f>
+        <f t="shared" si="21"/>
         <v>3.0925925922929309E-2</v>
       </c>
       <c r="N84" s="13">
-        <f>$M84*24*60</f>
+        <f t="shared" si="19"/>
         <v>44.533333329018205</v>
       </c>
       <c r="O84" s="13"/>
@@ -9899,27 +9724,27 @@
       <c r="Q84" s="62"/>
       <c r="R84" s="62"/>
       <c r="T84" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E84-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I84+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B84&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 13:34:49-0600',mode:absolute,to:'2016-05-07 14:22:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U84" s="75" t="str">
-        <f>IF(Y84&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V84" s="75">
-        <f>VALUE(LEFT(A84,3))-VALUE(LEFT(A83,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W84" s="75">
-        <f>RIGHT(D84,LEN(D84)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.8899999999999999E-2</v>
       </c>
       <c r="X84" s="75">
-        <f>RIGHT(H84,LEN(H84)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.331199999999999</v>
       </c>
       <c r="Y84" s="75">
-        <f>ABS(X84-W84)</f>
+        <f t="shared" si="26"/>
         <v>23.282299999999999</v>
       </c>
       <c r="Z84" s="76" t="e">
@@ -9963,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="61" t="str">
-        <f>IF(ISEVEN(B85),(B85-1)&amp;"/"&amp;B85,B85&amp;"/"&amp;(B85+1))</f>
+        <f t="shared" si="20"/>
         <v>4031/4032</v>
       </c>
       <c r="L85" s="61" t="str">
@@ -9971,7 +9796,7 @@
         <v>BUTLER</v>
       </c>
       <c r="M85" s="12">
-        <f>I85-F85</f>
+        <f t="shared" si="21"/>
         <v>6.2731481521041133E-3</v>
       </c>
       <c r="N85" s="13"/>
@@ -9987,27 +9812,27 @@
         <v>585</v>
       </c>
       <c r="T85" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E85-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I85+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B85&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 14:30:15-0600',mode:absolute,to:'2016-05-07 14:43:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U85" s="75" t="str">
-        <f>IF(Y85&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>Y</v>
       </c>
       <c r="V85" s="75">
-        <f>VALUE(LEFT(A85,3))-VALUE(LEFT(A84,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W85" s="75">
-        <f>RIGHT(D85,LEN(D85)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.299299999999999</v>
       </c>
       <c r="X85" s="75">
-        <f>RIGHT(H85,LEN(H85)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.121300000000002</v>
       </c>
       <c r="Y85" s="75">
-        <f>ABS(X85-W85)</f>
+        <f t="shared" si="26"/>
         <v>0.17799999999999727</v>
       </c>
       <c r="Z85" s="76">
@@ -10051,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="61" t="str">
-        <f>IF(ISEVEN(B86),(B86-1)&amp;"/"&amp;B86,B86&amp;"/"&amp;(B86+1))</f>
+        <f t="shared" si="20"/>
         <v>4023/4024</v>
       </c>
       <c r="L86" s="61" t="str">
@@ -10059,7 +9884,7 @@
         <v>STEWART</v>
       </c>
       <c r="M86" s="12">
-        <f>I86-F86</f>
+        <f t="shared" si="21"/>
         <v>2.8043981481459923E-2</v>
       </c>
       <c r="N86" s="13">
@@ -10071,27 +9896,27 @@
       <c r="Q86" s="62"/>
       <c r="R86" s="62"/>
       <c r="T86" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E86-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I86+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B86&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 13:52:51-0600',mode:absolute,to:'2016-05-07 14:36:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U86" s="75" t="str">
-        <f>IF(Y86&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V86" s="75">
-        <f>VALUE(LEFT(A86,3))-VALUE(LEFT(A85,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W86" s="75">
-        <f>RIGHT(D86,LEN(D86)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="X86" s="75">
-        <f>RIGHT(H86,LEN(H86)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.330300000000001</v>
       </c>
       <c r="Y86" s="75">
-        <f>ABS(X86-W86)</f>
+        <f t="shared" si="26"/>
         <v>23.283200000000001</v>
       </c>
       <c r="Z86" s="76" t="e">
@@ -10135,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="61" t="str">
-        <f>IF(ISEVEN(B87),(B87-1)&amp;"/"&amp;B87,B87&amp;"/"&amp;(B87+1))</f>
+        <f t="shared" si="20"/>
         <v>4023/4024</v>
       </c>
       <c r="L87" s="61" t="str">
@@ -10143,7 +9968,7 @@
         <v>STEWART</v>
       </c>
       <c r="M87" s="12">
-        <f>I87-F87</f>
+        <f t="shared" si="21"/>
         <v>3.2002314808778465E-2</v>
       </c>
       <c r="N87" s="13">
@@ -10155,27 +9980,27 @@
       <c r="Q87" s="62"/>
       <c r="R87" s="62"/>
       <c r="T87" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E87-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I87+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B87&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 14:45:44-0600',mode:absolute,to:'2016-05-07 15:35:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U87" s="75" t="str">
-        <f>IF(Y87&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V87" s="75">
-        <f>VALUE(LEFT(A87,3))-VALUE(LEFT(A86,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W87" s="75">
-        <f>RIGHT(D87,LEN(D87)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.2973</v>
       </c>
       <c r="X87" s="75">
-        <f>RIGHT(H87,LEN(H87)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>1.61E-2</v>
       </c>
       <c r="Y87" s="75">
-        <f>ABS(X87-W87)</f>
+        <f t="shared" si="26"/>
         <v>23.281199999999998</v>
       </c>
       <c r="Z87" s="76" t="e">
@@ -10219,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="61" t="str">
-        <f>IF(ISEVEN(B88),(B88-1)&amp;"/"&amp;B88,B88&amp;"/"&amp;(B88+1))</f>
+        <f t="shared" si="20"/>
         <v>4025/4026</v>
       </c>
       <c r="L88" s="61" t="str">
@@ -10227,7 +10052,7 @@
         <v>BRANNON</v>
       </c>
       <c r="M88" s="12">
-        <f>I88-F88</f>
+        <f t="shared" si="21"/>
         <v>2.4988425931951497E-2</v>
       </c>
       <c r="N88" s="13">
@@ -10239,27 +10064,27 @@
       <c r="Q88" s="62"/>
       <c r="R88" s="62"/>
       <c r="T88" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E88-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I88+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B88&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 14:12:12-0600',mode:absolute,to:'2016-05-07 14:51:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U88" s="75" t="str">
-        <f>IF(Y88&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V88" s="75">
-        <f>VALUE(LEFT(A88,3))-VALUE(LEFT(A87,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W88" s="75">
-        <f>RIGHT(D88,LEN(D88)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X88" s="75">
-        <f>RIGHT(H88,LEN(H88)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.329699999999999</v>
       </c>
       <c r="Y88" s="75">
-        <f>ABS(X88-W88)</f>
+        <f t="shared" si="26"/>
         <v>23.283300000000001</v>
       </c>
       <c r="Z88" s="76" t="e">
@@ -10303,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="61" t="str">
-        <f>IF(ISEVEN(B89),(B89-1)&amp;"/"&amp;B89,B89&amp;"/"&amp;(B89+1))</f>
+        <f t="shared" si="20"/>
         <v>4025/4026</v>
       </c>
       <c r="L89" s="61" t="str">
@@ -10311,7 +10136,7 @@
         <v>BRANNON</v>
       </c>
       <c r="M89" s="12">
-        <f>I89-F89</f>
+        <f t="shared" si="21"/>
         <v>2.3958333331393078E-2</v>
       </c>
       <c r="N89" s="13"/>
@@ -10324,30 +10149,30 @@
         <v>581</v>
       </c>
       <c r="R89" s="62" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T89" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E89-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I89+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B89&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 15:07:50-0600',mode:absolute,to:'2016-05-07 15:45:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U89" s="75" t="str">
-        <f>IF(Y89&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>Y</v>
       </c>
       <c r="V89" s="75">
-        <f>VALUE(LEFT(A89,3))-VALUE(LEFT(A88,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W89" s="75">
-        <f>RIGHT(D89,LEN(D89)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.2989</v>
       </c>
       <c r="X89" s="75">
-        <f>RIGHT(H89,LEN(H89)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>0.58209999999999995</v>
       </c>
       <c r="Y89" s="75">
-        <f>ABS(X89-W89)</f>
+        <f t="shared" si="26"/>
         <v>22.716799999999999</v>
       </c>
       <c r="Z89" s="76" t="e">
@@ -10391,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="61" t="str">
-        <f>IF(ISEVEN(B90),(B90-1)&amp;"/"&amp;B90,B90&amp;"/"&amp;(B90+1))</f>
+        <f t="shared" si="20"/>
         <v>4039/4040</v>
       </c>
       <c r="L90" s="61" t="str">
@@ -10399,11 +10224,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M90" s="12">
-        <f>I90-F90</f>
+        <f t="shared" si="21"/>
         <v>2.8611111105419695E-2</v>
       </c>
       <c r="N90" s="13">
-        <f>$M90*24*60</f>
+        <f t="shared" ref="N90:N121" si="28">$M90*24*60</f>
         <v>41.199999991804361</v>
       </c>
       <c r="O90" s="13"/>
@@ -10411,27 +10236,27 @@
       <c r="Q90" s="62"/>
       <c r="R90" s="62"/>
       <c r="T90" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E90-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I90+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B90&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 14:22:40-0600',mode:absolute,to:'2016-05-07 15:07:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U90" s="75" t="str">
-        <f>IF(Y90&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V90" s="75">
-        <f>VALUE(LEFT(A90,3))-VALUE(LEFT(A89,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W90" s="75">
-        <f>RIGHT(D90,LEN(D90)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X90" s="75">
-        <f>RIGHT(H90,LEN(H90)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.332000000000001</v>
       </c>
       <c r="Y90" s="75">
-        <f>ABS(X90-W90)</f>
+        <f t="shared" si="26"/>
         <v>23.2865</v>
       </c>
       <c r="Z90" s="76" t="e">
@@ -10475,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="61" t="str">
-        <f>IF(ISEVEN(B91),(B91-1)&amp;"/"&amp;B91,B91&amp;"/"&amp;(B91+1))</f>
+        <f t="shared" si="20"/>
         <v>4039/4040</v>
       </c>
       <c r="L91" s="61" t="str">
@@ -10483,11 +10308,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M91" s="12">
-        <f>I91-F91</f>
+        <f t="shared" si="21"/>
         <v>2.9398148144537117E-2</v>
       </c>
       <c r="N91" s="13">
-        <f>$M91*24*60</f>
+        <f t="shared" si="28"/>
         <v>42.333333328133449</v>
       </c>
       <c r="O91" s="13"/>
@@ -10495,27 +10320,27 @@
       <c r="Q91" s="62"/>
       <c r="R91" s="62"/>
       <c r="T91" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E91-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I91+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B91&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 15:19:04-0600',mode:absolute,to:'2016-05-07 16:04:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U91" s="75" t="str">
-        <f>IF(Y91&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V91" s="75">
-        <f>VALUE(LEFT(A91,3))-VALUE(LEFT(A90,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W91" s="75">
-        <f>RIGHT(D91,LEN(D91)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.298999999999999</v>
       </c>
       <c r="X91" s="75">
-        <f>RIGHT(H91,LEN(H91)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y91" s="75">
-        <f>ABS(X91-W91)</f>
+        <f t="shared" si="26"/>
         <v>23.283200000000001</v>
       </c>
       <c r="Z91" s="76" t="e">
@@ -10559,7 +10384,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="61" t="str">
-        <f>IF(ISEVEN(B92),(B92-1)&amp;"/"&amp;B92,B92&amp;"/"&amp;(B92+1))</f>
+        <f t="shared" si="20"/>
         <v>4029/4030</v>
       </c>
       <c r="L92" s="61" t="str">
@@ -10567,11 +10392,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M92" s="12">
-        <f>I92-F92</f>
+        <f t="shared" si="21"/>
         <v>2.6678240741603076E-2</v>
       </c>
       <c r="N92" s="13">
-        <f>$M92*24*60</f>
+        <f t="shared" si="28"/>
         <v>38.41666666790843</v>
       </c>
       <c r="O92" s="13"/>
@@ -10579,27 +10404,27 @@
       <c r="Q92" s="62"/>
       <c r="R92" s="62"/>
       <c r="T92" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E92-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I92+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B92&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 14:40:44-0600',mode:absolute,to:'2016-05-07 15:22:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U92" s="75" t="str">
-        <f>IF(Y92&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V92" s="75">
-        <f>VALUE(LEFT(A92,3))-VALUE(LEFT(A91,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W92" s="75">
-        <f>RIGHT(D92,LEN(D92)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X92" s="75">
-        <f>RIGHT(H92,LEN(H92)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.327400000000001</v>
       </c>
       <c r="Y92" s="75">
-        <f>ABS(X92-W92)</f>
+        <f t="shared" si="26"/>
         <v>23.281400000000001</v>
       </c>
       <c r="Z92" s="76" t="e">
@@ -10643,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="61" t="str">
-        <f>IF(ISEVEN(B93),(B93-1)&amp;"/"&amp;B93,B93&amp;"/"&amp;(B93+1))</f>
+        <f t="shared" si="20"/>
         <v>4029/4030</v>
       </c>
       <c r="L93" s="61" t="str">
@@ -10651,11 +10476,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M93" s="12">
-        <f>I93-F93</f>
+        <f t="shared" si="21"/>
         <v>2.8449074074160308E-2</v>
       </c>
       <c r="N93" s="13">
-        <f>$M93*24*60</f>
+        <f t="shared" si="28"/>
         <v>40.966666666790843</v>
       </c>
       <c r="O93" s="13"/>
@@ -10663,27 +10488,27 @@
       <c r="Q93" s="62"/>
       <c r="R93" s="62"/>
       <c r="T93" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E93-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I93+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B93&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 15:34:58-0600',mode:absolute,to:'2016-05-07 16:19:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U93" s="75" t="str">
-        <f>IF(Y93&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V93" s="75">
-        <f>VALUE(LEFT(A93,3))-VALUE(LEFT(A92,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W93" s="75">
-        <f>RIGHT(D93,LEN(D93)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.2959</v>
       </c>
       <c r="X93" s="75">
-        <f>RIGHT(H93,LEN(H93)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y93" s="75">
-        <f>ABS(X93-W93)</f>
+        <f t="shared" si="26"/>
         <v>23.2818</v>
       </c>
       <c r="Z93" s="76" t="e">
@@ -10727,7 +10552,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="61" t="str">
-        <f>IF(ISEVEN(B94),(B94-1)&amp;"/"&amp;B94,B94&amp;"/"&amp;(B94+1))</f>
+        <f t="shared" si="20"/>
         <v>4011/4012</v>
       </c>
       <c r="L94" s="61" t="str">
@@ -10735,11 +10560,11 @@
         <v>BONDS</v>
       </c>
       <c r="M94" s="12">
-        <f>I94-F94</f>
+        <f t="shared" si="21"/>
         <v>2.9490740736946464E-2</v>
       </c>
       <c r="N94" s="13">
-        <f>$M94*24*60</f>
+        <f t="shared" si="28"/>
         <v>42.466666661202908</v>
       </c>
       <c r="O94" s="13"/>
@@ -10747,27 +10572,27 @@
       <c r="Q94" s="62"/>
       <c r="R94" s="62"/>
       <c r="T94" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E94-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I94+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B94&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 14:50:44-0600',mode:absolute,to:'2016-05-07 15:36:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U94" s="75" t="str">
-        <f>IF(Y94&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V94" s="75">
-        <f>VALUE(LEFT(A94,3))-VALUE(LEFT(A93,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W94" s="75">
-        <f>RIGHT(D94,LEN(D94)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X94" s="75">
-        <f>RIGHT(H94,LEN(H94)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.331600000000002</v>
       </c>
       <c r="Y94" s="75">
-        <f>ABS(X94-W94)</f>
+        <f t="shared" si="26"/>
         <v>23.286700000000003</v>
       </c>
       <c r="Z94" s="76" t="e">
@@ -10811,7 +10636,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="61" t="str">
-        <f>IF(ISEVEN(B95),(B95-1)&amp;"/"&amp;B95,B95&amp;"/"&amp;(B95+1))</f>
+        <f t="shared" si="20"/>
         <v>4011/4012</v>
       </c>
       <c r="L95" s="61" t="str">
@@ -10819,11 +10644,11 @@
         <v>BONDS</v>
       </c>
       <c r="M95" s="12">
-        <f>I95-F95</f>
+        <f t="shared" si="21"/>
         <v>3.4259259256941732E-2</v>
       </c>
       <c r="N95" s="13">
-        <f>$M95*24*60</f>
+        <f t="shared" si="28"/>
         <v>49.333333329996094</v>
       </c>
       <c r="O95" s="13"/>
@@ -10831,27 +10656,27 @@
       <c r="Q95" s="62"/>
       <c r="R95" s="62"/>
       <c r="T95" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E95-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I95+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B95&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 15:43:40-0600',mode:absolute,to:'2016-05-07 16:36:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U95" s="75" t="str">
-        <f>IF(Y95&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V95" s="75">
-        <f>VALUE(LEFT(A95,3))-VALUE(LEFT(A94,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W95" s="75">
-        <f>RIGHT(D95,LEN(D95)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.299199999999999</v>
       </c>
       <c r="X95" s="75">
-        <f>RIGHT(H95,LEN(H95)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>1.43E-2</v>
       </c>
       <c r="Y95" s="75">
-        <f>ABS(X95-W95)</f>
+        <f t="shared" si="26"/>
         <v>23.2849</v>
       </c>
       <c r="Z95" s="76" t="e">
@@ -10895,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="61" t="str">
-        <f>IF(ISEVEN(B96),(B96-1)&amp;"/"&amp;B96,B96&amp;"/"&amp;(B96+1))</f>
+        <f t="shared" si="20"/>
         <v>4007/4008</v>
       </c>
       <c r="L96" s="61" t="str">
@@ -10903,11 +10728,11 @@
         <v>NELSON</v>
       </c>
       <c r="M96" s="12">
-        <f>I96-F96</f>
+        <f t="shared" si="21"/>
         <v>2.8622685182199348E-2</v>
       </c>
       <c r="N96" s="13">
-        <f>$M96*24*60</f>
+        <f t="shared" si="28"/>
         <v>41.216666662367061</v>
       </c>
       <c r="O96" s="13"/>
@@ -10915,27 +10740,27 @@
       <c r="Q96" s="62"/>
       <c r="R96" s="62"/>
       <c r="T96" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E96-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I96+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B96&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 15:07:58-0600',mode:absolute,to:'2016-05-07 15:53:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U96" s="75" t="str">
-        <f>IF(Y96&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V96" s="75">
-        <f>VALUE(LEFT(A96,3))-VALUE(LEFT(A95,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W96" s="75">
-        <f>RIGHT(D96,LEN(D96)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.53E-2</v>
       </c>
       <c r="X96" s="75">
-        <f>RIGHT(H96,LEN(H96)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.331399999999999</v>
       </c>
       <c r="Y96" s="75">
-        <f>ABS(X96-W96)</f>
+        <f t="shared" si="26"/>
         <v>23.286099999999998</v>
       </c>
       <c r="Z96" s="76" t="e">
@@ -10979,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="61" t="str">
-        <f>IF(ISEVEN(B97),(B97-1)&amp;"/"&amp;B97,B97&amp;"/"&amp;(B97+1))</f>
+        <f t="shared" si="20"/>
         <v>4007/4008</v>
       </c>
       <c r="L97" s="61" t="str">
@@ -10987,11 +10812,11 @@
         <v>NELSON</v>
       </c>
       <c r="M97" s="12">
-        <f>I97-F97</f>
+        <f t="shared" si="21"/>
         <v>3.1851851847022772E-2</v>
       </c>
       <c r="N97" s="13">
-        <f>$M97*24*60</f>
+        <f t="shared" si="28"/>
         <v>45.866666659712791</v>
       </c>
       <c r="O97" s="13"/>
@@ -10999,27 +10824,27 @@
       <c r="Q97" s="62"/>
       <c r="R97" s="62"/>
       <c r="T97" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E97-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I97+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B97&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 15:59:45-0600',mode:absolute,to:'2016-05-07 16:49:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U97" s="75" t="str">
-        <f>IF(Y97&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V97" s="75">
-        <f>VALUE(LEFT(A97,3))-VALUE(LEFT(A96,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W97" s="75">
-        <f>RIGHT(D97,LEN(D97)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.2989</v>
       </c>
       <c r="X97" s="75">
-        <f>RIGHT(H97,LEN(H97)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>1.43E-2</v>
       </c>
       <c r="Y97" s="75">
-        <f>ABS(X97-W97)</f>
+        <f t="shared" si="26"/>
         <v>23.284600000000001</v>
       </c>
       <c r="Z97" s="76" t="e">
@@ -11063,7 +10888,7 @@
         <v>1</v>
       </c>
       <c r="K98" s="61" t="str">
-        <f>IF(ISEVEN(B98),(B98-1)&amp;"/"&amp;B98,B98&amp;"/"&amp;(B98+1))</f>
+        <f t="shared" si="20"/>
         <v>4019/4020</v>
       </c>
       <c r="L98" s="61" t="str">
@@ -11071,11 +10896,11 @@
         <v>COCA</v>
       </c>
       <c r="M98" s="12">
-        <f>I98-F98</f>
+        <f t="shared" si="21"/>
         <v>3.4571759264508728E-2</v>
       </c>
       <c r="N98" s="13">
-        <f>$M98*24*60</f>
+        <f t="shared" si="28"/>
         <v>49.783333340892568</v>
       </c>
       <c r="O98" s="13"/>
@@ -11083,27 +10908,27 @@
       <c r="Q98" s="62"/>
       <c r="R98" s="62"/>
       <c r="T98" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E98-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I98+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B98&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="22"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 15:19:40-0600',mode:absolute,to:'2016-05-07 16:13:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U98" s="75" t="str">
-        <f>IF(Y98&lt;23,"Y","N")</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
       <c r="V98" s="75">
-        <f>VALUE(LEFT(A98,3))-VALUE(LEFT(A97,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W98" s="75">
-        <f>RIGHT(D98,LEN(D98)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.3700000000000003E-2</v>
       </c>
       <c r="X98" s="75">
-        <f>RIGHT(H98,LEN(H98)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.327200000000001</v>
       </c>
       <c r="Y98" s="75">
-        <f>ABS(X98-W98)</f>
+        <f t="shared" si="26"/>
         <v>23.2835</v>
       </c>
       <c r="Z98" s="76" t="e">
@@ -11147,7 +10972,7 @@
         <v>1</v>
       </c>
       <c r="K99" s="61" t="str">
-        <f>IF(ISEVEN(B99),(B99-1)&amp;"/"&amp;B99,B99&amp;"/"&amp;(B99+1))</f>
+        <f t="shared" ref="K99:K130" si="29">IF(ISEVEN(B99),(B99-1)&amp;"/"&amp;B99,B99&amp;"/"&amp;(B99+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L99" s="61" t="str">
@@ -11155,11 +10980,11 @@
         <v>COCA</v>
       </c>
       <c r="M99" s="12">
-        <f>I99-F99</f>
+        <f t="shared" ref="M99:M130" si="30">I99-F99</f>
         <v>3.2453703701321501E-2</v>
       </c>
       <c r="N99" s="13">
-        <f>$M99*24*60</f>
+        <f t="shared" si="28"/>
         <v>46.733333329902962</v>
       </c>
       <c r="O99" s="13"/>
@@ -11167,27 +10992,27 @@
       <c r="Q99" s="62"/>
       <c r="R99" s="62"/>
       <c r="T99" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E99-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I99+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B99&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T99:T130" si="31">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E99-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I99+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B99&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 16:15:57-0600',mode:absolute,to:'2016-05-07 17:06:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U99" s="75" t="str">
-        <f>IF(Y99&lt;23,"Y","N")</f>
+        <f t="shared" ref="U99:U130" si="32">IF(Y99&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V99" s="75">
-        <f>VALUE(LEFT(A99,3))-VALUE(LEFT(A98,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W99" s="75">
-        <f>RIGHT(D99,LEN(D99)-4)/10000</f>
+        <f t="shared" ref="W99:W130" si="33">RIGHT(D99,LEN(D99)-4)/10000</f>
         <v>23.2959</v>
       </c>
       <c r="X99" s="75">
-        <f>RIGHT(H99,LEN(H99)-4)/10000</f>
+        <f t="shared" ref="X99:X130" si="34">RIGHT(H99,LEN(H99)-4)/10000</f>
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="Y99" s="75">
-        <f>ABS(X99-W99)</f>
+        <f t="shared" ref="Y99:Y130" si="35">ABS(X99-W99)</f>
         <v>23.279399999999999</v>
       </c>
       <c r="Z99" s="76" t="e">
@@ -11231,7 +11056,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="61" t="str">
-        <f>IF(ISEVEN(B100),(B100-1)&amp;"/"&amp;B100,B100&amp;"/"&amp;(B100+1))</f>
+        <f t="shared" si="29"/>
         <v>4023/4024</v>
       </c>
       <c r="L100" s="61" t="str">
@@ -11239,11 +11064,11 @@
         <v>STEWART</v>
       </c>
       <c r="M100" s="12">
-        <f>I100-F100</f>
+        <f t="shared" si="30"/>
         <v>2.6782407410792075E-2</v>
       </c>
       <c r="N100" s="13">
-        <f>$M100*24*60</f>
+        <f t="shared" si="28"/>
         <v>38.566666671540588</v>
       </c>
       <c r="O100" s="13"/>
@@ -11251,27 +11076,27 @@
       <c r="Q100" s="62"/>
       <c r="R100" s="62"/>
       <c r="T100" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E100-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I100+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B100&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 15:40:34-0600',mode:absolute,to:'2016-05-07 16:22:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U100" s="75" t="str">
-        <f>IF(Y100&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V100" s="75">
-        <f>VALUE(LEFT(A100,3))-VALUE(LEFT(A99,3))</f>
+        <f t="shared" ref="V100:V131" si="36">VALUE(LEFT(A100,3))-VALUE(LEFT(A99,3))</f>
         <v>1</v>
       </c>
       <c r="W100" s="75">
-        <f>RIGHT(D100,LEN(D100)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="X100" s="75">
-        <f>RIGHT(H100,LEN(H100)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.332100000000001</v>
       </c>
       <c r="Y100" s="75">
-        <f>ABS(X100-W100)</f>
+        <f t="shared" si="35"/>
         <v>23.2852</v>
       </c>
       <c r="Z100" s="76" t="e">
@@ -11315,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="61" t="str">
-        <f>IF(ISEVEN(B101),(B101-1)&amp;"/"&amp;B101,B101&amp;"/"&amp;(B101+1))</f>
+        <f t="shared" si="29"/>
         <v>4023/4024</v>
       </c>
       <c r="L101" s="61" t="str">
@@ -11323,11 +11148,11 @@
         <v>STEWART</v>
       </c>
       <c r="M101" s="12">
-        <f>I101-F101</f>
+        <f t="shared" si="30"/>
         <v>2.5532407402351964E-2</v>
       </c>
       <c r="N101" s="13">
-        <f>$M101*24*60</f>
+        <f t="shared" si="28"/>
         <v>36.766666659386829</v>
       </c>
       <c r="O101" s="13"/>
@@ -11335,27 +11160,27 @@
       <c r="Q101" s="62"/>
       <c r="R101" s="62"/>
       <c r="T101" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E101-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I101+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B101&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 16:35:41-0600',mode:absolute,to:'2016-05-07 17:19:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U101" s="75" t="str">
-        <f>IF(Y101&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V101" s="75">
-        <f>VALUE(LEFT(A101,3))-VALUE(LEFT(A100,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W101" s="75">
-        <f>RIGHT(D101,LEN(D101)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>23.299099999999999</v>
       </c>
       <c r="X101" s="75">
-        <f>RIGHT(H101,LEN(H101)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y101" s="75">
-        <f>ABS(X101-W101)</f>
+        <f t="shared" si="35"/>
         <v>23.282799999999998</v>
       </c>
       <c r="Z101" s="76" t="e">
@@ -11399,7 +11224,7 @@
         <v>1</v>
       </c>
       <c r="K102" s="61" t="str">
-        <f>IF(ISEVEN(B102),(B102-1)&amp;"/"&amp;B102,B102&amp;"/"&amp;(B102+1))</f>
+        <f t="shared" si="29"/>
         <v>4025/4026</v>
       </c>
       <c r="L102" s="61" t="str">
@@ -11407,11 +11232,11 @@
         <v>BRANNON</v>
       </c>
       <c r="M102" s="12">
-        <f>I102-F102</f>
+        <f t="shared" si="30"/>
         <v>2.9120370367309079E-2</v>
       </c>
       <c r="N102" s="13">
-        <f>$M102*24*60</f>
+        <f t="shared" si="28"/>
         <v>41.933333328925073</v>
       </c>
       <c r="O102" s="13"/>
@@ -11419,27 +11244,27 @@
       <c r="Q102" s="62"/>
       <c r="R102" s="62"/>
       <c r="T102" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E102-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I102+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B102&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 15:50:33-0600',mode:absolute,to:'2016-05-07 16:36:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U102" s="75" t="str">
-        <f>IF(Y102&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V102" s="75">
-        <f>VALUE(LEFT(A102,3))-VALUE(LEFT(A101,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W102" s="75">
-        <f>RIGHT(D102,LEN(D102)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="X102" s="75">
-        <f>RIGHT(H102,LEN(H102)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.3291</v>
       </c>
       <c r="Y102" s="75">
-        <f>ABS(X102-W102)</f>
+        <f t="shared" si="35"/>
         <v>23.2851</v>
       </c>
       <c r="Z102" s="76" t="e">
@@ -11483,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="61" t="str">
-        <f>IF(ISEVEN(B103),(B103-1)&amp;"/"&amp;B103,B103&amp;"/"&amp;(B103+1))</f>
+        <f t="shared" si="29"/>
         <v>4025/4026</v>
       </c>
       <c r="L103" s="61" t="str">
@@ -11491,11 +11316,11 @@
         <v>BRANNON</v>
       </c>
       <c r="M103" s="12">
-        <f>I103-F103</f>
+        <f t="shared" si="30"/>
         <v>2.6087962964083999E-2</v>
       </c>
       <c r="N103" s="13">
-        <f>$M103*24*60</f>
+        <f t="shared" si="28"/>
         <v>37.566666668280959</v>
       </c>
       <c r="O103" s="13"/>
@@ -11503,27 +11328,27 @@
       <c r="Q103" s="62"/>
       <c r="R103" s="62"/>
       <c r="T103" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E103-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I103+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B103&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 16:52:21-0600',mode:absolute,to:'2016-05-07 17:32:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U103" s="75" t="str">
-        <f>IF(Y103&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V103" s="75">
-        <f>VALUE(LEFT(A103,3))-VALUE(LEFT(A102,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W103" s="75">
-        <f>RIGHT(D103,LEN(D103)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>23.297499999999999</v>
       </c>
       <c r="X103" s="75">
-        <f>RIGHT(H103,LEN(H103)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y103" s="75">
-        <f>ABS(X103-W103)</f>
+        <f t="shared" si="35"/>
         <v>23.2821</v>
       </c>
       <c r="Z103" s="76" t="e">
@@ -11567,7 +11392,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="61" t="str">
-        <f>IF(ISEVEN(B104),(B104-1)&amp;"/"&amp;B104,B104&amp;"/"&amp;(B104+1))</f>
+        <f t="shared" si="29"/>
         <v>4039/4040</v>
       </c>
       <c r="L104" s="61" t="str">
@@ -11575,11 +11400,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M104" s="12">
-        <f>I104-F104</f>
+        <f t="shared" si="30"/>
         <v>3.0983796299551614E-2</v>
       </c>
       <c r="N104" s="13">
-        <f>$M104*24*60</f>
+        <f t="shared" si="28"/>
         <v>44.616666671354324</v>
       </c>
       <c r="O104" s="13"/>
@@ -11587,27 +11412,27 @@
       <c r="Q104" s="62"/>
       <c r="R104" s="62"/>
       <c r="T104" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E104-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I104+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B104&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 16:07:35-0600',mode:absolute,to:'2016-05-07 16:55:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U104" s="75" t="str">
-        <f>IF(Y104&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V104" s="75">
-        <f>VALUE(LEFT(A104,3))-VALUE(LEFT(A103,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W104" s="75">
-        <f>RIGHT(D104,LEN(D104)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X104" s="75">
-        <f>RIGHT(H104,LEN(H104)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.329499999999999</v>
       </c>
       <c r="Y104" s="75">
-        <f>ABS(X104-W104)</f>
+        <f t="shared" si="35"/>
         <v>23.283300000000001</v>
       </c>
       <c r="Z104" s="76" t="e">
@@ -11651,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="61" t="str">
-        <f>IF(ISEVEN(B105),(B105-1)&amp;"/"&amp;B105,B105&amp;"/"&amp;(B105+1))</f>
+        <f t="shared" si="29"/>
         <v>4039/4040</v>
       </c>
       <c r="L105" s="61" t="str">
@@ -11659,11 +11484,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M105" s="12">
-        <f>I105-F105</f>
+        <f t="shared" si="30"/>
         <v>2.9328703705687076E-2</v>
       </c>
       <c r="N105" s="13">
-        <f>$M105*24*60</f>
+        <f t="shared" si="28"/>
         <v>42.233333336189389</v>
       </c>
       <c r="O105" s="13"/>
@@ -11671,27 +11496,27 @@
       <c r="Q105" s="62"/>
       <c r="R105" s="62"/>
       <c r="T105" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E105-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I105+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B105&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 17:03:44-0600',mode:absolute,to:'2016-05-07 17:49:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U105" s="75" t="str">
-        <f>IF(Y105&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V105" s="75">
-        <f>VALUE(LEFT(A105,3))-VALUE(LEFT(A104,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W105" s="75">
-        <f>RIGHT(D105,LEN(D105)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>23.299399999999999</v>
       </c>
       <c r="X105" s="75">
-        <f>RIGHT(H105,LEN(H105)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y105" s="75">
-        <f>ABS(X105-W105)</f>
+        <f t="shared" si="35"/>
         <v>23.285299999999999</v>
       </c>
       <c r="Z105" s="76" t="e">
@@ -11735,7 +11560,7 @@
         <v>2</v>
       </c>
       <c r="K106" s="61" t="str">
-        <f>IF(ISEVEN(B106),(B106-1)&amp;"/"&amp;B106,B106&amp;"/"&amp;(B106+1))</f>
+        <f t="shared" si="29"/>
         <v>4029/4030</v>
       </c>
       <c r="L106" s="61" t="str">
@@ -11743,11 +11568,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M106" s="12">
-        <f>I106-F106</f>
+        <f t="shared" si="30"/>
         <v>2.6817129626579117E-2</v>
       </c>
       <c r="N106" s="13">
-        <f>$M106*24*60</f>
+        <f t="shared" si="28"/>
         <v>38.616666662273929</v>
       </c>
       <c r="O106" s="13"/>
@@ -11755,27 +11580,27 @@
       <c r="Q106" s="62"/>
       <c r="R106" s="62"/>
       <c r="T106" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E106-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I106+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B106&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 16:27:30-0600',mode:absolute,to:'2016-05-07 17:09:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U106" s="75" t="str">
-        <f>IF(Y106&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V106" s="75">
-        <f>VALUE(LEFT(A106,3))-VALUE(LEFT(A105,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W106" s="75">
-        <f>RIGHT(D106,LEN(D106)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="X106" s="75">
-        <f>RIGHT(H106,LEN(H106)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.301100000000002</v>
       </c>
       <c r="Y106" s="75">
-        <f>ABS(X106-W106)</f>
+        <f t="shared" si="35"/>
         <v>23.256900000000002</v>
       </c>
       <c r="Z106" s="76" t="e">
@@ -11819,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="61" t="str">
-        <f>IF(ISEVEN(B107),(B107-1)&amp;"/"&amp;B107,B107&amp;"/"&amp;(B107+1))</f>
+        <f t="shared" si="29"/>
         <v>4029/4030</v>
       </c>
       <c r="L107" s="61" t="str">
@@ -11827,11 +11652,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M107" s="12">
-        <f>I107-F107</f>
+        <f t="shared" si="30"/>
         <v>2.9212962959718425E-2</v>
       </c>
       <c r="N107" s="13">
-        <f>$M107*24*60</f>
+        <f t="shared" si="28"/>
         <v>42.066666661994532</v>
       </c>
       <c r="O107" s="13"/>
@@ -11839,27 +11664,27 @@
       <c r="Q107" s="62"/>
       <c r="R107" s="62"/>
       <c r="T107" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E107-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I107+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B107&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 17:19:17-0600',mode:absolute,to:'2016-05-07 18:04:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U107" s="75" t="str">
-        <f>IF(Y107&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V107" s="75">
-        <f>VALUE(LEFT(A107,3))-VALUE(LEFT(A106,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W107" s="75">
-        <f>RIGHT(D107,LEN(D107)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>23.2867</v>
       </c>
       <c r="X107" s="75">
-        <f>RIGHT(H107,LEN(H107)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.6E-2</v>
       </c>
       <c r="Y107" s="75">
-        <f>ABS(X107-W107)</f>
+        <f t="shared" si="35"/>
         <v>23.270700000000001</v>
       </c>
       <c r="Z107" s="76" t="e">
@@ -11903,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="61" t="str">
-        <f>IF(ISEVEN(B108),(B108-1)&amp;"/"&amp;B108,B108&amp;"/"&amp;(B108+1))</f>
+        <f t="shared" si="29"/>
         <v>4011/4012</v>
       </c>
       <c r="L108" s="61" t="str">
@@ -11911,11 +11736,11 @@
         <v>BONDS</v>
       </c>
       <c r="M108" s="12">
-        <f>I108-F108</f>
+        <f t="shared" si="30"/>
         <v>2.9293981482624076E-2</v>
       </c>
       <c r="N108" s="13">
-        <f>$M108*24*60</f>
+        <f t="shared" si="28"/>
         <v>42.18333333497867</v>
       </c>
       <c r="O108" s="13"/>
@@ -11923,27 +11748,27 @@
       <c r="Q108" s="62"/>
       <c r="R108" s="62"/>
       <c r="T108" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E108-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I108+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B108&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 16:36:45-0600',mode:absolute,to:'2016-05-07 17:22:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U108" s="75" t="str">
-        <f>IF(Y108&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V108" s="75">
-        <f>VALUE(LEFT(A108,3))-VALUE(LEFT(A107,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W108" s="75">
-        <f>RIGHT(D108,LEN(D108)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>4.58E-2</v>
       </c>
       <c r="X108" s="75">
-        <f>RIGHT(H108,LEN(H108)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.333100000000002</v>
       </c>
       <c r="Y108" s="75">
-        <f>ABS(X108-W108)</f>
+        <f t="shared" si="35"/>
         <v>23.287300000000002</v>
       </c>
       <c r="Z108" s="76" t="e">
@@ -11987,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="61" t="str">
-        <f>IF(ISEVEN(B109),(B109-1)&amp;"/"&amp;B109,B109&amp;"/"&amp;(B109+1))</f>
+        <f t="shared" si="29"/>
         <v>4011/4012</v>
       </c>
       <c r="L109" s="61" t="str">
@@ -11995,11 +11820,11 @@
         <v>BONDS</v>
       </c>
       <c r="M109" s="12">
-        <f>I109-F109</f>
+        <f t="shared" si="30"/>
         <v>3.2152777777810115E-2</v>
       </c>
       <c r="N109" s="13">
-        <f>$M109*24*60</f>
+        <f t="shared" si="28"/>
         <v>46.300000000046566</v>
       </c>
       <c r="O109" s="13"/>
@@ -12007,27 +11832,27 @@
       <c r="Q109" s="62"/>
       <c r="R109" s="62"/>
       <c r="T109" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E109-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I109+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B109&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 17:29:10-0600',mode:absolute,to:'2016-05-07 18:18:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U109" s="75" t="str">
-        <f>IF(Y109&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V109" s="75">
-        <f>VALUE(LEFT(A109,3))-VALUE(LEFT(A108,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W109" s="75">
-        <f>RIGHT(D109,LEN(D109)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>23.3019</v>
       </c>
       <c r="X109" s="75">
-        <f>RIGHT(H109,LEN(H109)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y109" s="75">
-        <f>ABS(X109-W109)</f>
+        <f t="shared" si="35"/>
         <v>23.286100000000001</v>
       </c>
       <c r="Z109" s="76" t="e">
@@ -12071,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="61" t="str">
-        <f>IF(ISEVEN(B110),(B110-1)&amp;"/"&amp;B110,B110&amp;"/"&amp;(B110+1))</f>
+        <f t="shared" si="29"/>
         <v>4007/4008</v>
       </c>
       <c r="L110" s="61" t="str">
@@ -12079,11 +11904,11 @@
         <v>NELSON</v>
       </c>
       <c r="M110" s="12">
-        <f>I110-F110</f>
+        <f t="shared" si="30"/>
         <v>2.9143518520868383E-2</v>
       </c>
       <c r="N110" s="13">
-        <f>$M110*24*60</f>
+        <f t="shared" si="28"/>
         <v>41.966666670050472</v>
       </c>
       <c r="O110" s="13"/>
@@ -12091,27 +11916,27 @@
       <c r="Q110" s="62"/>
       <c r="R110" s="62"/>
       <c r="T110" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E110-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I110+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B110&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 16:51:37-0600',mode:absolute,to:'2016-05-07 17:37:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U110" s="75" t="str">
-        <f>IF(Y110&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V110" s="75">
-        <f>VALUE(LEFT(A110,3))-VALUE(LEFT(A109,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W110" s="75">
-        <f>RIGHT(D110,LEN(D110)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="X110" s="75">
-        <f>RIGHT(H110,LEN(H110)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.329499999999999</v>
       </c>
       <c r="Y110" s="75">
-        <f>ABS(X110-W110)</f>
+        <f t="shared" si="35"/>
         <v>23.285299999999999</v>
       </c>
       <c r="Z110" s="76" t="e">
@@ -12155,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="61" t="str">
-        <f>IF(ISEVEN(B111),(B111-1)&amp;"/"&amp;B111,B111&amp;"/"&amp;(B111+1))</f>
+        <f t="shared" si="29"/>
         <v>4007/4008</v>
       </c>
       <c r="L111" s="61" t="str">
@@ -12163,11 +11988,11 @@
         <v>NELSON</v>
       </c>
       <c r="M111" s="12">
-        <f>I111-F111</f>
+        <f t="shared" si="30"/>
         <v>3.0729166661330964E-2</v>
       </c>
       <c r="N111" s="13">
-        <f>$M111*24*60</f>
+        <f t="shared" si="28"/>
         <v>44.249999992316589</v>
       </c>
       <c r="O111" s="13"/>
@@ -12175,27 +12000,27 @@
       <c r="Q111" s="62"/>
       <c r="R111" s="62"/>
       <c r="T111" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E111-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I111+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B111&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 17:47:08-0600',mode:absolute,to:'2016-05-07 18:34:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U111" s="75" t="str">
-        <f>IF(Y111&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V111" s="75">
-        <f>VALUE(LEFT(A111,3))-VALUE(LEFT(A110,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W111" s="75">
-        <f>RIGHT(D111,LEN(D111)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>23.298400000000001</v>
       </c>
       <c r="X111" s="75">
-        <f>RIGHT(H111,LEN(H111)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y111" s="75">
-        <f>ABS(X111-W111)</f>
+        <f t="shared" si="35"/>
         <v>23.284300000000002</v>
       </c>
       <c r="Z111" s="76" t="e">
@@ -12239,7 +12064,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="61" t="str">
-        <f>IF(ISEVEN(B112),(B112-1)&amp;"/"&amp;B112,B112&amp;"/"&amp;(B112+1))</f>
+        <f t="shared" si="29"/>
         <v>4019/4020</v>
       </c>
       <c r="L112" s="61" t="str">
@@ -12247,11 +12072,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M112" s="12">
-        <f>I112-F112</f>
+        <f t="shared" si="30"/>
         <v>2.8773148143955041E-2</v>
       </c>
       <c r="N112" s="13">
-        <f>$M112*24*60</f>
+        <f t="shared" si="28"/>
         <v>41.433333327295259</v>
       </c>
       <c r="O112" s="13"/>
@@ -12259,27 +12084,27 @@
       <c r="Q112" s="62"/>
       <c r="R112" s="62"/>
       <c r="T112" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E112-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I112+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B112&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 17:05:54-0600',mode:absolute,to:'2016-05-07 17:51:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U112" s="75" t="str">
-        <f>IF(Y112&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V112" s="75">
-        <f>VALUE(LEFT(A112,3))-VALUE(LEFT(A111,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W112" s="75">
-        <f>RIGHT(D112,LEN(D112)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="X112" s="75">
-        <f>RIGHT(H112,LEN(H112)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.3308</v>
       </c>
       <c r="Y112" s="75">
-        <f>ABS(X112-W112)</f>
+        <f t="shared" si="35"/>
         <v>23.283300000000001</v>
       </c>
       <c r="Z112" s="76" t="e">
@@ -12323,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="K113" s="61" t="str">
-        <f>IF(ISEVEN(B113),(B113-1)&amp;"/"&amp;B113,B113&amp;"/"&amp;(B113+1))</f>
+        <f t="shared" si="29"/>
         <v>4019/4020</v>
       </c>
       <c r="L113" s="61" t="str">
@@ -12331,11 +12156,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M113" s="12">
-        <f>I113-F113</f>
+        <f t="shared" si="30"/>
         <v>3.5752314812270924E-2</v>
       </c>
       <c r="N113" s="13">
-        <f>$M113*24*60</f>
+        <f t="shared" si="28"/>
         <v>51.483333329670131</v>
       </c>
       <c r="O113" s="13"/>
@@ -12343,27 +12168,27 @@
       <c r="Q113" s="62"/>
       <c r="R113" s="62"/>
       <c r="T113" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E113-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I113+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B113&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 17:55:50-0600',mode:absolute,to:'2016-05-07 18:50:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U113" s="75" t="str">
-        <f>IF(Y113&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V113" s="75">
-        <f>VALUE(LEFT(A113,3))-VALUE(LEFT(A112,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W113" s="75">
-        <f>RIGHT(D113,LEN(D113)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>23.298300000000001</v>
       </c>
       <c r="X113" s="75">
-        <f>RIGHT(H113,LEN(H113)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.12E-2</v>
       </c>
       <c r="Y113" s="75">
-        <f>ABS(X113-W113)</f>
+        <f t="shared" si="35"/>
         <v>23.287100000000002</v>
       </c>
       <c r="Z113" s="76">
@@ -12407,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="61" t="str">
-        <f>IF(ISEVEN(B114),(B114-1)&amp;"/"&amp;B114,B114&amp;"/"&amp;(B114+1))</f>
+        <f t="shared" si="29"/>
         <v>4023/4024</v>
       </c>
       <c r="L114" s="61" t="str">
@@ -12415,11 +12240,11 @@
         <v>STEWART</v>
       </c>
       <c r="M114" s="12">
-        <f>I114-F114</f>
+        <f t="shared" si="30"/>
         <v>2.8356481481750961E-2</v>
       </c>
       <c r="N114" s="13">
-        <f>$M114*24*60</f>
+        <f t="shared" si="28"/>
         <v>40.833333333721384</v>
       </c>
       <c r="O114" s="13"/>
@@ -12427,27 +12252,27 @@
       <c r="Q114" s="62"/>
       <c r="R114" s="62"/>
       <c r="T114" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E114-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I114+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B114&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 17:21:45-0600',mode:absolute,to:'2016-05-07 18:06:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U114" s="75" t="str">
-        <f>IF(Y114&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V114" s="75">
-        <f>VALUE(LEFT(A114,3))-VALUE(LEFT(A113,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W114" s="75">
-        <f>RIGHT(D114,LEN(D114)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>4.58E-2</v>
       </c>
       <c r="X114" s="75">
-        <f>RIGHT(H114,LEN(H114)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.330100000000002</v>
       </c>
       <c r="Y114" s="75">
-        <f>ABS(X114-W114)</f>
+        <f t="shared" si="35"/>
         <v>23.284300000000002</v>
       </c>
       <c r="Z114" s="76" t="e">
@@ -12491,7 +12316,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="61" t="str">
-        <f>IF(ISEVEN(B115),(B115-1)&amp;"/"&amp;B115,B115&amp;"/"&amp;(B115+1))</f>
+        <f t="shared" si="29"/>
         <v>4023/4024</v>
       </c>
       <c r="L115" s="61" t="str">
@@ -12499,11 +12324,11 @@
         <v>STEWART</v>
       </c>
       <c r="M115" s="12">
-        <f>I115-F115</f>
+        <f t="shared" si="30"/>
         <v>3.2199074077652767E-2</v>
       </c>
       <c r="N115" s="13">
-        <f>$M115*24*60</f>
+        <f t="shared" si="28"/>
         <v>46.366666671819985</v>
       </c>
       <c r="O115" s="13"/>
@@ -12511,27 +12336,27 @@
       <c r="Q115" s="62"/>
       <c r="R115" s="62"/>
       <c r="T115" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E115-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I115+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B115&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 18:14:46-0600',mode:absolute,to:'2016-05-07 19:04:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U115" s="75" t="str">
-        <f>IF(Y115&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V115" s="75">
-        <f>VALUE(LEFT(A115,3))-VALUE(LEFT(A114,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W115" s="75">
-        <f>RIGHT(D115,LEN(D115)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>23.295500000000001</v>
       </c>
       <c r="X115" s="75">
-        <f>RIGHT(H115,LEN(H115)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y115" s="75">
-        <f>ABS(X115-W115)</f>
+        <f t="shared" si="35"/>
         <v>23.279199999999999</v>
       </c>
       <c r="Z115" s="76" t="e">
@@ -12575,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="61" t="str">
-        <f>IF(ISEVEN(B116),(B116-1)&amp;"/"&amp;B116,B116&amp;"/"&amp;(B116+1))</f>
+        <f t="shared" si="29"/>
         <v>4025/4026</v>
       </c>
       <c r="L116" s="61" t="str">
@@ -12583,11 +12408,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M116" s="12">
-        <f>I116-F116</f>
+        <f t="shared" si="30"/>
         <v>2.923611111327773E-2</v>
       </c>
       <c r="N116" s="13">
-        <f>$M116*24*60</f>
+        <f t="shared" si="28"/>
         <v>42.100000003119931</v>
       </c>
       <c r="O116" s="13"/>
@@ -12595,27 +12420,27 @@
       <c r="Q116" s="62"/>
       <c r="R116" s="62"/>
       <c r="T116" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E116-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I116+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B116&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 17:36:58-0600',mode:absolute,to:'2016-05-07 18:22:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U116" s="75" t="str">
-        <f>IF(Y116&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V116" s="75">
-        <f>VALUE(LEFT(A116,3))-VALUE(LEFT(A115,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W116" s="75">
-        <f>RIGHT(D116,LEN(D116)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>4.53E-2</v>
       </c>
       <c r="X116" s="75">
-        <f>RIGHT(H116,LEN(H116)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.331399999999999</v>
       </c>
       <c r="Y116" s="75">
-        <f>ABS(X116-W116)</f>
+        <f t="shared" si="35"/>
         <v>23.286099999999998</v>
       </c>
       <c r="Z116" s="76" t="e">
@@ -12659,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="61" t="str">
-        <f>IF(ISEVEN(B117),(B117-1)&amp;"/"&amp;B117,B117&amp;"/"&amp;(B117+1))</f>
+        <f t="shared" si="29"/>
         <v>4025/4026</v>
       </c>
       <c r="L117" s="61" t="str">
@@ -12667,11 +12492,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M117" s="12">
-        <f>I117-F117</f>
+        <f t="shared" si="30"/>
         <v>3.3599537040572613E-2</v>
       </c>
       <c r="N117" s="13">
-        <f>$M117*24*60</f>
+        <f t="shared" si="28"/>
         <v>48.383333338424563</v>
       </c>
       <c r="O117" s="13"/>
@@ -12679,27 +12504,27 @@
       <c r="Q117" s="62"/>
       <c r="R117" s="62"/>
       <c r="T117" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E117-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I117+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B117&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 18:30:11-0600',mode:absolute,to:'2016-05-07 19:21:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U117" s="75" t="str">
-        <f>IF(Y117&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V117" s="75">
-        <f>VALUE(LEFT(A117,3))-VALUE(LEFT(A116,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W117" s="75">
-        <f>RIGHT(D117,LEN(D117)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>23.298500000000001</v>
       </c>
       <c r="X117" s="75">
-        <f>RIGHT(H117,LEN(H117)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y117" s="75">
-        <f>ABS(X117-W117)</f>
+        <f t="shared" si="35"/>
         <v>23.282700000000002</v>
       </c>
       <c r="Z117" s="76" t="e">
@@ -12743,7 +12568,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="61" t="str">
-        <f>IF(ISEVEN(B118),(B118-1)&amp;"/"&amp;B118,B118&amp;"/"&amp;(B118+1))</f>
+        <f t="shared" si="29"/>
         <v>4039/4040</v>
       </c>
       <c r="L118" s="61" t="str">
@@ -12751,11 +12576,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M118" s="12">
-        <f>I118-F118</f>
+        <f t="shared" si="30"/>
         <v>2.9456018521159422E-2</v>
       </c>
       <c r="N118" s="13">
-        <f>$M118*24*60</f>
+        <f t="shared" si="28"/>
         <v>42.416666670469567</v>
       </c>
       <c r="O118" s="13"/>
@@ -12763,27 +12588,27 @@
       <c r="Q118" s="62"/>
       <c r="R118" s="62"/>
       <c r="T118" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E118-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I118+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B118&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 17:51:23-0600',mode:absolute,to:'2016-05-07 18:37:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U118" s="75" t="str">
-        <f>IF(Y118&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V118" s="75">
-        <f>VALUE(LEFT(A118,3))-VALUE(LEFT(A117,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W118" s="75">
-        <f>RIGHT(D118,LEN(D118)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X118" s="75">
-        <f>RIGHT(H118,LEN(H118)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.329899999999999</v>
       </c>
       <c r="Y118" s="75">
-        <f>ABS(X118-W118)</f>
+        <f t="shared" si="35"/>
         <v>23.2852</v>
       </c>
       <c r="Z118" s="76" t="e">
@@ -12827,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="61" t="str">
-        <f>IF(ISEVEN(B119),(B119-1)&amp;"/"&amp;B119,B119&amp;"/"&amp;(B119+1))</f>
+        <f t="shared" si="29"/>
         <v>4039/4040</v>
       </c>
       <c r="L119" s="61" t="str">
@@ -12835,11 +12660,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M119" s="12">
-        <f>I119-F119</f>
+        <f t="shared" si="30"/>
         <v>3.0937499999708962E-2</v>
       </c>
       <c r="N119" s="13">
-        <f>$M119*24*60</f>
+        <f t="shared" si="28"/>
         <v>44.549999999580905</v>
       </c>
       <c r="O119" s="13"/>
@@ -12847,27 +12672,27 @@
       <c r="Q119" s="62"/>
       <c r="R119" s="62"/>
       <c r="T119" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E119-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I119+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B119&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 18:46:36-0600',mode:absolute,to:'2016-05-07 19:34:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U119" s="75" t="str">
-        <f>IF(Y119&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V119" s="75">
-        <f>VALUE(LEFT(A119,3))-VALUE(LEFT(A118,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W119" s="75">
-        <f>RIGHT(D119,LEN(D119)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>23.297799999999999</v>
       </c>
       <c r="X119" s="75">
-        <f>RIGHT(H119,LEN(H119)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y119" s="75">
-        <f>ABS(X119-W119)</f>
+        <f t="shared" si="35"/>
         <v>23.282799999999998</v>
       </c>
       <c r="Z119" s="76" t="e">
@@ -12911,7 +12736,7 @@
         <v>1</v>
       </c>
       <c r="K120" s="61" t="str">
-        <f>IF(ISEVEN(B120),(B120-1)&amp;"/"&amp;B120,B120&amp;"/"&amp;(B120+1))</f>
+        <f t="shared" si="29"/>
         <v>4029/4030</v>
       </c>
       <c r="L120" s="61" t="str">
@@ -12919,11 +12744,11 @@
         <v>HONTZ</v>
       </c>
       <c r="M120" s="12">
-        <f>I120-F120</f>
+        <f t="shared" si="30"/>
         <v>2.8923611105710734E-2</v>
       </c>
       <c r="N120" s="13">
-        <f>$M120*24*60</f>
+        <f t="shared" si="28"/>
         <v>41.649999992223457</v>
       </c>
       <c r="O120" s="13"/>
@@ -12931,27 +12756,27 @@
       <c r="Q120" s="62"/>
       <c r="R120" s="62"/>
       <c r="T120" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E120-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I120+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B120&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 18:07:02-0600',mode:absolute,to:'2016-05-07 18:52:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U120" s="75" t="str">
-        <f>IF(Y120&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V120" s="75">
-        <f>VALUE(LEFT(A120,3))-VALUE(LEFT(A119,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W120" s="75">
-        <f>RIGHT(D120,LEN(D120)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X120" s="75">
-        <f>RIGHT(H120,LEN(H120)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.3111</v>
       </c>
       <c r="Y120" s="75">
-        <f>ABS(X120-W120)</f>
+        <f t="shared" si="35"/>
         <v>23.266200000000001</v>
       </c>
       <c r="Z120" s="76" t="e">
@@ -12995,7 +12820,7 @@
         <v>1</v>
       </c>
       <c r="K121" s="61" t="str">
-        <f>IF(ISEVEN(B121),(B121-1)&amp;"/"&amp;B121,B121&amp;"/"&amp;(B121+1))</f>
+        <f t="shared" si="29"/>
         <v>4029/4030</v>
       </c>
       <c r="L121" s="61" t="str">
@@ -13003,11 +12828,11 @@
         <v>HONTZ</v>
       </c>
       <c r="M121" s="12">
-        <f>I121-F121</f>
+        <f t="shared" si="30"/>
         <v>3.0972222222771961E-2</v>
       </c>
       <c r="N121" s="13">
-        <f>$M121*24*60</f>
+        <f t="shared" si="28"/>
         <v>44.600000000791624</v>
       </c>
       <c r="O121" s="13"/>
@@ -13015,27 +12840,27 @@
       <c r="Q121" s="62"/>
       <c r="R121" s="62"/>
       <c r="T121" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E121-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I121+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B121&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 19:00:23-0600',mode:absolute,to:'2016-05-07 19:48:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U121" s="75" t="str">
-        <f>IF(Y121&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V121" s="75">
-        <f>VALUE(LEFT(A121,3))-VALUE(LEFT(A120,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W121" s="75">
-        <f>RIGHT(D121,LEN(D121)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>23.295500000000001</v>
       </c>
       <c r="X121" s="75">
-        <f>RIGHT(H121,LEN(H121)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y121" s="75">
-        <f>ABS(X121-W121)</f>
+        <f t="shared" si="35"/>
         <v>23.2805</v>
       </c>
       <c r="Z121" s="76" t="e">
@@ -13079,7 +12904,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="61" t="str">
-        <f>IF(ISEVEN(B122),(B122-1)&amp;"/"&amp;B122,B122&amp;"/"&amp;(B122+1))</f>
+        <f t="shared" si="29"/>
         <v>4011/4012</v>
       </c>
       <c r="L122" s="61" t="str">
@@ -13087,11 +12912,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M122" s="12">
-        <f>I122-F122</f>
+        <f t="shared" si="30"/>
         <v>2.9664351852261461E-2</v>
       </c>
       <c r="N122" s="13">
-        <f>$M122*24*60</f>
+        <f t="shared" ref="N122:N140" si="37">$M122*24*60</f>
         <v>42.716666667256504</v>
       </c>
       <c r="O122" s="13"/>
@@ -13099,27 +12924,27 @@
       <c r="Q122" s="62"/>
       <c r="R122" s="62"/>
       <c r="T122" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E122-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I122+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B122&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 18:20:20-0600',mode:absolute,to:'2016-05-07 19:06:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U122" s="75" t="str">
-        <f>IF(Y122&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V122" s="75">
-        <f>VALUE(LEFT(A122,3))-VALUE(LEFT(A121,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W122" s="75">
-        <f>RIGHT(D122,LEN(D122)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X122" s="75">
-        <f>RIGHT(H122,LEN(H122)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.3293</v>
       </c>
       <c r="Y122" s="75">
-        <f>ABS(X122-W122)</f>
+        <f t="shared" si="35"/>
         <v>23.284600000000001</v>
       </c>
       <c r="Z122" s="76" t="e">
@@ -13163,7 +12988,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="61" t="str">
-        <f>IF(ISEVEN(B123),(B123-1)&amp;"/"&amp;B123,B123&amp;"/"&amp;(B123+1))</f>
+        <f t="shared" si="29"/>
         <v>4011/4012</v>
       </c>
       <c r="L123" s="61" t="str">
@@ -13171,11 +12996,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M123" s="12">
-        <f>I123-F123</f>
+        <f t="shared" si="30"/>
         <v>2.6666666664823424E-2</v>
       </c>
       <c r="N123" s="13">
-        <f>$M123*24*60</f>
+        <f t="shared" si="37"/>
         <v>38.399999997345731</v>
       </c>
       <c r="O123" s="13"/>
@@ -13183,27 +13008,27 @@
       <c r="Q123" s="62"/>
       <c r="R123" s="62"/>
       <c r="T123" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E123-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I123+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B123&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 19:22:20-0600',mode:absolute,to:'2016-05-07 20:04:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U123" s="75" t="str">
-        <f>IF(Y123&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V123" s="75">
-        <f>VALUE(LEFT(A123,3))-VALUE(LEFT(A122,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W123" s="75">
-        <f>RIGHT(D123,LEN(D123)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>23.297799999999999</v>
       </c>
       <c r="X123" s="75">
-        <f>RIGHT(H123,LEN(H123)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y123" s="75">
-        <f>ABS(X123-W123)</f>
+        <f t="shared" si="35"/>
         <v>23.282</v>
       </c>
       <c r="Z123" s="76" t="e">
@@ -13247,7 +13072,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="61" t="str">
-        <f>IF(ISEVEN(B124),(B124-1)&amp;"/"&amp;B124,B124&amp;"/"&amp;(B124+1))</f>
+        <f t="shared" si="29"/>
         <v>4007/4008</v>
       </c>
       <c r="L124" s="61" t="str">
@@ -13255,11 +13080,11 @@
         <v>GOLIGHTLY</v>
       </c>
       <c r="M124" s="12">
-        <f>I124-F124</f>
+        <f t="shared" si="30"/>
         <v>2.7569444442633539E-2</v>
       </c>
       <c r="N124" s="13">
-        <f>$M124*24*60</f>
+        <f t="shared" si="37"/>
         <v>39.699999997392297</v>
       </c>
       <c r="O124" s="13"/>
@@ -13267,27 +13092,27 @@
       <c r="Q124" s="62"/>
       <c r="R124" s="62"/>
       <c r="T124" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E124-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I124+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B124&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 18:54:04-0600',mode:absolute,to:'2016-05-07 19:37:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U124" s="75" t="str">
-        <f>IF(Y124&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V124" s="75">
-        <f>VALUE(LEFT(A124,3))-VALUE(LEFT(A123,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W124" s="75">
-        <f>RIGHT(D124,LEN(D124)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X124" s="75">
-        <f>RIGHT(H124,LEN(H124)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.332100000000001</v>
       </c>
       <c r="Y124" s="75">
-        <f>ABS(X124-W124)</f>
+        <f t="shared" si="35"/>
         <v>23.285700000000002</v>
       </c>
       <c r="Z124" s="76" t="e">
@@ -13331,7 +13156,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="61" t="str">
-        <f>IF(ISEVEN(B125),(B125-1)&amp;"/"&amp;B125,B125&amp;"/"&amp;(B125+1))</f>
+        <f t="shared" si="29"/>
         <v>4007/4008</v>
       </c>
       <c r="L125" s="61" t="str">
@@ -13339,11 +13164,11 @@
         <v>GOLIGHTLY</v>
       </c>
       <c r="M125" s="12">
-        <f>I125-F125</f>
+        <f t="shared" si="30"/>
         <v>3.2546296293730848E-2</v>
       </c>
       <c r="N125" s="13">
-        <f>$M125*24*60</f>
+        <f t="shared" si="37"/>
         <v>46.86666666297242</v>
       </c>
       <c r="O125" s="13"/>
@@ -13351,27 +13176,27 @@
       <c r="Q125" s="62"/>
       <c r="R125" s="62"/>
       <c r="T125" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E125-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I125+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B125&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 19:43:53-0600',mode:absolute,to:'2016-05-07 20:34:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U125" s="75" t="str">
-        <f>IF(Y125&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V125" s="75">
-        <f>VALUE(LEFT(A125,3))-VALUE(LEFT(A124,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W125" s="75">
-        <f>RIGHT(D125,LEN(D125)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>23.299099999999999</v>
       </c>
       <c r="X125" s="75">
-        <f>RIGHT(H125,LEN(H125)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y125" s="75">
-        <f>ABS(X125-W125)</f>
+        <f t="shared" si="35"/>
         <v>23.283300000000001</v>
       </c>
       <c r="Z125" s="76" t="e">
@@ -13415,7 +13240,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="61" t="str">
-        <f>IF(ISEVEN(B126),(B126-1)&amp;"/"&amp;B126,B126&amp;"/"&amp;(B126+1))</f>
+        <f t="shared" si="29"/>
         <v>4025/4026</v>
       </c>
       <c r="L126" s="61" t="str">
@@ -13423,11 +13248,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M126" s="12">
-        <f>I126-F126</f>
+        <f t="shared" si="30"/>
         <v>2.7106481480586808E-2</v>
       </c>
       <c r="N126" s="13">
-        <f>$M126*24*60</f>
+        <f t="shared" si="37"/>
         <v>39.033333332045004</v>
       </c>
       <c r="O126" s="13"/>
@@ -13435,27 +13260,27 @@
       <c r="Q126" s="62"/>
       <c r="R126" s="62"/>
       <c r="T126" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E126-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I126+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B126&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 19:25:05-0600',mode:absolute,to:'2016-05-07 20:07:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U126" s="75" t="str">
-        <f>IF(Y126&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V126" s="75">
-        <f>VALUE(LEFT(A126,3))-VALUE(LEFT(A125,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W126" s="75">
-        <f>RIGHT(D126,LEN(D126)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X126" s="75">
-        <f>RIGHT(H126,LEN(H126)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.325700000000001</v>
       </c>
       <c r="Y126" s="75">
-        <f>ABS(X126-W126)</f>
+        <f t="shared" si="35"/>
         <v>23.2791</v>
       </c>
       <c r="Z126" s="76" t="e">
@@ -13499,7 +13324,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="61" t="str">
-        <f>IF(ISEVEN(B127),(B127-1)&amp;"/"&amp;B127,B127&amp;"/"&amp;(B127+1))</f>
+        <f t="shared" si="29"/>
         <v>4025/4026</v>
       </c>
       <c r="L127" s="61" t="str">
@@ -13507,11 +13332,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M127" s="12">
-        <f>I127-F127</f>
+        <f t="shared" si="30"/>
         <v>3.0925925922929309E-2</v>
       </c>
       <c r="N127" s="13">
-        <f>$M127*24*60</f>
+        <f t="shared" si="37"/>
         <v>44.533333329018205</v>
       </c>
       <c r="O127" s="13"/>
@@ -13519,27 +13344,27 @@
       <c r="Q127" s="62"/>
       <c r="R127" s="62"/>
       <c r="T127" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E127-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I127+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B127&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 20:18:27-0600',mode:absolute,to:'2016-05-07 21:06:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U127" s="75" t="str">
-        <f>IF(Y127&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V127" s="75">
-        <f>VALUE(LEFT(A127,3))-VALUE(LEFT(A126,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W127" s="75">
-        <f>RIGHT(D127,LEN(D127)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>23.293800000000001</v>
       </c>
       <c r="X127" s="75">
-        <f>RIGHT(H127,LEN(H127)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.78E-2</v>
       </c>
       <c r="Y127" s="75">
-        <f>ABS(X127-W127)</f>
+        <f t="shared" si="35"/>
         <v>23.276</v>
       </c>
       <c r="Z127" s="76" t="e">
@@ -13583,7 +13408,7 @@
         <v>1</v>
       </c>
       <c r="K128" s="61" t="str">
-        <f>IF(ISEVEN(B128),(B128-1)&amp;"/"&amp;B128,B128&amp;"/"&amp;(B128+1))</f>
+        <f t="shared" si="29"/>
         <v>4029/4030</v>
       </c>
       <c r="L128" s="61" t="str">
@@ -13591,11 +13416,11 @@
         <v>HONTZ</v>
       </c>
       <c r="M128" s="12">
-        <f>I128-F128</f>
+        <f t="shared" si="30"/>
         <v>2.7129629626870155E-2</v>
       </c>
       <c r="N128" s="13">
-        <f>$M128*24*60</f>
+        <f t="shared" si="37"/>
         <v>39.066666662693024</v>
       </c>
       <c r="O128" s="13"/>
@@ -13603,27 +13428,27 @@
       <c r="Q128" s="62"/>
       <c r="R128" s="62"/>
       <c r="T128" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E128-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I128+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B128&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 19:54:32-0600',mode:absolute,to:'2016-05-07 20:37:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U128" s="75" t="str">
-        <f>IF(Y128&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V128" s="75">
-        <f>VALUE(LEFT(A128,3))-VALUE(LEFT(A127,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W128" s="75">
-        <f>RIGHT(D128,LEN(D128)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="X128" s="75">
-        <f>RIGHT(H128,LEN(H128)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.311699999999998</v>
       </c>
       <c r="Y128" s="75">
-        <f>ABS(X128-W128)</f>
+        <f t="shared" si="35"/>
         <v>23.264599999999998</v>
       </c>
       <c r="Z128" s="76" t="e">
@@ -13667,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="K129" s="61" t="str">
-        <f>IF(ISEVEN(B129),(B129-1)&amp;"/"&amp;B129,B129&amp;"/"&amp;(B129+1))</f>
+        <f t="shared" si="29"/>
         <v>4029/4030</v>
       </c>
       <c r="L129" s="61" t="str">
@@ -13675,11 +13500,11 @@
         <v>HONTZ</v>
       </c>
       <c r="M129" s="12">
-        <f>I129-F129</f>
+        <f t="shared" si="30"/>
         <v>3.276620370161254E-2</v>
       </c>
       <c r="N129" s="13">
-        <f>$M129*24*60</f>
+        <f t="shared" si="37"/>
         <v>47.183333330322057</v>
       </c>
       <c r="O129" s="13"/>
@@ -13687,27 +13512,27 @@
       <c r="Q129" s="62"/>
       <c r="R129" s="62"/>
       <c r="T129" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E129-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I129+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B129&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 20:43:38-0600',mode:absolute,to:'2016-05-07 21:34:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U129" s="75" t="str">
-        <f>IF(Y129&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V129" s="75">
-        <f>VALUE(LEFT(A129,3))-VALUE(LEFT(A128,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W129" s="75">
-        <f>RIGHT(D129,LEN(D129)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>23.294899999999998</v>
       </c>
       <c r="X129" s="75">
-        <f>RIGHT(H129,LEN(H129)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y129" s="75">
-        <f>ABS(X129-W129)</f>
+        <f t="shared" si="35"/>
         <v>23.279499999999999</v>
       </c>
       <c r="Z129" s="76" t="e">
@@ -13751,7 +13576,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="61" t="str">
-        <f>IF(ISEVEN(B130),(B130-1)&amp;"/"&amp;B130,B130&amp;"/"&amp;(B130+1))</f>
+        <f t="shared" si="29"/>
         <v>4011/4012</v>
       </c>
       <c r="L130" s="61" t="str">
@@ -13759,11 +13584,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M130" s="12">
-        <f>I130-F130</f>
+        <f t="shared" si="30"/>
         <v>2.973379629838746E-2</v>
       </c>
       <c r="N130" s="13">
-        <f>$M130*24*60</f>
+        <f t="shared" si="37"/>
         <v>42.816666669677943</v>
       </c>
       <c r="O130" s="13"/>
@@ -13771,27 +13596,27 @@
       <c r="Q130" s="62"/>
       <c r="R130" s="62"/>
       <c r="T130" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E130-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I130+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B130&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 20:21:37-0600',mode:absolute,to:'2016-05-07 21:07:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U130" s="75" t="str">
-        <f>IF(Y130&lt;23,"Y","N")</f>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V130" s="75">
-        <f>VALUE(LEFT(A130,3))-VALUE(LEFT(A129,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W130" s="75">
-        <f>RIGHT(D130,LEN(D130)-4)/10000</f>
+        <f t="shared" si="33"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X130" s="75">
-        <f>RIGHT(H130,LEN(H130)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.329699999999999</v>
       </c>
       <c r="Y130" s="75">
-        <f>ABS(X130-W130)</f>
+        <f t="shared" si="35"/>
         <v>23.285</v>
       </c>
       <c r="Z130" s="76" t="e">
@@ -13835,7 +13660,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="61" t="str">
-        <f>IF(ISEVEN(B131),(B131-1)&amp;"/"&amp;B131,B131&amp;"/"&amp;(B131+1))</f>
+        <f t="shared" ref="K131:K150" si="38">IF(ISEVEN(B131),(B131-1)&amp;"/"&amp;B131,B131&amp;"/"&amp;(B131+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L131" s="61" t="str">
@@ -13843,11 +13668,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M131" s="12">
-        <f>I131-F131</f>
+        <f t="shared" ref="M131:M150" si="39">I131-F131</f>
         <v>2.7488425927003846E-2</v>
       </c>
       <c r="N131" s="13">
-        <f>$M131*24*60</f>
+        <f t="shared" si="37"/>
         <v>39.583333334885538</v>
       </c>
       <c r="O131" s="13"/>
@@ -13855,27 +13680,27 @@
       <c r="Q131" s="62"/>
       <c r="R131" s="62"/>
       <c r="T131" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E131-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I131+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B131&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T131:T150" si="40">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E131-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I131+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B131&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 21:21:27-0600',mode:absolute,to:'2016-05-07 22:04:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U131" s="75" t="str">
-        <f>IF(Y131&lt;23,"Y","N")</f>
+        <f t="shared" ref="U131:U150" si="41">IF(Y131&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V131" s="75">
-        <f>VALUE(LEFT(A131,3))-VALUE(LEFT(A130,3))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W131" s="75">
-        <f>RIGHT(D131,LEN(D131)-4)/10000</f>
+        <f t="shared" ref="W131:W150" si="42">RIGHT(D131,LEN(D131)-4)/10000</f>
         <v>23.2989</v>
       </c>
       <c r="X131" s="75">
-        <f>RIGHT(H131,LEN(H131)-4)/10000</f>
+        <f t="shared" ref="X131:X150" si="43">RIGHT(H131,LEN(H131)-4)/10000</f>
         <v>1.43E-2</v>
       </c>
       <c r="Y131" s="75">
-        <f>ABS(X131-W131)</f>
+        <f t="shared" ref="Y131:Y162" si="44">ABS(X131-W131)</f>
         <v>23.284600000000001</v>
       </c>
       <c r="Z131" s="76" t="e">
@@ -13919,7 +13744,7 @@
         <v>0</v>
       </c>
       <c r="K132" s="61" t="str">
-        <f>IF(ISEVEN(B132),(B132-1)&amp;"/"&amp;B132,B132&amp;"/"&amp;(B132+1))</f>
+        <f t="shared" si="38"/>
         <v>4007/4008</v>
       </c>
       <c r="L132" s="61" t="str">
@@ -13927,11 +13752,11 @@
         <v>GOLIGHTLY</v>
       </c>
       <c r="M132" s="12">
-        <f>I132-F132</f>
+        <f t="shared" si="39"/>
         <v>3.4884259257523809E-2</v>
       </c>
       <c r="N132" s="13">
-        <f>$M132*24*60</f>
+        <f t="shared" si="37"/>
         <v>50.233333330834284</v>
       </c>
       <c r="O132" s="13"/>
@@ -13939,27 +13764,27 @@
       <c r="Q132" s="62"/>
       <c r="R132" s="62"/>
       <c r="T132" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E132-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I132+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B132&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 20:43:47-0600',mode:absolute,to:'2016-05-07 21:37:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U132" s="75" t="str">
-        <f>IF(Y132&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V132" s="75">
-        <f>VALUE(LEFT(A132,3))-VALUE(LEFT(A131,3))</f>
+        <f t="shared" ref="V132:V150" si="45">VALUE(LEFT(A132,3))-VALUE(LEFT(A131,3))</f>
         <v>1</v>
       </c>
       <c r="W132" s="75">
-        <f>RIGHT(D132,LEN(D132)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X132" s="75">
-        <f>RIGHT(H132,LEN(H132)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.331199999999999</v>
       </c>
       <c r="Y132" s="75">
-        <f>ABS(X132-W132)</f>
+        <f t="shared" si="44"/>
         <v>23.286099999999998</v>
       </c>
       <c r="Z132" s="76" t="e">
@@ -14003,7 +13828,7 @@
         <v>1</v>
       </c>
       <c r="K133" s="61" t="str">
-        <f>IF(ISEVEN(B133),(B133-1)&amp;"/"&amp;B133,B133&amp;"/"&amp;(B133+1))</f>
+        <f t="shared" si="38"/>
         <v>4007/4008</v>
       </c>
       <c r="L133" s="61" t="str">
@@ -14011,11 +13836,11 @@
         <v>GOLIGHTLY</v>
       </c>
       <c r="M133" s="12">
-        <f>I133-F133</f>
+        <f t="shared" si="39"/>
         <v>3.6111111112404615E-2</v>
       </c>
       <c r="N133" s="13">
-        <f>$M133*24*60</f>
+        <f t="shared" si="37"/>
         <v>52.000000001862645</v>
       </c>
       <c r="O133" s="13"/>
@@ -14023,27 +13848,27 @@
       <c r="Q133" s="62"/>
       <c r="R133" s="62"/>
       <c r="T133" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E133-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I133+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B133&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 21:41:23-0600',mode:absolute,to:'2016-05-07 22:36:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U133" s="75" t="str">
-        <f>IF(Y133&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V133" s="75">
-        <f>VALUE(LEFT(A133,3))-VALUE(LEFT(A132,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W133" s="75">
-        <f>RIGHT(D133,LEN(D133)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.297899999999998</v>
       </c>
       <c r="X133" s="75">
-        <f>RIGHT(H133,LEN(H133)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>2.29E-2</v>
       </c>
       <c r="Y133" s="75">
-        <f>ABS(X133-W133)</f>
+        <f t="shared" si="44"/>
         <v>23.274999999999999</v>
       </c>
       <c r="Z133" s="76">
@@ -14087,7 +13912,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="61" t="str">
-        <f>IF(ISEVEN(B134),(B134-1)&amp;"/"&amp;B134,B134&amp;"/"&amp;(B134+1))</f>
+        <f t="shared" si="38"/>
         <v>4025/4026</v>
       </c>
       <c r="L134" s="61" t="str">
@@ -14095,11 +13920,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M134" s="12">
-        <f>I134-F134</f>
+        <f t="shared" si="39"/>
         <v>3.4502314811106771E-2</v>
       </c>
       <c r="N134" s="13">
-        <f>$M134*24*60</f>
+        <f t="shared" si="37"/>
         <v>49.683333327993751</v>
       </c>
       <c r="O134" s="13"/>
@@ -14107,27 +13932,27 @@
       <c r="Q134" s="62"/>
       <c r="R134" s="62"/>
       <c r="T134" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E134-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I134+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B134&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 21:15:57-0600',mode:absolute,to:'2016-05-07 22:09:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U134" s="75" t="str">
-        <f>IF(Y134&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V134" s="75">
-        <f>VALUE(LEFT(A134,3))-VALUE(LEFT(A133,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W134" s="75">
-        <f>RIGHT(D134,LEN(D134)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="X134" s="75">
-        <f>RIGHT(H134,LEN(H134)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.328900000000001</v>
       </c>
       <c r="Y134" s="75">
-        <f>ABS(X134-W134)</f>
+        <f t="shared" si="44"/>
         <v>23.280100000000001</v>
       </c>
       <c r="Z134" s="76" t="e">
@@ -14171,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="K135" s="61" t="str">
-        <f>IF(ISEVEN(B135),(B135-1)&amp;"/"&amp;B135,B135&amp;"/"&amp;(B135+1))</f>
+        <f t="shared" si="38"/>
         <v>4025/4026</v>
       </c>
       <c r="L135" s="61" t="str">
@@ -14179,11 +14004,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M135" s="12">
-        <f>I135-F135</f>
+        <f t="shared" si="39"/>
         <v>3.1828703700739425E-2</v>
       </c>
       <c r="N135" s="13">
-        <f>$M135*24*60</f>
+        <f t="shared" si="37"/>
         <v>45.833333329064772</v>
       </c>
       <c r="O135" s="13"/>
@@ -14191,27 +14016,27 @@
       <c r="Q135" s="62"/>
       <c r="R135" s="62"/>
       <c r="T135" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E135-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I135+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B135&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 22:17:05-0600',mode:absolute,to:'2016-05-07 23:06:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U135" s="75" t="str">
-        <f>IF(Y135&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V135" s="75">
-        <f>VALUE(LEFT(A135,3))-VALUE(LEFT(A134,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W135" s="75">
-        <f>RIGHT(D135,LEN(D135)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.296399999999998</v>
       </c>
       <c r="X135" s="75">
-        <f>RIGHT(H135,LEN(H135)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.6E-2</v>
       </c>
       <c r="Y135" s="75">
-        <f>ABS(X135-W135)</f>
+        <f t="shared" si="44"/>
         <v>23.2804</v>
       </c>
       <c r="Z135" s="76" t="e">
@@ -14255,7 +14080,7 @@
         <v>1</v>
       </c>
       <c r="K136" s="61" t="str">
-        <f>IF(ISEVEN(B136),(B136-1)&amp;"/"&amp;B136,B136&amp;"/"&amp;(B136+1))</f>
+        <f t="shared" si="38"/>
         <v>4029/4030</v>
       </c>
       <c r="L136" s="61" t="str">
@@ -14263,11 +14088,11 @@
         <v>HONTZ</v>
       </c>
       <c r="M136" s="12">
-        <f>I136-F136</f>
+        <f t="shared" si="39"/>
         <v>3.6458333335758653E-2</v>
       </c>
       <c r="N136" s="13">
-        <f>$M136*24*60</f>
+        <f t="shared" si="37"/>
         <v>52.50000000349246</v>
       </c>
       <c r="O136" s="13"/>
@@ -14275,27 +14100,27 @@
       <c r="Q136" s="62"/>
       <c r="R136" s="62"/>
       <c r="T136" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E136-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I136+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B136&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 21:41:08-0600',mode:absolute,to:'2016-05-07 22:36:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U136" s="75" t="str">
-        <f>IF(Y136&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V136" s="75">
-        <f>VALUE(LEFT(A136,3))-VALUE(LEFT(A135,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W136" s="75">
-        <f>RIGHT(D136,LEN(D136)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.82E-2</v>
       </c>
       <c r="X136" s="75">
-        <f>RIGHT(H136,LEN(H136)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.303799999999999</v>
       </c>
       <c r="Y136" s="75">
-        <f>ABS(X136-W136)</f>
+        <f t="shared" si="44"/>
         <v>23.255599999999998</v>
       </c>
       <c r="Z136" s="76" t="e">
@@ -14339,7 +14164,7 @@
         <v>1</v>
       </c>
       <c r="K137" s="61" t="str">
-        <f>IF(ISEVEN(B137),(B137-1)&amp;"/"&amp;B137,B137&amp;"/"&amp;(B137+1))</f>
+        <f t="shared" si="38"/>
         <v>4029/4030</v>
       </c>
       <c r="L137" s="61" t="str">
@@ -14347,11 +14172,11 @@
         <v>HONTZ</v>
       </c>
       <c r="M137" s="12">
-        <f>I137-F137</f>
+        <f t="shared" si="39"/>
         <v>3.0324074075906537E-2</v>
       </c>
       <c r="N137" s="13">
-        <f>$M137*24*60</f>
+        <f t="shared" si="37"/>
         <v>43.666666669305414</v>
       </c>
       <c r="O137" s="13"/>
@@ -14359,27 +14184,27 @@
       <c r="Q137" s="62"/>
       <c r="R137" s="62"/>
       <c r="T137" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E137-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I137+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B137&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 22:46:52-0600',mode:absolute,to:'2016-05-07 23:34:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U137" s="75" t="str">
-        <f>IF(Y137&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V137" s="75">
-        <f>VALUE(LEFT(A137,3))-VALUE(LEFT(A136,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W137" s="75">
-        <f>RIGHT(D137,LEN(D137)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.287500000000001</v>
       </c>
       <c r="X137" s="75">
-        <f>RIGHT(H137,LEN(H137)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y137" s="75">
-        <f>ABS(X137-W137)</f>
+        <f t="shared" si="44"/>
         <v>23.273</v>
       </c>
       <c r="Z137" s="76" t="e">
@@ -14423,7 +14248,7 @@
         <v>0</v>
       </c>
       <c r="K138" s="61" t="str">
-        <f>IF(ISEVEN(B138),(B138-1)&amp;"/"&amp;B138,B138&amp;"/"&amp;(B138+1))</f>
+        <f t="shared" si="38"/>
         <v>4011/4012</v>
       </c>
       <c r="L138" s="61" t="str">
@@ -14431,11 +14256,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M138" s="12">
-        <f>I138-F138</f>
+        <f t="shared" si="39"/>
         <v>2.7835648143081926E-2</v>
       </c>
       <c r="N138" s="13">
-        <f>$M138*24*60</f>
+        <f t="shared" si="37"/>
         <v>40.083333326037973</v>
       </c>
       <c r="O138" s="13"/>
@@ -14443,27 +14268,27 @@
       <c r="Q138" s="62"/>
       <c r="R138" s="62"/>
       <c r="T138" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E138-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I138+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B138&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 22:24:36-0600',mode:absolute,to:'2016-05-07 23:08:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U138" s="75" t="str">
-        <f>IF(Y138&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V138" s="75">
-        <f>VALUE(LEFT(A138,3))-VALUE(LEFT(A137,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W138" s="75">
-        <f>RIGHT(D138,LEN(D138)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.53E-2</v>
       </c>
       <c r="X138" s="75">
-        <f>RIGHT(H138,LEN(H138)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.329699999999999</v>
       </c>
       <c r="Y138" s="75">
-        <f>ABS(X138-W138)</f>
+        <f t="shared" si="44"/>
         <v>23.284399999999998</v>
       </c>
       <c r="Z138" s="76" t="e">
@@ -14507,7 +14332,7 @@
         <v>0</v>
       </c>
       <c r="K139" s="61" t="str">
-        <f>IF(ISEVEN(B139),(B139-1)&amp;"/"&amp;B139,B139&amp;"/"&amp;(B139+1))</f>
+        <f t="shared" si="38"/>
         <v>4011/4012</v>
       </c>
       <c r="L139" s="61" t="str">
@@ -14515,11 +14340,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M139" s="12">
-        <f>I139-F139</f>
+        <f t="shared" si="39"/>
         <v>2.7731481481168885E-2</v>
       </c>
       <c r="N139" s="13">
-        <f>$M139*24*60</f>
+        <f t="shared" si="37"/>
         <v>39.933333332883194</v>
       </c>
       <c r="O139" s="13"/>
@@ -14527,27 +14352,27 @@
       <c r="Q139" s="62"/>
       <c r="R139" s="62"/>
       <c r="T139" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E139-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I139+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B139&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 23:20:58-0600',mode:absolute,to:'2016-05-08 00:04:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U139" s="75" t="str">
-        <f>IF(Y139&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V139" s="75">
-        <f>VALUE(LEFT(A139,3))-VALUE(LEFT(A138,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W139" s="75">
-        <f>RIGHT(D139,LEN(D139)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.298100000000002</v>
       </c>
       <c r="X139" s="75">
-        <f>RIGHT(H139,LEN(H139)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y139" s="75">
-        <f>ABS(X139-W139)</f>
+        <f t="shared" si="44"/>
         <v>23.282700000000002</v>
       </c>
       <c r="Z139" s="76" t="e">
@@ -14591,7 +14416,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="61" t="str">
-        <f>IF(ISEVEN(B140),(B140-1)&amp;"/"&amp;B140,B140&amp;"/"&amp;(B140+1))</f>
+        <f t="shared" si="38"/>
         <v>4007/4008</v>
       </c>
       <c r="L140" s="61" t="str">
@@ -14599,11 +14424,11 @@
         <v>GOLIGHTLY</v>
       </c>
       <c r="M140" s="12">
-        <f>I140-F140</f>
+        <f t="shared" si="39"/>
         <v>3.6759259259270038E-2</v>
       </c>
       <c r="N140" s="13">
-        <f>$M140*24*60</f>
+        <f t="shared" si="37"/>
         <v>52.933333333348855</v>
       </c>
       <c r="O140" s="13"/>
@@ -14611,27 +14436,27 @@
       <c r="Q140" s="62"/>
       <c r="R140" s="62"/>
       <c r="T140" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E140-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I140+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B140&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 22:39:32-0600',mode:absolute,to:'2016-05-07 23:36:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U140" s="75" t="str">
-        <f>IF(Y140&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V140" s="75">
-        <f>VALUE(LEFT(A140,3))-VALUE(LEFT(A139,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W140" s="75">
-        <f>RIGHT(D140,LEN(D140)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>5.3100000000000001E-2</v>
       </c>
       <c r="X140" s="75">
-        <f>RIGHT(H140,LEN(H140)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.331199999999999</v>
       </c>
       <c r="Y140" s="75">
-        <f>ABS(X140-W140)</f>
+        <f t="shared" si="44"/>
         <v>23.278099999999998</v>
       </c>
       <c r="Z140" s="76" t="e">
@@ -14675,7 +14500,7 @@
         <v>0</v>
       </c>
       <c r="K141" s="61" t="str">
-        <f>IF(ISEVEN(B141),(B141-1)&amp;"/"&amp;B141,B141&amp;"/"&amp;(B141+1))</f>
+        <f t="shared" si="38"/>
         <v>4007/4008</v>
       </c>
       <c r="L141" s="61" t="str">
@@ -14683,7 +14508,7 @@
         <v>GOLIGHTLY</v>
       </c>
       <c r="M141" s="12">
-        <f>I141-F141</f>
+        <f t="shared" si="39"/>
         <v>2.6805555557075422E-2</v>
       </c>
       <c r="N141" s="13"/>
@@ -14696,30 +14521,30 @@
         <v>581</v>
       </c>
       <c r="R141" s="62" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="T141" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E141-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I141+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B141&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 23:42:33-0600',mode:absolute,to:'2016-05-08 00:24:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U141" s="75" t="str">
-        <f>IF(Y141&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>Y</v>
       </c>
       <c r="V141" s="75">
-        <f>VALUE(LEFT(A141,3))-VALUE(LEFT(A140,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W141" s="75">
-        <f>RIGHT(D141,LEN(D141)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.2881</v>
       </c>
       <c r="X141" s="75">
-        <f>RIGHT(H141,LEN(H141)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>3.6775000000000002</v>
       </c>
       <c r="Y141" s="75">
-        <f>ABS(X141-W141)</f>
+        <f t="shared" si="44"/>
         <v>19.610599999999998</v>
       </c>
       <c r="Z141" s="76" t="e">
@@ -14763,7 +14588,7 @@
         <v>1</v>
       </c>
       <c r="K142" s="61" t="str">
-        <f>IF(ISEVEN(B142),(B142-1)&amp;"/"&amp;B142,B142&amp;"/"&amp;(B142+1))</f>
+        <f t="shared" si="38"/>
         <v>4025/4026</v>
       </c>
       <c r="L142" s="61" t="str">
@@ -14771,11 +14596,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M142" s="12">
-        <f>I142-F142</f>
+        <f t="shared" si="39"/>
         <v>3.329861110978527E-2</v>
       </c>
       <c r="N142" s="13">
-        <f>$M142*24*60</f>
+        <f t="shared" ref="N142:N150" si="46">$M142*24*60</f>
         <v>47.949999998090789</v>
       </c>
       <c r="O142" s="13"/>
@@ -14783,27 +14608,27 @@
       <c r="Q142" s="62"/>
       <c r="R142" s="62"/>
       <c r="T142" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E142-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I142+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B142&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 23:17:12-0600',mode:absolute,to:'2016-05-08 00:08:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U142" s="75" t="str">
-        <f>IF(Y142&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V142" s="75">
-        <f>VALUE(LEFT(A142,3))-VALUE(LEFT(A141,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W142" s="75">
-        <f>RIGHT(D142,LEN(D142)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="X142" s="75">
-        <f>RIGHT(H142,LEN(H142)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.328099999999999</v>
       </c>
       <c r="Y142" s="75">
-        <f>ABS(X142-W142)</f>
+        <f t="shared" si="44"/>
         <v>23.279699999999998</v>
       </c>
       <c r="Z142" s="76" t="e">
@@ -14847,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="K143" s="61" t="str">
-        <f>IF(ISEVEN(B143),(B143-1)&amp;"/"&amp;B143,B143&amp;"/"&amp;(B143+1))</f>
+        <f t="shared" si="38"/>
         <v>4025/4026</v>
       </c>
       <c r="L143" s="61" t="str">
@@ -14855,11 +14680,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M143" s="12">
-        <f>I143-F143</f>
+        <f t="shared" si="39"/>
         <v>3.1469907407881692E-2</v>
       </c>
       <c r="N143" s="13">
-        <f>$M143*24*60</f>
+        <f t="shared" si="46"/>
         <v>45.316666667349637</v>
       </c>
       <c r="O143" s="13"/>
@@ -14867,27 +14692,27 @@
       <c r="Q143" s="62"/>
       <c r="R143" s="62"/>
       <c r="T143" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E143-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I143+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B143&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-08 00:17:02-0600',mode:absolute,to:'2016-05-08 01:05:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U143" s="75" t="str">
-        <f>IF(Y143&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V143" s="75">
-        <f>VALUE(LEFT(A143,3))-VALUE(LEFT(A142,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W143" s="75">
-        <f>RIGHT(D143,LEN(D143)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.2959</v>
       </c>
       <c r="X143" s="75">
-        <f>RIGHT(H143,LEN(H143)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>2.0899999999999998E-2</v>
       </c>
       <c r="Y143" s="75">
-        <f>ABS(X143-W143)</f>
+        <f t="shared" si="44"/>
         <v>23.274999999999999</v>
       </c>
       <c r="Z143" s="76" t="e">
@@ -14931,7 +14756,7 @@
         <v>2</v>
       </c>
       <c r="K144" s="61" t="str">
-        <f>IF(ISEVEN(B144),(B144-1)&amp;"/"&amp;B144,B144&amp;"/"&amp;(B144+1))</f>
+        <f t="shared" si="38"/>
         <v>4029/4030</v>
       </c>
       <c r="L144" s="61" t="str">
@@ -14939,11 +14764,11 @@
         <v>HONTZ</v>
       </c>
       <c r="M144" s="12">
-        <f>I144-F144</f>
+        <f t="shared" si="39"/>
         <v>3.6481481482042E-2</v>
       </c>
       <c r="N144" s="13">
-        <f>$M144*24*60</f>
+        <f t="shared" si="46"/>
         <v>52.53333333414048</v>
       </c>
       <c r="O144" s="13"/>
@@ -14951,27 +14776,27 @@
       <c r="Q144" s="62"/>
       <c r="R144" s="62"/>
       <c r="T144" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E144-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I144+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B144&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 23:41:38-0600',mode:absolute,to:'2016-05-08 00:37:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U144" s="75" t="str">
-        <f>IF(Y144&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V144" s="75">
-        <f>VALUE(LEFT(A144,3))-VALUE(LEFT(A143,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W144" s="75">
-        <f>RIGHT(D144,LEN(D144)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X144" s="75">
-        <f>RIGHT(H144,LEN(H144)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.309799999999999</v>
       </c>
       <c r="Y144" s="75">
-        <f>ABS(X144-W144)</f>
+        <f t="shared" si="44"/>
         <v>23.264699999999998</v>
       </c>
       <c r="Z144" s="76" t="e">
@@ -15015,7 +14840,7 @@
         <v>0</v>
       </c>
       <c r="K145" s="61" t="str">
-        <f>IF(ISEVEN(B145),(B145-1)&amp;"/"&amp;B145,B145&amp;"/"&amp;(B145+1))</f>
+        <f t="shared" si="38"/>
         <v>4029/4030</v>
       </c>
       <c r="L145" s="61" t="str">
@@ -15023,11 +14848,11 @@
         <v>HONTZ</v>
       </c>
       <c r="M145" s="12">
-        <f>I145-F145</f>
+        <f t="shared" si="39"/>
         <v>3.1296296292566694E-2</v>
       </c>
       <c r="N145" s="13">
-        <f>$M145*24*60</f>
+        <f t="shared" si="46"/>
         <v>45.06666666129604</v>
       </c>
       <c r="O145" s="13"/>
@@ -15035,27 +14860,27 @@
       <c r="Q145" s="62"/>
       <c r="R145" s="62"/>
       <c r="T145" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E145-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I145+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B145&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-08 00:45:05-0600',mode:absolute,to:'2016-05-08 01:33:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U145" s="75" t="str">
-        <f>IF(Y145&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V145" s="75">
-        <f>VALUE(LEFT(A145,3))-VALUE(LEFT(A144,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W145" s="75">
-        <f>RIGHT(D145,LEN(D145)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.294899999999998</v>
       </c>
       <c r="X145" s="75">
-        <f>RIGHT(H145,LEN(H145)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.6E-2</v>
       </c>
       <c r="Y145" s="75">
-        <f>ABS(X145-W145)</f>
+        <f t="shared" si="44"/>
         <v>23.2789</v>
       </c>
       <c r="Z145" s="76" t="e">
@@ -15099,7 +14924,7 @@
         <v>0</v>
       </c>
       <c r="K146" s="61" t="str">
-        <f>IF(ISEVEN(B146),(B146-1)&amp;"/"&amp;B146,B146&amp;"/"&amp;(B146+1))</f>
+        <f t="shared" si="38"/>
         <v>4011/4012</v>
       </c>
       <c r="L146" s="61" t="str">
@@ -15107,11 +14932,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M146" s="12">
-        <f>I146-F146</f>
+        <f t="shared" si="39"/>
         <v>2.849537037400296E-2</v>
       </c>
       <c r="N146" s="13">
-        <f>$M146*24*60</f>
+        <f t="shared" si="46"/>
         <v>41.033333338564262</v>
       </c>
       <c r="O146" s="13"/>
@@ -15119,27 +14944,27 @@
       <c r="Q146" s="62"/>
       <c r="R146" s="62"/>
       <c r="T146" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E146-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I146+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B146&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-08 00:22:15-0600',mode:absolute,to:'2016-05-08 01:06:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U146" s="75" t="str">
-        <f>IF(Y146&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V146" s="75">
-        <f>VALUE(LEFT(A146,3))-VALUE(LEFT(A145,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W146" s="75">
-        <f>RIGHT(D146,LEN(D146)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="X146" s="75">
-        <f>RIGHT(H146,LEN(H146)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.329499999999999</v>
       </c>
       <c r="Y146" s="75">
-        <f>ABS(X146-W146)</f>
+        <f t="shared" si="44"/>
         <v>23.282599999999999</v>
       </c>
       <c r="Z146" s="76" t="e">
@@ -15183,7 +15008,7 @@
         <v>0</v>
       </c>
       <c r="K147" s="61" t="str">
-        <f>IF(ISEVEN(B147),(B147-1)&amp;"/"&amp;B147,B147&amp;"/"&amp;(B147+1))</f>
+        <f t="shared" si="38"/>
         <v>4011/4012</v>
       </c>
       <c r="L147" s="61" t="str">
@@ -15191,11 +15016,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M147" s="12">
-        <f>I147-F147</f>
+        <f t="shared" si="39"/>
         <v>2.6331018518249039E-2</v>
       </c>
       <c r="N147" s="13">
-        <f>$M147*24*60</f>
+        <f t="shared" si="46"/>
         <v>37.916666666278616</v>
       </c>
       <c r="O147" s="13"/>
@@ -15203,27 +15028,27 @@
       <c r="Q147" s="62"/>
       <c r="R147" s="62"/>
       <c r="T147" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E147-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I147+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B147&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-08 01:22:12-0600',mode:absolute,to:'2016-05-08 02:03:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U147" s="75" t="str">
-        <f>IF(Y147&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V147" s="75">
-        <f>VALUE(LEFT(A147,3))-VALUE(LEFT(A146,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W147" s="75">
-        <f>RIGHT(D147,LEN(D147)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.299099999999999</v>
       </c>
       <c r="X147" s="75">
-        <f>RIGHT(H147,LEN(H147)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y147" s="75">
-        <f>ABS(X147-W147)</f>
+        <f t="shared" si="44"/>
         <v>23.2837</v>
       </c>
       <c r="Z147" s="76" t="e">
@@ -15267,7 +15092,7 @@
         <v>0</v>
       </c>
       <c r="K148" s="61" t="str">
-        <f>IF(ISEVEN(B148),(B148-1)&amp;"/"&amp;B148,B148&amp;"/"&amp;(B148+1))</f>
+        <f t="shared" si="38"/>
         <v>4007/4008</v>
       </c>
       <c r="L148" s="61" t="str">
@@ -15275,11 +15100,11 @@
         <v>GOLIGHTLY</v>
       </c>
       <c r="M148" s="12">
-        <f>I148-F148</f>
+        <f t="shared" si="39"/>
         <v>2.8368055558530614E-2</v>
       </c>
       <c r="N148" s="13">
-        <f>$M148*24*60</f>
+        <f t="shared" si="46"/>
         <v>40.850000004284084</v>
       </c>
       <c r="O148" s="13"/>
@@ -15287,27 +15112,27 @@
       <c r="Q148" s="62"/>
       <c r="R148" s="62"/>
       <c r="T148" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E148-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I148+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B148&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-08 00:51:58-0600',mode:absolute,to:'2016-05-08 01:36:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U148" s="75" t="str">
-        <f>IF(Y148&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V148" s="75">
-        <f>VALUE(LEFT(A148,3))-VALUE(LEFT(A147,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W148" s="75">
-        <f>RIGHT(D148,LEN(D148)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="X148" s="75">
-        <f>RIGHT(H148,LEN(H148)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.331199999999999</v>
       </c>
       <c r="Y148" s="75">
-        <f>ABS(X148-W148)</f>
+        <f t="shared" si="44"/>
         <v>23.283899999999999</v>
       </c>
       <c r="Z148" s="76" t="e">
@@ -15351,7 +15176,7 @@
         <v>0</v>
       </c>
       <c r="K149" s="61" t="str">
-        <f>IF(ISEVEN(B149),(B149-1)&amp;"/"&amp;B149,B149&amp;"/"&amp;(B149+1))</f>
+        <f t="shared" si="38"/>
         <v>4037/4038</v>
       </c>
       <c r="L149" s="61" t="str">
@@ -15359,11 +15184,11 @@
         <v>GOLIGHTLY</v>
       </c>
       <c r="M149" s="12">
-        <f>I149-F149</f>
+        <f t="shared" si="39"/>
         <v>3.3726851848769002E-2</v>
       </c>
       <c r="N149" s="13">
-        <f>$M149*24*60</f>
+        <f t="shared" si="46"/>
         <v>48.566666662227362</v>
       </c>
       <c r="O149" s="13"/>
@@ -15371,27 +15196,27 @@
       <c r="Q149" s="62"/>
       <c r="R149" s="62"/>
       <c r="T149" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E149-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I149+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B149&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-07 01:45:49-0600',mode:absolute,to:'2016-05-07 02:37:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U149" s="75" t="str">
-        <f>IF(Y149&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V149" s="75">
-        <f>VALUE(LEFT(A149,3))-VALUE(LEFT(A148,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W149" s="75">
-        <f>RIGHT(D149,LEN(D149)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.299600000000002</v>
       </c>
       <c r="X149" s="75">
-        <f>RIGHT(H149,LEN(H149)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>0.1169</v>
       </c>
       <c r="Y149" s="75">
-        <f>ABS(X149-W149)</f>
+        <f t="shared" si="44"/>
         <v>23.182700000000001</v>
       </c>
       <c r="Z149" s="76" t="e">
@@ -15435,7 +15260,7 @@
         <v>1</v>
       </c>
       <c r="K150" s="61" t="str">
-        <f>IF(ISEVEN(B150),(B150-1)&amp;"/"&amp;B150,B150&amp;"/"&amp;(B150+1))</f>
+        <f t="shared" si="38"/>
         <v>4007/4008</v>
       </c>
       <c r="L150" s="61" t="str">
@@ -15443,11 +15268,11 @@
         <v>GOLIGHTLY</v>
       </c>
       <c r="M150" s="12">
-        <f>I150-F150</f>
+        <f t="shared" si="39"/>
         <v>3.0451388891378883E-2</v>
       </c>
       <c r="N150" s="13">
-        <f>$M150*24*60</f>
+        <f t="shared" si="46"/>
         <v>43.850000003585592</v>
       </c>
       <c r="O150" s="13"/>
@@ -15455,27 +15280,27 @@
       <c r="Q150" s="62"/>
       <c r="R150" s="62"/>
       <c r="T150" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E150-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I150+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B150&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="40"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-08 01:46:11-0600',mode:absolute,to:'2016-05-08 02:34:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U150" s="75" t="str">
-        <f>IF(Y150&lt;23,"Y","N")</f>
+        <f t="shared" si="41"/>
         <v>N</v>
       </c>
       <c r="V150" s="75">
-        <f>VALUE(LEFT(A150,3))-VALUE(LEFT(A149,3))</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W150" s="75">
-        <f>RIGHT(D150,LEN(D150)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.299600000000002</v>
       </c>
       <c r="X150" s="75">
-        <f>RIGHT(H150,LEN(H150)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>0.1181</v>
       </c>
       <c r="Y150" s="75">
-        <f>ABS(X150-W150)</f>
+        <f t="shared" si="44"/>
         <v>23.181500000000003</v>
       </c>
       <c r="Z150" s="76" t="e">
@@ -15975,28 +15800,28 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:V1 U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="33" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1 V3:V1048576">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:P151 A3:R150">
-    <cfRule type="expression" dxfId="31" priority="34">
+    <cfRule type="expression" dxfId="6" priority="34">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="35">
+    <cfRule type="expression" dxfId="5" priority="35">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q151:R151">
-    <cfRule type="expression" dxfId="29" priority="74">
+    <cfRule type="expression" dxfId="4" priority="74">
       <formula>$P151&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="75">
+    <cfRule type="expression" dxfId="3" priority="75">
       <formula>$O168&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16028,8 +15853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18021,12 +17846,12 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:N46">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EC/Train Runs and Enforcements 2016-05-07.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-07.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -1799,9 +1799,6 @@
     <t>TMC entered a failed state</t>
   </si>
   <si>
-    <t>Ticket needed</t>
-  </si>
-  <si>
     <t>Enforcement due to premature signal downgrade, remainder of trip in ATC to maintain schedule</t>
   </si>
   <si>
@@ -1811,13 +1808,16 @@
     <t>TMC entered a failed state following initialization, ran ATC for first 15 mi of trip. Initialized at 61st/Pena Station</t>
   </si>
   <si>
-    <t>TMC entered a failed state, ran trip in ATC</t>
-  </si>
-  <si>
     <t>TMC entered a failed state, rest of the trip in ATC</t>
   </si>
   <si>
     <t>GPS signal indicated impossible location, ATC for the last 0.5 mi of trip</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Insufficient GPS signal at DUS</t>
   </si>
 </sst>
 </file>
@@ -2662,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK167"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R141" sqref="R141"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q141" sqref="Q141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3745,10 +3745,10 @@
         <v>48.999999992083758</v>
       </c>
       <c r="Q13" s="62" t="s">
+        <v>586</v>
+      </c>
+      <c r="R13" s="62" t="s">
         <v>581</v>
-      </c>
-      <c r="R13" s="62" t="s">
-        <v>582</v>
       </c>
       <c r="T13" s="75" t="str">
         <f t="shared" si="3"/>
@@ -5094,10 +5094,10 @@
         <v>21.866666665300727</v>
       </c>
       <c r="Q29" s="62" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="R29" s="62" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="T29" s="75" t="str">
         <f t="shared" si="3"/>
@@ -6190,10 +6190,10 @@
         <v>26.433333330787718</v>
       </c>
       <c r="Q42" s="62" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="R42" s="62" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="T42" s="75" t="str">
         <f t="shared" si="13"/>
@@ -9806,10 +9806,10 @@
         <v>9.0333333390299231</v>
       </c>
       <c r="Q85" s="62" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="R85" s="62" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="T85" s="75" t="str">
         <f t="shared" si="22"/>
@@ -10146,10 +10146,10 @@
         <v>34.499999997206032</v>
       </c>
       <c r="Q89" s="62" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="R89" s="62" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="T89" s="75" t="str">
         <f t="shared" si="22"/>
@@ -13700,7 +13700,7 @@
         <v>1.43E-2</v>
       </c>
       <c r="Y131" s="75">
-        <f t="shared" ref="Y131:Y162" si="44">ABS(X131-W131)</f>
+        <f t="shared" ref="Y131:Y150" si="44">ABS(X131-W131)</f>
         <v>23.284600000000001</v>
       </c>
       <c r="Z131" s="76" t="e">
@@ -14518,10 +14518,10 @@
         <v>38.600000002188608</v>
       </c>
       <c r="Q141" s="62" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="R141" s="62" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="T141" s="75" t="str">
         <f t="shared" si="40"/>
@@ -15853,8 +15853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
